--- a/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63821649-CAD6-43D9-B0EE-749E74B18F49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D17AFAB-F93F-4352-ACDD-71AA06EDD243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1980" windowWidth="21600" windowHeight="11505" xr2:uid="{58F1DA73-BF3E-4887-9D90-46A66EAB77E8}"/>
+    <workbookView xWindow="2235" yWindow="2625" windowWidth="13995" windowHeight="11505" xr2:uid="{57487ED0-69CA-4817-83C7-DF414C18DECA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2A0FC7-A0D5-4517-BE83-8DE7C6A97F7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC25230A-DE63-4D24-A8D8-42CBC69291DD}">
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -615,10 +615,10 @@
         <v>104</v>
       </c>
       <c r="B2" s="5">
+        <v>108</v>
+      </c>
+      <c r="C2" s="8">
         <v>104</v>
-      </c>
-      <c r="C2" s="8">
-        <v>108</v>
       </c>
       <c r="D2" s="8">
         <v>104</v>
@@ -635,10 +635,10 @@
         <v>108</v>
       </c>
       <c r="B3" s="5">
+        <v>112</v>
+      </c>
+      <c r="C3" s="8">
         <v>108</v>
-      </c>
-      <c r="C3" s="8">
-        <v>112</v>
       </c>
       <c r="D3" s="8">
         <v>105</v>
@@ -658,7 +658,7 @@
         <v>122</v>
       </c>
       <c r="C4" s="8">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D4" s="8">
         <v>112</v>
@@ -672,13 +672,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
+        <v>151</v>
+      </c>
+      <c r="B5" s="5">
+        <v>151</v>
+      </c>
+      <c r="C5" s="8">
         <v>122</v>
-      </c>
-      <c r="B5" s="5">
-        <v>123</v>
-      </c>
-      <c r="C5" s="8">
-        <v>151</v>
       </c>
       <c r="D5" s="8">
         <v>117</v>
@@ -692,13 +692,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
+        <v>152</v>
+      </c>
+      <c r="B6" s="5">
+        <v>153</v>
+      </c>
+      <c r="C6" s="8">
         <v>123</v>
-      </c>
-      <c r="B6" s="5">
-        <v>151</v>
-      </c>
-      <c r="C6" s="8">
-        <v>152</v>
       </c>
       <c r="D6" s="8">
         <v>122</v>
@@ -712,13 +712,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
+        <v>153</v>
+      </c>
+      <c r="B7" s="5">
+        <v>154</v>
+      </c>
+      <c r="C7" s="8">
         <v>151</v>
-      </c>
-      <c r="B7" s="5">
-        <v>152</v>
-      </c>
-      <c r="C7" s="8">
-        <v>154</v>
       </c>
       <c r="D7" s="8">
         <v>123</v>
@@ -732,13 +732,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B8" s="5">
+        <v>200</v>
+      </c>
+      <c r="C8" s="8">
         <v>153</v>
-      </c>
-      <c r="C8" s="8">
-        <v>201</v>
       </c>
       <c r="D8" s="8">
         <v>151</v>
@@ -752,13 +752,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="B9" s="5">
+        <v>201</v>
+      </c>
+      <c r="C9" s="8">
         <v>154</v>
-      </c>
-      <c r="C9" s="8">
-        <v>203</v>
       </c>
       <c r="D9" s="8">
         <v>152</v>
@@ -772,13 +772,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="B10" s="5">
+        <v>202</v>
+      </c>
+      <c r="C10" s="8">
         <v>200</v>
-      </c>
-      <c r="C10" s="8">
-        <v>204</v>
       </c>
       <c r="D10" s="8">
         <v>153</v>
@@ -792,13 +792,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B11" s="5">
+        <v>203</v>
+      </c>
+      <c r="C11" s="8">
         <v>201</v>
-      </c>
-      <c r="C11" s="8">
-        <v>206</v>
       </c>
       <c r="D11" s="8">
         <v>154</v>
@@ -812,13 +812,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B12" s="5">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C12" s="8">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D12" s="8">
         <v>200</v>
@@ -832,13 +832,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B13" s="5">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C13" s="8">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D13" s="8">
         <v>201</v>
@@ -852,13 +852,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B14" s="5">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C14" s="8">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D14" s="8">
         <v>202</v>
@@ -872,13 +872,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B15" s="5">
         <v>211</v>
       </c>
       <c r="C15" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D15" s="8">
         <v>203</v>
@@ -892,13 +892,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B16" s="5">
         <v>213</v>
       </c>
       <c r="C16" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D16" s="8">
         <v>204</v>
@@ -918,7 +918,7 @@
         <v>215</v>
       </c>
       <c r="C17" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D17" s="8">
         <v>206</v>
@@ -938,7 +938,7 @@
         <v>217</v>
       </c>
       <c r="C18" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D18" s="8">
         <v>208</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B19" s="5">
         <v>218</v>
@@ -961,7 +961,7 @@
         <v>217</v>
       </c>
       <c r="D19" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E19" s="5">
         <v>203</v>
@@ -972,13 +972,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" s="5">
         <v>219</v>
       </c>
       <c r="C20" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D20" s="8">
         <v>213</v>
@@ -998,10 +998,10 @@
         <v>303</v>
       </c>
       <c r="C21" s="8">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="D21" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E21" s="5">
         <v>206</v>
@@ -1012,16 +1012,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B22" s="5">
         <v>304</v>
       </c>
       <c r="C22" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D22" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E22" s="5">
         <v>208</v>
@@ -1038,10 +1038,10 @@
         <v>306</v>
       </c>
       <c r="C23" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D23" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E23" s="5">
         <v>209</v>
@@ -1058,10 +1058,10 @@
         <v>308</v>
       </c>
       <c r="C24" s="8">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D24" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E24" s="5">
         <v>210</v>
@@ -1075,13 +1075,13 @@
         <v>304</v>
       </c>
       <c r="B25" s="5">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C25" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D25" s="8">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="E25" s="5">
         <v>211</v>
@@ -1092,16 +1092,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B26" s="5">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C26" s="8">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D26" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E26" s="5">
         <v>213</v>
@@ -1112,16 +1112,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B27" s="5">
+        <v>322</v>
+      </c>
+      <c r="C27" s="8">
         <v>321</v>
       </c>
-      <c r="C27" s="8">
-        <v>322</v>
-      </c>
       <c r="D27" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E27" s="5">
         <v>214</v>
@@ -1132,16 +1132,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B28" s="5">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="C28" s="8">
         <v>403</v>
       </c>
       <c r="D28" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E28" s="5">
         <v>215</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B29" s="5">
         <v>404</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="B30" s="5">
         <v>405</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B31" s="5">
         <v>412</v>
@@ -1208,8 +1208,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>404</v>
+      <c r="A32" s="6">
+        <v>405</v>
       </c>
       <c r="B32" s="6">
         <v>416</v>
@@ -1224,10 +1224,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
-        <v>416</v>
-      </c>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="8">
         <v>319</v>
       </c>
@@ -1238,7 +1235,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="8">
         <v>321</v>
       </c>
@@ -1249,7 +1246,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="8">
         <v>322</v>
       </c>
@@ -1260,9 +1257,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="8">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E36" s="5">
         <v>304</v>
@@ -1271,9 +1268,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="8">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E37" s="5">
         <v>305</v>
@@ -1282,9 +1279,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="8">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E38" s="5">
         <v>306</v>
@@ -1293,9 +1290,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="8">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E39" s="5">
         <v>308</v>
@@ -1304,9 +1301,9 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="8">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E40" s="5">
         <v>310</v>
@@ -1315,9 +1312,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D41" s="8">
-        <v>412</v>
+    <row r="41" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="9">
+        <v>416</v>
       </c>
       <c r="E41" s="5">
         <v>311</v>
@@ -1326,10 +1323,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="9">
-        <v>416</v>
-      </c>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E42" s="5">
         <v>314</v>
       </c>
@@ -1337,7 +1331,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E43" s="5">
         <v>317</v>
       </c>
@@ -1345,7 +1339,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E44" s="5">
         <v>318</v>
       </c>
@@ -1353,7 +1347,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E45" s="5">
         <v>319</v>
       </c>
@@ -1361,7 +1355,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E46" s="5">
         <v>321</v>
       </c>
@@ -1369,7 +1363,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E47" s="5">
         <v>322</v>
       </c>
@@ -1377,7 +1371,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E48" s="5">
         <v>403</v>
       </c>
@@ -1477,10 +1471,10 @@
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="12" t="s">
@@ -1497,11 +1491,11 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+      <c r="A62" s="8">
         <v>104</v>
       </c>
-      <c r="B62" s="8">
-        <v>104</v>
+      <c r="B62" s="5">
+        <v>108</v>
       </c>
       <c r="C62" s="8">
         <v>108</v>
@@ -1517,11 +1511,11 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>106</v>
-      </c>
-      <c r="B63" s="8">
+      <c r="A63" s="8">
         <v>108</v>
+      </c>
+      <c r="B63" s="5">
+        <v>112</v>
       </c>
       <c r="C63" s="8">
         <v>112</v>
@@ -1537,14 +1531,14 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>108</v>
-      </c>
-      <c r="B64" s="8">
-        <v>123</v>
+      <c r="A64" s="8">
+        <v>122</v>
+      </c>
+      <c r="B64" s="5">
+        <v>117</v>
       </c>
       <c r="C64" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D64" s="8">
         <v>106</v>
@@ -1557,14 +1551,14 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="A65" s="8">
+        <v>123</v>
+      </c>
+      <c r="B65" s="5">
         <v>122</v>
       </c>
-      <c r="B65" s="8">
-        <v>151</v>
-      </c>
       <c r="C65" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D65" s="8">
         <v>108</v>
@@ -1577,14 +1571,14 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="A66" s="8">
         <v>151</v>
       </c>
-      <c r="B66" s="8">
-        <v>152</v>
+      <c r="B66" s="5">
+        <v>123</v>
       </c>
       <c r="C66" s="8">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="D66" s="8">
         <v>109</v>
@@ -1597,14 +1591,14 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="A67" s="8">
         <v>152</v>
       </c>
-      <c r="B67" s="8">
-        <v>153</v>
+      <c r="B67" s="5">
+        <v>151</v>
       </c>
       <c r="C67" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D67" s="8">
         <v>111</v>
@@ -1617,14 +1611,14 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="A68" s="8">
         <v>153</v>
       </c>
-      <c r="B68" s="8">
-        <v>154</v>
+      <c r="B68" s="5">
+        <v>152</v>
       </c>
       <c r="C68" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D68" s="8">
         <v>112</v>
@@ -1637,11 +1631,11 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
-        <v>200</v>
-      </c>
-      <c r="B69" s="8">
-        <v>200</v>
+      <c r="A69" s="8">
+        <v>154</v>
+      </c>
+      <c r="B69" s="5">
+        <v>153</v>
       </c>
       <c r="C69" s="8">
         <v>154</v>
@@ -1657,11 +1651,11 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
-        <v>201</v>
-      </c>
-      <c r="B70" s="8">
-        <v>202</v>
+      <c r="A70" s="8">
+        <v>200</v>
+      </c>
+      <c r="B70" s="5">
+        <v>154</v>
       </c>
       <c r="C70" s="8">
         <v>200</v>
@@ -1677,14 +1671,14 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="A71" s="8">
+        <v>201</v>
+      </c>
+      <c r="B71" s="5">
+        <v>200</v>
+      </c>
+      <c r="C71" s="8">
         <v>202</v>
-      </c>
-      <c r="B71" s="8">
-        <v>203</v>
-      </c>
-      <c r="C71" s="8">
-        <v>201</v>
       </c>
       <c r="D71" s="8">
         <v>123</v>
@@ -1697,11 +1691,11 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>204</v>
-      </c>
-      <c r="B72" s="8">
-        <v>204</v>
+      <c r="A72" s="8">
+        <v>202</v>
+      </c>
+      <c r="B72" s="5">
+        <v>202</v>
       </c>
       <c r="C72" s="8">
         <v>203</v>
@@ -1717,14 +1711,14 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>208</v>
-      </c>
-      <c r="B73" s="8">
-        <v>206</v>
+      <c r="A73" s="8">
+        <v>203</v>
+      </c>
+      <c r="B73" s="5">
+        <v>203</v>
       </c>
       <c r="C73" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8">
         <v>152</v>
@@ -1737,14 +1731,14 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
-        <v>210</v>
-      </c>
-      <c r="B74" s="8">
-        <v>208</v>
+      <c r="A74" s="8">
+        <v>204</v>
+      </c>
+      <c r="B74" s="5">
+        <v>204</v>
       </c>
       <c r="C74" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8">
         <v>153</v>
@@ -1757,14 +1751,14 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
-        <v>211</v>
-      </c>
-      <c r="B75" s="8">
-        <v>210</v>
+      <c r="A75" s="8">
+        <v>206</v>
+      </c>
+      <c r="B75" s="5">
+        <v>206</v>
       </c>
       <c r="C75" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8">
         <v>154</v>
@@ -1777,14 +1771,14 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
-        <v>213</v>
-      </c>
-      <c r="B76" s="8">
-        <v>211</v>
+      <c r="A76" s="8">
+        <v>208</v>
+      </c>
+      <c r="B76" s="5">
+        <v>209</v>
       </c>
       <c r="C76" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D76" s="8">
         <v>200</v>
@@ -1797,14 +1791,14 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <v>214</v>
-      </c>
-      <c r="B77" s="8">
-        <v>213</v>
+      <c r="A77" s="8">
+        <v>210</v>
+      </c>
+      <c r="B77" s="5">
+        <v>210</v>
       </c>
       <c r="C77" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D77" s="8">
         <v>201</v>
@@ -1817,14 +1811,14 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>215</v>
-      </c>
-      <c r="B78" s="8">
-        <v>214</v>
+      <c r="A78" s="8">
+        <v>211</v>
+      </c>
+      <c r="B78" s="5">
+        <v>211</v>
       </c>
       <c r="C78" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D78" s="8">
         <v>202</v>
@@ -1837,14 +1831,14 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
-        <v>216</v>
-      </c>
-      <c r="B79" s="8">
-        <v>215</v>
+      <c r="A79" s="8">
+        <v>214</v>
+      </c>
+      <c r="B79" s="5">
+        <v>213</v>
       </c>
       <c r="C79" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D79" s="8">
         <v>203</v>
@@ -1857,14 +1851,14 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>217</v>
-      </c>
-      <c r="B80" s="8">
-        <v>216</v>
+      <c r="A80" s="8">
+        <v>215</v>
+      </c>
+      <c r="B80" s="5">
+        <v>215</v>
       </c>
       <c r="C80" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D80" s="8">
         <v>204</v>
@@ -1877,14 +1871,14 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
-        <v>218</v>
-      </c>
-      <c r="B81" s="8">
+      <c r="A81" s="8">
+        <v>216</v>
+      </c>
+      <c r="B81" s="5">
         <v>217</v>
       </c>
       <c r="C81" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D81" s="8">
         <v>206</v>
@@ -1897,14 +1891,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
-        <v>303</v>
-      </c>
-      <c r="B82" s="8">
+      <c r="A82" s="8">
+        <v>217</v>
+      </c>
+      <c r="B82" s="5">
         <v>218</v>
       </c>
       <c r="C82" s="8">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="D82" s="8">
         <v>208</v>
@@ -1917,14 +1911,14 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
-        <v>304</v>
-      </c>
-      <c r="B83" s="8">
+      <c r="A83" s="8">
+        <v>218</v>
+      </c>
+      <c r="B83" s="5">
         <v>219</v>
       </c>
       <c r="C83" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D83" s="8">
         <v>209</v>
@@ -1937,14 +1931,14 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
-        <v>306</v>
-      </c>
-      <c r="B84" s="8">
+      <c r="A84" s="8">
+        <v>303</v>
+      </c>
+      <c r="B84" s="5">
+        <v>303</v>
+      </c>
+      <c r="C84" s="8">
         <v>304</v>
-      </c>
-      <c r="C84" s="8">
-        <v>308</v>
       </c>
       <c r="D84" s="8">
         <v>210</v>
@@ -1957,14 +1951,14 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
-        <v>308</v>
-      </c>
-      <c r="B85" s="8">
-        <v>308</v>
+      <c r="A85" s="8">
+        <v>304</v>
+      </c>
+      <c r="B85" s="5">
+        <v>304</v>
       </c>
       <c r="C85" s="8">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D85" s="8">
         <v>211</v>
@@ -1977,14 +1971,14 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <v>310</v>
-      </c>
-      <c r="B86" s="8">
-        <v>310</v>
+      <c r="A86" s="8">
+        <v>306</v>
+      </c>
+      <c r="B86" s="5">
+        <v>306</v>
       </c>
       <c r="C86" s="8">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D86" s="8">
         <v>213</v>
@@ -1997,14 +1991,14 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
-        <v>314</v>
-      </c>
-      <c r="B87" s="8">
-        <v>317</v>
+      <c r="A87" s="8">
+        <v>310</v>
+      </c>
+      <c r="B87" s="5">
+        <v>310</v>
       </c>
       <c r="C87" s="8">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D87" s="8">
         <v>214</v>
@@ -2017,14 +2011,14 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+      <c r="A88" s="8">
+        <v>314</v>
+      </c>
+      <c r="B88" s="5">
+        <v>314</v>
+      </c>
+      <c r="C88" s="8">
         <v>321</v>
-      </c>
-      <c r="B88" s="8">
-        <v>322</v>
-      </c>
-      <c r="C88" s="8">
-        <v>322</v>
       </c>
       <c r="D88" s="8">
         <v>215</v>
@@ -2037,14 +2031,14 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+      <c r="A89" s="8">
+        <v>317</v>
+      </c>
+      <c r="B89" s="5">
+        <v>317</v>
+      </c>
+      <c r="C89" s="8">
         <v>322</v>
-      </c>
-      <c r="B89" s="8">
-        <v>403</v>
-      </c>
-      <c r="C89" s="8">
-        <v>403</v>
       </c>
       <c r="D89" s="8">
         <v>216</v>
@@ -2057,11 +2051,11 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+      <c r="A90" s="8">
+        <v>321</v>
+      </c>
+      <c r="B90" s="5">
         <v>403</v>
-      </c>
-      <c r="B90" s="8">
-        <v>404</v>
       </c>
       <c r="C90" s="8">
         <v>404</v>
@@ -2077,14 +2071,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+      <c r="A91" s="8">
+        <v>403</v>
+      </c>
+      <c r="B91" s="5">
         <v>404</v>
       </c>
-      <c r="B91" s="8">
+      <c r="C91" s="8">
         <v>405</v>
-      </c>
-      <c r="C91" s="8">
-        <v>413</v>
       </c>
       <c r="D91" s="8">
         <v>218</v>
@@ -2097,14 +2091,14 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6">
+      <c r="A92" s="9">
         <v>405</v>
       </c>
-      <c r="B92" s="9">
-        <v>416</v>
+      <c r="B92" s="5">
+        <v>405</v>
       </c>
       <c r="C92" s="8">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D92" s="8">
         <v>219</v>
@@ -2117,6 +2111,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="6">
+        <v>416</v>
+      </c>
       <c r="C93" s="9">
         <v>717</v>
       </c>
@@ -2435,7 +2432,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B122" s="5">
         <v>104</v>
@@ -2455,16 +2452,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B123" s="5">
         <v>105</v>
       </c>
       <c r="C123" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D123" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E123" s="5">
         <v>105</v>
@@ -2475,16 +2472,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B124" s="5">
         <v>108</v>
       </c>
       <c r="C124" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D124" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E124" s="5">
         <v>106</v>
@@ -2495,16 +2492,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B125" s="5">
         <v>112</v>
       </c>
       <c r="C125" s="8">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D125" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E125" s="5">
         <v>108</v>
@@ -2515,16 +2512,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="B126" s="5">
         <v>122</v>
       </c>
       <c r="C126" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D126" s="8">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E126" s="5">
         <v>109</v>
@@ -2535,16 +2532,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
+        <v>152</v>
+      </c>
+      <c r="B127" s="5">
         <v>123</v>
-      </c>
-      <c r="B127" s="5">
-        <v>151</v>
       </c>
       <c r="C127" s="8">
         <v>151</v>
       </c>
       <c r="D127" s="8">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E127" s="5">
         <v>111</v>
@@ -2555,16 +2552,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
+        <v>153</v>
+      </c>
+      <c r="B128" s="5">
+        <v>151</v>
+      </c>
+      <c r="C128" s="8">
         <v>152</v>
       </c>
-      <c r="B128" s="5">
-        <v>152</v>
-      </c>
-      <c r="C128" s="8">
-        <v>153</v>
-      </c>
       <c r="D128" s="8">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="E128" s="5">
         <v>112</v>
@@ -2575,16 +2572,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B129" s="5">
         <v>153</v>
       </c>
       <c r="C129" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D129" s="8">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="E129" s="5">
         <v>117</v>
@@ -2595,16 +2592,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="B130" s="5">
         <v>154</v>
       </c>
       <c r="C130" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D130" s="8">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E130" s="5">
         <v>122</v>
@@ -2615,7 +2612,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B131" s="5">
         <v>200</v>
@@ -2624,7 +2621,7 @@
         <v>203</v>
       </c>
       <c r="D131" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E131" s="5">
         <v>123</v>
@@ -2635,7 +2632,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B132" s="5">
         <v>201</v>
@@ -2644,7 +2641,7 @@
         <v>204</v>
       </c>
       <c r="D132" s="8">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="E132" s="5">
         <v>151</v>
@@ -2655,16 +2652,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
+        <v>204</v>
+      </c>
+      <c r="B133" s="5">
         <v>202</v>
       </c>
-      <c r="B133" s="5">
-        <v>203</v>
-      </c>
       <c r="C133" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D133" s="8">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="E133" s="5">
         <v>152</v>
@@ -2675,16 +2672,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B134" s="5">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C134" s="8">
         <v>210</v>
       </c>
       <c r="D134" s="8">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="E134" s="5">
         <v>153</v>
@@ -2695,16 +2692,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B135" s="5">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C135" s="8">
         <v>211</v>
       </c>
       <c r="D135" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E135" s="5">
         <v>154</v>
@@ -2715,7 +2712,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B136" s="5">
         <v>209</v>
@@ -2724,7 +2721,7 @@
         <v>213</v>
       </c>
       <c r="D136" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E136" s="5">
         <v>200</v>
@@ -2735,7 +2732,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B137" s="5">
         <v>210</v>
@@ -2744,7 +2741,7 @@
         <v>214</v>
       </c>
       <c r="D137" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E137" s="5">
         <v>201</v>
@@ -2755,16 +2752,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B138" s="5">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C138" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D138" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E138" s="5">
         <v>202</v>
@@ -2775,16 +2772,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B139" s="5">
         <v>214</v>
       </c>
       <c r="C139" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D139" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E139" s="5">
         <v>203</v>
@@ -2795,16 +2792,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B140" s="5">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C140" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D140" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E140" s="5">
         <v>204</v>
@@ -2815,16 +2812,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B141" s="5">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C141" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D141" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E141" s="5">
         <v>206</v>
@@ -2835,16 +2832,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="B142" s="5">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C142" s="8">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="D142" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E142" s="5">
         <v>208</v>
@@ -2858,13 +2855,13 @@
         <v>303</v>
       </c>
       <c r="B143" s="5">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C143" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D143" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E143" s="5">
         <v>209</v>
@@ -2878,13 +2875,13 @@
         <v>304</v>
       </c>
       <c r="B144" s="5">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="C144" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D144" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E144" s="5">
         <v>210</v>
@@ -2901,10 +2898,10 @@
         <v>304</v>
       </c>
       <c r="C145" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D145" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E145" s="5">
         <v>211</v>
@@ -2915,16 +2912,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B146" s="5">
         <v>306</v>
       </c>
       <c r="C146" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D146" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E146" s="5">
         <v>213</v>
@@ -2935,16 +2932,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B147" s="5">
         <v>308</v>
       </c>
       <c r="C147" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D147" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E147" s="5">
         <v>214</v>
@@ -2955,16 +2952,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
+        <v>317</v>
+      </c>
+      <c r="B148" s="5">
         <v>314</v>
-      </c>
-      <c r="B148" s="5">
-        <v>310</v>
       </c>
       <c r="C148" s="8">
         <v>314</v>
       </c>
       <c r="D148" s="8">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="E148" s="5">
         <v>215</v>
@@ -2978,13 +2975,13 @@
         <v>321</v>
       </c>
       <c r="B149" s="5">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C149" s="8">
         <v>317</v>
       </c>
       <c r="D149" s="8">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="E149" s="5">
         <v>216</v>
@@ -2998,13 +2995,13 @@
         <v>322</v>
       </c>
       <c r="B150" s="5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C150" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D150" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E150" s="5">
         <v>217</v>
@@ -3018,13 +3015,13 @@
         <v>403</v>
       </c>
       <c r="B151" s="5">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C151" s="8">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="D151" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E151" s="5">
         <v>218</v>
@@ -3033,18 +3030,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>404</v>
       </c>
       <c r="B152" s="5">
-        <v>405</v>
-      </c>
-      <c r="C152" s="9">
-        <v>412</v>
+        <v>404</v>
+      </c>
+      <c r="C152" s="8">
+        <v>403</v>
       </c>
       <c r="D152" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E152" s="5">
         <v>219</v>
@@ -3055,13 +3052,16 @@
     </row>
     <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B153" s="6">
         <v>413</v>
       </c>
+      <c r="C153" s="9">
+        <v>412</v>
+      </c>
       <c r="D153" s="8">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E153" s="5">
         <v>301</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D154" s="8">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E154" s="5">
         <v>302</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D155" s="8">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E155" s="5">
         <v>303</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D156" s="8">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E156" s="5">
         <v>304</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D157" s="8">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E157" s="5">
         <v>305</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D158" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E158" s="5">
         <v>306</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D159" s="8">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="E159" s="5">
         <v>308</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D160" s="8">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="E160" s="5">
         <v>310</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" s="8">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E161" s="5">
         <v>311</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" s="8">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E162" s="5">
         <v>314</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" s="8">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E163" s="5">
         <v>317</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="164" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D164" s="8">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E164" s="5">
         <v>318</v>
@@ -3191,9 +3191,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="165" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D165" s="9">
-        <v>413</v>
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D165" s="8">
+        <v>412</v>
       </c>
       <c r="E165" s="5">
         <v>319</v>
@@ -3202,7 +3202,10 @@
         <v>319</v>
       </c>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D166" s="9">
+        <v>413</v>
+      </c>
       <c r="E166" s="5">
         <v>321</v>
       </c>
@@ -3345,7 +3348,7 @@
         <v>104</v>
       </c>
       <c r="C182" s="8">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D182" s="8">
         <v>104</v>
@@ -3365,7 +3368,7 @@
         <v>111</v>
       </c>
       <c r="C183" s="8">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D183" s="8">
         <v>105</v>
@@ -3382,10 +3385,10 @@
         <v>112</v>
       </c>
       <c r="B184" s="8">
+        <v>112</v>
+      </c>
+      <c r="C184" s="8">
         <v>123</v>
-      </c>
-      <c r="C184" s="8">
-        <v>112</v>
       </c>
       <c r="D184" s="8">
         <v>106</v>
@@ -3402,10 +3405,10 @@
         <v>122</v>
       </c>
       <c r="B185" s="8">
+        <v>123</v>
+      </c>
+      <c r="C185" s="8">
         <v>151</v>
-      </c>
-      <c r="C185" s="8">
-        <v>123</v>
       </c>
       <c r="D185" s="8">
         <v>108</v>
@@ -3422,7 +3425,7 @@
         <v>123</v>
       </c>
       <c r="B186" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C186" s="8">
         <v>152</v>
@@ -3439,13 +3442,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B187" s="8">
+        <v>154</v>
+      </c>
+      <c r="C187" s="8">
         <v>153</v>
-      </c>
-      <c r="C187" s="8">
-        <v>154</v>
       </c>
       <c r="D187" s="8">
         <v>112</v>
@@ -3459,13 +3462,13 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
+        <v>153</v>
+      </c>
+      <c r="B188" s="8">
+        <v>200</v>
+      </c>
+      <c r="C188" s="8">
         <v>154</v>
-      </c>
-      <c r="B188" s="8">
-        <v>154</v>
-      </c>
-      <c r="C188" s="8">
-        <v>200</v>
       </c>
       <c r="D188" s="8">
         <v>117</v>
@@ -3479,13 +3482,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="B189" s="8">
         <v>201</v>
       </c>
       <c r="C189" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D189" s="8">
         <v>122</v>
@@ -3499,13 +3502,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B190" s="8">
         <v>202</v>
       </c>
       <c r="C190" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D190" s="8">
         <v>123</v>
@@ -3519,13 +3522,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B191" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C191" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D191" s="8">
         <v>151</v>
@@ -3539,13 +3542,13 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B192" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C192" s="8">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D192" s="8">
         <v>152</v>
@@ -3559,13 +3562,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B193" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C193" s="8">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D193" s="8">
         <v>153</v>
@@ -3579,13 +3582,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B194" s="8">
         <v>209</v>
       </c>
       <c r="C194" s="8">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D194" s="8">
         <v>154</v>
@@ -3599,13 +3602,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B195" s="8">
         <v>210</v>
       </c>
       <c r="C195" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D195" s="8">
         <v>200</v>
@@ -3619,13 +3622,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B196" s="8">
         <v>211</v>
       </c>
       <c r="C196" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D196" s="8">
         <v>201</v>
@@ -3639,13 +3642,13 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B197" s="8">
         <v>213</v>
       </c>
       <c r="C197" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D197" s="8">
         <v>202</v>
@@ -3659,13 +3662,13 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B198" s="8">
         <v>214</v>
       </c>
       <c r="C198" s="8">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="D198" s="8">
         <v>203</v>
@@ -3679,13 +3682,13 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B199" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C199" s="8">
-        <v>303</v>
+        <v>217</v>
       </c>
       <c r="D199" s="8">
         <v>204</v>
@@ -3699,16 +3702,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B200" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C200" s="8">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="D200" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E200" s="5">
         <v>204</v>
@@ -3719,16 +3722,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B201" s="8">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="C201" s="8">
-        <v>305</v>
+        <v>219</v>
       </c>
       <c r="D201" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E201" s="5">
         <v>206</v>
@@ -3739,16 +3742,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B202" s="8">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="C202" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D202" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E202" s="5">
         <v>208</v>
@@ -3759,16 +3762,16 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B203" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C203" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D203" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E203" s="5">
         <v>209</v>
@@ -3779,13 +3782,13 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="B204" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C204" s="8">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D204" s="8">
         <v>213</v>
@@ -3799,13 +3802,13 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B205" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C205" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D205" s="8">
         <v>214</v>
@@ -3819,13 +3822,13 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B206" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C206" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D206" s="8">
         <v>215</v>
@@ -3839,13 +3842,13 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B207" s="8">
         <v>314</v>
       </c>
       <c r="C207" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D207" s="8">
         <v>216</v>
@@ -3859,13 +3862,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B208" s="8">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C208" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D208" s="8">
         <v>217</v>
@@ -3879,13 +3882,13 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B209" s="8">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C209" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D209" s="8">
         <v>218</v>
@@ -3902,10 +3905,10 @@
         <v>317</v>
       </c>
       <c r="B210" s="8">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="C210" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D210" s="8">
         <v>219</v>
@@ -3922,10 +3925,10 @@
         <v>321</v>
       </c>
       <c r="B211" s="8">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="C211" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D211" s="8">
         <v>301</v>
@@ -3937,15 +3940,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>322</v>
       </c>
-      <c r="B212" s="9">
-        <v>410</v>
+      <c r="B212" s="8">
+        <v>413</v>
       </c>
       <c r="C212" s="8">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="D212" s="8">
         <v>302</v>
@@ -3957,12 +3960,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5">
         <v>403</v>
       </c>
+      <c r="B213" s="9">
+        <v>416</v>
+      </c>
       <c r="C213" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D213" s="8">
         <v>303</v>
@@ -3976,10 +3982,10 @@
     </row>
     <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
-        <v>413</v>
-      </c>
-      <c r="C214" s="9">
-        <v>410</v>
+        <v>404</v>
+      </c>
+      <c r="C214" s="8">
+        <v>404</v>
       </c>
       <c r="D214" s="8">
         <v>304</v>
@@ -3992,6 +3998,9 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C215" s="8">
+        <v>410</v>
+      </c>
       <c r="D215" s="8">
         <v>306</v>
       </c>
@@ -4002,7 +4011,10 @@
         <v>303</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C216" s="9">
+        <v>411</v>
+      </c>
       <c r="D216" s="8">
         <v>308</v>
       </c>
@@ -4114,7 +4126,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D226" s="8">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E226" s="5">
         <v>321</v>
@@ -4125,7 +4137,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D227" s="8">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E227" s="5">
         <v>322</v>
@@ -4136,7 +4148,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D228" s="8">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E228" s="5">
         <v>403</v>
@@ -4147,7 +4159,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D229" s="8">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E229" s="5">
         <v>404</v>
@@ -4158,7 +4170,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D230" s="8">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E230" s="5">
         <v>405</v>
@@ -4169,7 +4181,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D231" s="8">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E231" s="5">
         <v>409</v>
@@ -4178,9 +4190,9 @@
         <v>409</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D232" s="8">
-        <v>416</v>
+    <row r="232" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D232" s="9">
+        <v>717</v>
       </c>
       <c r="E232" s="5">
         <v>410</v>
@@ -4189,10 +4201,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D233" s="9">
-        <v>717</v>
-      </c>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E233" s="5">
         <v>411</v>
       </c>
@@ -4273,13 +4282,13 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
+        <v>105</v>
+      </c>
+      <c r="B242" s="8">
         <v>106</v>
       </c>
-      <c r="B242" s="8">
+      <c r="C242" s="8">
         <v>105</v>
-      </c>
-      <c r="C242" s="8">
-        <v>109</v>
       </c>
       <c r="D242" s="5">
         <v>104</v>
@@ -4293,13 +4302,13 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B243" s="8">
         <v>112</v>
       </c>
       <c r="C243" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D243" s="5">
         <v>105</v>
@@ -4313,13 +4322,13 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B244" s="8">
         <v>117</v>
       </c>
       <c r="C244" s="8">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D244" s="5">
         <v>106</v>
@@ -4333,13 +4342,13 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B245" s="8">
         <v>122</v>
       </c>
       <c r="C245" s="8">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D245" s="5">
         <v>108</v>
@@ -4359,7 +4368,7 @@
         <v>123</v>
       </c>
       <c r="C246" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D246" s="5">
         <v>109</v>
@@ -4379,7 +4388,7 @@
         <v>151</v>
       </c>
       <c r="C247" s="8">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D247" s="5">
         <v>111</v>
@@ -4399,7 +4408,7 @@
         <v>152</v>
       </c>
       <c r="C248" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D248" s="5">
         <v>112</v>
@@ -4413,13 +4422,13 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B249" s="8">
         <v>153</v>
       </c>
       <c r="C249" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D249" s="5">
         <v>117</v>
@@ -4433,13 +4442,13 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
+        <v>153</v>
+      </c>
+      <c r="B250" s="8">
+        <v>200</v>
+      </c>
+      <c r="C250" s="8">
         <v>154</v>
-      </c>
-      <c r="B250" s="8">
-        <v>154</v>
-      </c>
-      <c r="C250" s="8">
-        <v>153</v>
       </c>
       <c r="D250" s="5">
         <v>122</v>
@@ -4453,13 +4462,13 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
+        <v>154</v>
+      </c>
+      <c r="B251" s="8">
+        <v>201</v>
+      </c>
+      <c r="C251" s="8">
         <v>200</v>
-      </c>
-      <c r="B251" s="8">
-        <v>200</v>
-      </c>
-      <c r="C251" s="8">
-        <v>154</v>
       </c>
       <c r="D251" s="5">
         <v>123</v>
@@ -4473,13 +4482,13 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
+        <v>202</v>
+      </c>
+      <c r="B252" s="8">
+        <v>202</v>
+      </c>
+      <c r="C252" s="8">
         <v>201</v>
-      </c>
-      <c r="B252" s="8">
-        <v>201</v>
-      </c>
-      <c r="C252" s="8">
-        <v>200</v>
       </c>
       <c r="D252" s="5">
         <v>151</v>
@@ -4493,13 +4502,13 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
+        <v>203</v>
+      </c>
+      <c r="B253" s="8">
+        <v>204</v>
+      </c>
+      <c r="C253" s="8">
         <v>202</v>
-      </c>
-      <c r="B253" s="8">
-        <v>202</v>
-      </c>
-      <c r="C253" s="8">
-        <v>201</v>
       </c>
       <c r="D253" s="5">
         <v>152</v>
@@ -4513,13 +4522,13 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
+        <v>204</v>
+      </c>
+      <c r="B254" s="8">
+        <v>206</v>
+      </c>
+      <c r="C254" s="8">
         <v>203</v>
-      </c>
-      <c r="B254" s="8">
-        <v>203</v>
-      </c>
-      <c r="C254" s="8">
-        <v>202</v>
       </c>
       <c r="D254" s="5">
         <v>153</v>
@@ -4533,13 +4542,13 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
+        <v>206</v>
+      </c>
+      <c r="B255" s="8">
+        <v>208</v>
+      </c>
+      <c r="C255" s="8">
         <v>204</v>
-      </c>
-      <c r="B255" s="8">
-        <v>204</v>
-      </c>
-      <c r="C255" s="8">
-        <v>203</v>
       </c>
       <c r="D255" s="5">
         <v>154</v>
@@ -4553,13 +4562,13 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
+        <v>208</v>
+      </c>
+      <c r="B256" s="8">
+        <v>209</v>
+      </c>
+      <c r="C256" s="8">
         <v>206</v>
-      </c>
-      <c r="B256" s="8">
-        <v>206</v>
-      </c>
-      <c r="C256" s="8">
-        <v>204</v>
       </c>
       <c r="D256" s="5">
         <v>200</v>
@@ -4576,10 +4585,10 @@
         <v>209</v>
       </c>
       <c r="B257" s="8">
+        <v>210</v>
+      </c>
+      <c r="C257" s="8">
         <v>208</v>
-      </c>
-      <c r="C257" s="8">
-        <v>206</v>
       </c>
       <c r="D257" s="5">
         <v>201</v>
@@ -4596,10 +4605,10 @@
         <v>210</v>
       </c>
       <c r="B258" s="8">
+        <v>211</v>
+      </c>
+      <c r="C258" s="8">
         <v>209</v>
-      </c>
-      <c r="C258" s="8">
-        <v>208</v>
       </c>
       <c r="D258" s="5">
         <v>202</v>
@@ -4613,13 +4622,13 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B259" s="8">
+        <v>214</v>
+      </c>
+      <c r="C259" s="8">
         <v>210</v>
-      </c>
-      <c r="C259" s="8">
-        <v>209</v>
       </c>
       <c r="D259" s="5">
         <v>203</v>
@@ -4633,13 +4642,13 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B260" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C260" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D260" s="5">
         <v>204</v>
@@ -4653,13 +4662,13 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
+        <v>214</v>
+      </c>
+      <c r="B261" s="8">
         <v>216</v>
       </c>
-      <c r="B261" s="8">
-        <v>213</v>
-      </c>
       <c r="C261" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D261" s="5">
         <v>206</v>
@@ -4673,13 +4682,13 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
+        <v>215</v>
+      </c>
+      <c r="B262" s="8">
         <v>217</v>
       </c>
-      <c r="B262" s="8">
-        <v>214</v>
-      </c>
       <c r="C262" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D262" s="5">
         <v>208</v>
@@ -4693,13 +4702,13 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
+        <v>216</v>
+      </c>
+      <c r="B263" s="8">
         <v>218</v>
       </c>
-      <c r="B263" s="8">
-        <v>215</v>
-      </c>
       <c r="C263" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D263" s="5">
         <v>209</v>
@@ -4713,13 +4722,13 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B264" s="8">
-        <v>216</v>
+        <v>301</v>
       </c>
       <c r="C264" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D264" s="5">
         <v>210</v>
@@ -4733,13 +4742,13 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
+        <v>301</v>
+      </c>
+      <c r="B265" s="8">
         <v>303</v>
       </c>
-      <c r="B265" s="8">
-        <v>217</v>
-      </c>
       <c r="C265" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D265" s="5">
         <v>211</v>
@@ -4753,13 +4762,13 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
+        <v>303</v>
+      </c>
+      <c r="B266" s="8">
         <v>304</v>
       </c>
-      <c r="B266" s="8">
-        <v>218</v>
-      </c>
       <c r="C266" s="8">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="D266" s="5">
         <v>213</v>
@@ -4773,13 +4782,13 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B267" s="8">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C267" s="8">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="D267" s="5">
         <v>214</v>
@@ -4793,13 +4802,13 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B268" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C268" s="8">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="D268" s="5">
         <v>215</v>
@@ -4813,13 +4822,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B269" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C269" s="8">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D269" s="5">
         <v>216</v>
@@ -4833,13 +4842,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B270" s="8">
+        <v>310</v>
+      </c>
+      <c r="C270" s="8">
         <v>306</v>
-      </c>
-      <c r="C270" s="8">
-        <v>302</v>
       </c>
       <c r="D270" s="5">
         <v>217</v>
@@ -4856,10 +4865,10 @@
         <v>314</v>
       </c>
       <c r="B271" s="8">
+        <v>317</v>
+      </c>
+      <c r="C271" s="8">
         <v>308</v>
-      </c>
-      <c r="C271" s="8">
-        <v>304</v>
       </c>
       <c r="D271" s="5">
         <v>218</v>
@@ -4876,7 +4885,7 @@
         <v>317</v>
       </c>
       <c r="B272" s="8">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C272" s="8">
         <v>310</v>
@@ -4893,10 +4902,10 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
+        <v>319</v>
+      </c>
+      <c r="B273" s="8">
         <v>321</v>
-      </c>
-      <c r="B273" s="8">
-        <v>314</v>
       </c>
       <c r="C273" s="8">
         <v>311</v>
@@ -4913,10 +4922,10 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
+        <v>321</v>
+      </c>
+      <c r="B274" s="8">
         <v>322</v>
-      </c>
-      <c r="B274" s="8">
-        <v>317</v>
       </c>
       <c r="C274" s="8">
         <v>314</v>
@@ -4936,7 +4945,7 @@
         <v>403</v>
       </c>
       <c r="B275" s="8">
-        <v>319</v>
+        <v>403</v>
       </c>
       <c r="C275" s="8">
         <v>317</v>
@@ -4956,7 +4965,7 @@
         <v>404</v>
       </c>
       <c r="B276" s="8">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="C276" s="8">
         <v>319</v>
@@ -4976,10 +4985,10 @@
         <v>409</v>
       </c>
       <c r="B277" s="8">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="C277" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D277" s="5">
         <v>305</v>
@@ -4993,13 +5002,13 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B278" s="8">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C278" s="8">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="D278" s="5">
         <v>306</v>
@@ -5013,13 +5022,13 @@
     </row>
     <row r="279" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="9">
-        <v>717</v>
+        <v>412</v>
       </c>
       <c r="B279" s="8">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C279" s="8">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D279" s="5">
         <v>308</v>
@@ -5031,12 +5040,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B280" s="8">
-        <v>412</v>
+    <row r="280" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="9">
+        <v>717</v>
       </c>
       <c r="C280" s="8">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D280" s="5">
         <v>310</v>
@@ -5048,12 +5057,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B281" s="9">
-        <v>413</v>
-      </c>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C281" s="8">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D281" s="5">
         <v>311</v>
@@ -5079,8 +5085,8 @@
         <v>314</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C283" s="8">
+    <row r="283" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C283" s="9">
         <v>413</v>
       </c>
       <c r="D283" s="5">
@@ -5093,10 +5099,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C284" s="9">
-        <v>717</v>
-      </c>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D284" s="5">
         <v>318</v>
       </c>
@@ -5270,6 +5273,6 @@
     <mergeCell ref="A240:F240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D17AFAB-F93F-4352-ACDD-71AA06EDD243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC4F80D2-BE45-43EC-97C8-2C686DB62D1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2625" windowWidth="13995" windowHeight="11505" xr2:uid="{57487ED0-69CA-4817-83C7-DF414C18DECA}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{A1D0EE3D-4B3F-494B-B946-AA5ED7F105A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC25230A-DE63-4D24-A8D8-42CBC69291DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059E8FE0-934B-4FE8-B5BC-352F3DAB4A33}">
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -632,7 +632,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B3" s="5">
         <v>112</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B4" s="5">
         <v>122</v>
@@ -661,7 +661,7 @@
         <v>112</v>
       </c>
       <c r="D4" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E4" s="5">
         <v>106</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="B5" s="5">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C5" s="8">
         <v>122</v>
@@ -692,10 +692,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="5">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C6" s="8">
         <v>123</v>
@@ -715,7 +715,7 @@
         <v>153</v>
       </c>
       <c r="B7" s="5">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" s="8">
         <v>151</v>
@@ -735,10 +735,10 @@
         <v>154</v>
       </c>
       <c r="B8" s="5">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="C8" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="8">
         <v>151</v>
@@ -755,10 +755,10 @@
         <v>200</v>
       </c>
       <c r="B9" s="5">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="C9" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="8">
         <v>152</v>
@@ -778,7 +778,7 @@
         <v>202</v>
       </c>
       <c r="C10" s="8">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="D10" s="8">
         <v>153</v>
@@ -795,10 +795,10 @@
         <v>202</v>
       </c>
       <c r="B11" s="5">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C11" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="8">
         <v>154</v>
@@ -818,10 +818,10 @@
         <v>206</v>
       </c>
       <c r="C12" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D12" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E12" s="5">
         <v>151</v>
@@ -832,16 +832,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B13" s="5">
         <v>208</v>
       </c>
       <c r="C13" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E13" s="5">
         <v>152</v>
@@ -852,16 +852,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B14" s="5">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C14" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E14" s="5">
         <v>153</v>
@@ -872,16 +872,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B15" s="5">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C15" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D15" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E15" s="5">
         <v>154</v>
@@ -892,16 +892,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B16" s="5">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C16" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D16" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E16" s="5">
         <v>200</v>
@@ -912,16 +912,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B17" s="5">
         <v>215</v>
       </c>
       <c r="C17" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D17" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E17" s="5">
         <v>201</v>
@@ -932,16 +932,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B18" s="5">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C18" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D18" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E18" s="5">
         <v>202</v>
@@ -952,16 +952,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B19" s="5">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D19" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E19" s="5">
         <v>203</v>
@@ -972,13 +972,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B20" s="5">
         <v>219</v>
       </c>
       <c r="C20" s="8">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D20" s="8">
         <v>213</v>
@@ -992,16 +992,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B21" s="5">
         <v>303</v>
       </c>
       <c r="C21" s="8">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="D21" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E21" s="5">
         <v>206</v>
@@ -1012,16 +1012,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="B22" s="5">
         <v>304</v>
       </c>
       <c r="C22" s="8">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="D22" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E22" s="5">
         <v>208</v>
@@ -1032,16 +1032,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B23" s="5">
         <v>306</v>
       </c>
       <c r="C23" s="8">
-        <v>308</v>
+        <v>217</v>
       </c>
       <c r="D23" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E23" s="5">
         <v>209</v>
@@ -1052,16 +1052,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B24" s="5">
         <v>308</v>
       </c>
       <c r="C24" s="8">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D24" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E24" s="5">
         <v>210</v>
@@ -1072,16 +1072,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B25" s="5">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C25" s="8">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D25" s="8">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="E25" s="5">
         <v>211</v>
@@ -1095,13 +1095,13 @@
         <v>310</v>
       </c>
       <c r="B26" s="5">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C26" s="8">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D26" s="8">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="E26" s="5">
         <v>213</v>
@@ -1115,13 +1115,13 @@
         <v>314</v>
       </c>
       <c r="B27" s="5">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C27" s="8">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D27" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E27" s="5">
         <v>214</v>
@@ -1135,13 +1135,13 @@
         <v>317</v>
       </c>
       <c r="B28" s="5">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="C28" s="8">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="D28" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E28" s="5">
         <v>215</v>
@@ -1158,10 +1158,10 @@
         <v>404</v>
       </c>
       <c r="C29" s="8">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D29" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E29" s="5">
         <v>216</v>
@@ -1178,10 +1178,10 @@
         <v>405</v>
       </c>
       <c r="C30" s="9">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D30" s="8">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E30" s="5">
         <v>217</v>
@@ -1192,13 +1192,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B31" s="5">
         <v>412</v>
       </c>
       <c r="D31" s="8">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E31" s="5">
         <v>218</v>
@@ -1209,13 +1209,13 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="B32" s="6">
         <v>416</v>
       </c>
       <c r="D32" s="8">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E32" s="5">
         <v>219</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="8">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E33" s="5">
         <v>301</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="8">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E34" s="5">
         <v>302</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E35" s="5">
         <v>303</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="8">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="E36" s="5">
         <v>304</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="8">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E37" s="5">
         <v>305</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="8">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E38" s="5">
         <v>306</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="8">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E39" s="5">
         <v>308</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="8">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E40" s="5">
         <v>310</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="41" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D41" s="9">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E41" s="5">
         <v>311</v>
@@ -1495,7 +1495,7 @@
         <v>104</v>
       </c>
       <c r="B62" s="5">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C62" s="8">
         <v>108</v>
@@ -1515,7 +1515,7 @@
         <v>108</v>
       </c>
       <c r="B63" s="5">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C63" s="8">
         <v>112</v>
@@ -1532,10 +1532,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B64" s="5">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C64" s="8">
         <v>117</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="B65" s="5">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C65" s="8">
         <v>122</v>
@@ -1572,10 +1572,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B66" s="5">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C66" s="8">
         <v>123</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B67" s="5">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C67" s="8">
         <v>151</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="B68" s="5">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C68" s="8">
         <v>152</v>
@@ -1632,13 +1632,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="B69" s="5">
         <v>153</v>
       </c>
       <c r="C69" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D69" s="8">
         <v>117</v>
@@ -1652,13 +1652,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
+        <v>202</v>
+      </c>
+      <c r="B70" s="5">
         <v>200</v>
       </c>
-      <c r="B70" s="5">
+      <c r="C70" s="8">
         <v>154</v>
-      </c>
-      <c r="C70" s="8">
-        <v>200</v>
       </c>
       <c r="D70" s="8">
         <v>122</v>
@@ -1672,13 +1672,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
+        <v>203</v>
+      </c>
+      <c r="B71" s="5">
         <v>201</v>
       </c>
-      <c r="B71" s="5">
+      <c r="C71" s="8">
         <v>200</v>
-      </c>
-      <c r="C71" s="8">
-        <v>202</v>
       </c>
       <c r="D71" s="8">
         <v>123</v>
@@ -1692,13 +1692,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B72" s="5">
         <v>202</v>
       </c>
       <c r="C72" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8">
         <v>151</v>
@@ -1712,13 +1712,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B73" s="5">
         <v>203</v>
       </c>
       <c r="C73" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8">
         <v>152</v>
@@ -1732,13 +1732,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B74" s="5">
         <v>204</v>
       </c>
       <c r="C74" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8">
         <v>153</v>
@@ -1752,13 +1752,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B75" s="5">
         <v>206</v>
       </c>
       <c r="C75" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8">
         <v>154</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
+        <v>213</v>
+      </c>
+      <c r="B76" s="5">
         <v>208</v>
       </c>
-      <c r="B76" s="5">
-        <v>209</v>
-      </c>
       <c r="C76" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8">
         <v>200</v>
@@ -1792,13 +1792,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B77" s="5">
         <v>210</v>
       </c>
       <c r="C77" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D77" s="8">
         <v>201</v>
@@ -1812,13 +1812,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B78" s="5">
         <v>211</v>
       </c>
       <c r="C78" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D78" s="8">
         <v>202</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B79" s="5">
         <v>213</v>
@@ -1852,10 +1852,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B80" s="5">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C80" s="8">
         <v>215</v>
@@ -1872,10 +1872,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
+        <v>219</v>
+      </c>
+      <c r="B81" s="5">
         <v>216</v>
-      </c>
-      <c r="B81" s="5">
-        <v>217</v>
       </c>
       <c r="C81" s="8">
         <v>217</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
+        <v>303</v>
+      </c>
+      <c r="B82" s="5">
         <v>217</v>
       </c>
-      <c r="B82" s="5">
+      <c r="C82" s="8">
         <v>218</v>
-      </c>
-      <c r="C82" s="8">
-        <v>219</v>
       </c>
       <c r="D82" s="8">
         <v>208</v>
@@ -1912,13 +1912,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
+        <v>304</v>
+      </c>
+      <c r="B83" s="5">
         <v>218</v>
       </c>
-      <c r="B83" s="5">
-        <v>219</v>
-      </c>
       <c r="C83" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D83" s="8">
         <v>209</v>
@@ -1932,13 +1932,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B84" s="5">
         <v>303</v>
       </c>
       <c r="C84" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D84" s="8">
         <v>210</v>
@@ -1952,13 +1952,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B85" s="5">
         <v>304</v>
       </c>
       <c r="C85" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D85" s="8">
         <v>211</v>
@@ -1972,13 +1972,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B86" s="5">
         <v>306</v>
       </c>
       <c r="C86" s="8">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D86" s="8">
         <v>213</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B87" s="5">
         <v>310</v>
       </c>
       <c r="C87" s="8">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D87" s="8">
         <v>214</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="B88" s="5">
         <v>314</v>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
-        <v>317</v>
+        <v>404</v>
       </c>
       <c r="B89" s="5">
         <v>317</v>
       </c>
       <c r="C89" s="8">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="D89" s="8">
         <v>216</v>
@@ -2052,10 +2052,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
+        <v>405</v>
+      </c>
+      <c r="B90" s="5">
         <v>321</v>
-      </c>
-      <c r="B90" s="5">
-        <v>403</v>
       </c>
       <c r="C90" s="8">
         <v>404</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
+        <v>409</v>
+      </c>
+      <c r="B91" s="5">
         <v>403</v>
-      </c>
-      <c r="B91" s="5">
-        <v>404</v>
       </c>
       <c r="C91" s="8">
         <v>405</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="B92" s="5">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C92" s="8">
         <v>413</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D100" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E100" s="5">
         <v>310</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D101" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E101" s="5">
         <v>311</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D102" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E102" s="5">
         <v>314</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D103" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E103" s="5">
         <v>317</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="104" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D104" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E104" s="5">
         <v>318</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D105" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E105" s="5">
         <v>319</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="106" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D106" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E106" s="5">
         <v>321</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="107" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D107" s="8">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="E107" s="5">
         <v>322</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="108" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D108" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E108" s="5">
         <v>403</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="109" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D109" s="8">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E109" s="5">
         <v>404</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B122" s="5">
         <v>104</v>
@@ -2452,13 +2452,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B123" s="5">
         <v>105</v>
       </c>
       <c r="C123" s="8">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D123" s="8">
         <v>105</v>
@@ -2472,13 +2472,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B124" s="5">
         <v>108</v>
       </c>
       <c r="C124" s="8">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D124" s="8">
         <v>106</v>
@@ -2492,13 +2492,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B125" s="5">
         <v>112</v>
       </c>
       <c r="C125" s="8">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D125" s="8">
         <v>108</v>
@@ -2512,13 +2512,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
+        <v>117</v>
+      </c>
+      <c r="B126" s="5">
+        <v>123</v>
+      </c>
+      <c r="C126" s="8">
         <v>151</v>
-      </c>
-      <c r="B126" s="5">
-        <v>122</v>
-      </c>
-      <c r="C126" s="8">
-        <v>122</v>
       </c>
       <c r="D126" s="8">
         <v>109</v>
@@ -2532,16 +2532,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B127" s="5">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C127" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D127" s="8">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E127" s="5">
         <v>111</v>
@@ -2552,16 +2552,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B128" s="5">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C128" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D128" s="8">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E128" s="5">
         <v>112</v>
@@ -2572,16 +2572,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B129" s="5">
         <v>153</v>
       </c>
       <c r="C129" s="8">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="D129" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E129" s="5">
         <v>117</v>
@@ -2592,16 +2592,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
+        <v>154</v>
+      </c>
+      <c r="B130" s="5">
+        <v>200</v>
+      </c>
+      <c r="C130" s="8">
         <v>201</v>
       </c>
-      <c r="B130" s="5">
-        <v>154</v>
-      </c>
-      <c r="C130" s="8">
-        <v>200</v>
-      </c>
       <c r="D130" s="8">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E130" s="5">
         <v>122</v>
@@ -2612,16 +2612,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
+        <v>200</v>
+      </c>
+      <c r="B131" s="5">
+        <v>201</v>
+      </c>
+      <c r="C131" s="8">
         <v>202</v>
       </c>
-      <c r="B131" s="5">
-        <v>200</v>
-      </c>
-      <c r="C131" s="8">
-        <v>203</v>
-      </c>
       <c r="D131" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E131" s="5">
         <v>123</v>
@@ -2632,16 +2632,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
+        <v>201</v>
+      </c>
+      <c r="B132" s="5">
+        <v>202</v>
+      </c>
+      <c r="C132" s="8">
         <v>203</v>
       </c>
-      <c r="B132" s="5">
-        <v>201</v>
-      </c>
-      <c r="C132" s="8">
-        <v>204</v>
-      </c>
       <c r="D132" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E132" s="5">
         <v>151</v>
@@ -2652,16 +2652,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
+        <v>202</v>
+      </c>
+      <c r="B133" s="5">
+        <v>203</v>
+      </c>
+      <c r="C133" s="8">
         <v>204</v>
       </c>
-      <c r="B133" s="5">
-        <v>202</v>
-      </c>
-      <c r="C133" s="8">
-        <v>208</v>
-      </c>
       <c r="D133" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E133" s="5">
         <v>152</v>
@@ -2672,16 +2672,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B134" s="5">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C134" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D134" s="8">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="E134" s="5">
         <v>153</v>
@@ -2692,13 +2692,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B135" s="5">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C135" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D135" s="8">
         <v>201</v>
@@ -2712,13 +2712,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B136" s="5">
         <v>209</v>
       </c>
       <c r="C136" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D136" s="8">
         <v>202</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B137" s="5">
         <v>210</v>
@@ -2752,10 +2752,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B138" s="5">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C138" s="8">
         <v>216</v>
@@ -2772,10 +2772,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B139" s="5">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C139" s="8">
         <v>217</v>
@@ -2792,10 +2792,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B140" s="5">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C140" s="8">
         <v>218</v>
@@ -2812,10 +2812,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B141" s="5">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C141" s="8">
         <v>219</v>
@@ -2832,10 +2832,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="B142" s="5">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C142" s="8">
         <v>302</v>
@@ -2852,10 +2852,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="B143" s="5">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C143" s="8">
         <v>303</v>
@@ -2872,16 +2872,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B144" s="5">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="C144" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D144" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E144" s="5">
         <v>210</v>
@@ -2892,16 +2892,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
+        <v>303</v>
+      </c>
+      <c r="B145" s="5">
+        <v>219</v>
+      </c>
+      <c r="C145" s="8">
         <v>306</v>
       </c>
-      <c r="B145" s="5">
-        <v>304</v>
-      </c>
-      <c r="C145" s="8">
-        <v>305</v>
-      </c>
       <c r="D145" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E145" s="5">
         <v>211</v>
@@ -2912,16 +2912,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B146" s="5">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C146" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D146" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E146" s="5">
         <v>213</v>
@@ -2932,10 +2932,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B147" s="5">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C147" s="8">
         <v>310</v>
@@ -2952,13 +2952,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B148" s="5">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C148" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D148" s="8">
         <v>218</v>
@@ -2972,13 +2972,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B149" s="5">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C149" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D149" s="8">
         <v>219</v>
@@ -2995,13 +2995,13 @@
         <v>322</v>
       </c>
       <c r="B150" s="5">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C150" s="8">
         <v>321</v>
       </c>
       <c r="D150" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E150" s="5">
         <v>217</v>
@@ -3015,13 +3015,13 @@
         <v>403</v>
       </c>
       <c r="B151" s="5">
-        <v>403</v>
+        <v>317</v>
       </c>
       <c r="C151" s="8">
         <v>322</v>
       </c>
       <c r="D151" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E151" s="5">
         <v>218</v>
@@ -3035,13 +3035,13 @@
         <v>404</v>
       </c>
       <c r="B152" s="5">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="C152" s="8">
         <v>403</v>
       </c>
       <c r="D152" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E152" s="5">
         <v>219</v>
@@ -3051,17 +3051,17 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="6">
+      <c r="A153" s="5">
         <v>405</v>
       </c>
       <c r="B153" s="6">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C153" s="9">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D153" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E153" s="5">
         <v>301</v>
@@ -3070,9 +3070,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="6">
+        <v>416</v>
+      </c>
       <c r="D154" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E154" s="5">
         <v>302</v>
@@ -3083,7 +3086,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D155" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E155" s="5">
         <v>303</v>
@@ -3094,7 +3097,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D156" s="8">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E156" s="5">
         <v>304</v>
@@ -3105,7 +3108,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D157" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E157" s="5">
         <v>305</v>
@@ -3116,7 +3119,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D158" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E158" s="5">
         <v>306</v>
@@ -3127,7 +3130,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D159" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E159" s="5">
         <v>308</v>
@@ -3138,7 +3141,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D160" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E160" s="5">
         <v>310</v>
@@ -3149,7 +3152,7 @@
     </row>
     <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" s="8">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="E161" s="5">
         <v>311</v>
@@ -3160,7 +3163,7 @@
     </row>
     <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E162" s="5">
         <v>314</v>
@@ -3182,7 +3185,7 @@
     </row>
     <row r="164" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D164" s="8">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E164" s="5">
         <v>318</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="165" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D165" s="8">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E165" s="5">
         <v>319</v>
@@ -3204,7 +3207,7 @@
     </row>
     <row r="166" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D166" s="9">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E166" s="5">
         <v>321</v>
@@ -3348,7 +3351,7 @@
         <v>104</v>
       </c>
       <c r="C182" s="8">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D182" s="8">
         <v>104</v>
@@ -3368,7 +3371,7 @@
         <v>111</v>
       </c>
       <c r="C183" s="8">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D183" s="8">
         <v>105</v>
@@ -3391,7 +3394,7 @@
         <v>123</v>
       </c>
       <c r="D184" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E184" s="5">
         <v>106</v>
@@ -3405,13 +3408,13 @@
         <v>122</v>
       </c>
       <c r="B185" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C185" s="8">
         <v>151</v>
       </c>
       <c r="D185" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E185" s="5">
         <v>108</v>
@@ -3425,13 +3428,13 @@
         <v>123</v>
       </c>
       <c r="B186" s="8">
+        <v>123</v>
+      </c>
+      <c r="C186" s="8">
         <v>153</v>
       </c>
-      <c r="C186" s="8">
-        <v>152</v>
-      </c>
       <c r="D186" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E186" s="5">
         <v>109</v>
@@ -3445,13 +3448,13 @@
         <v>151</v>
       </c>
       <c r="B187" s="8">
+        <v>152</v>
+      </c>
+      <c r="C187" s="8">
         <v>154</v>
       </c>
-      <c r="C187" s="8">
-        <v>153</v>
-      </c>
       <c r="D187" s="8">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E187" s="5">
         <v>111</v>
@@ -3462,16 +3465,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
+        <v>152</v>
+      </c>
+      <c r="B188" s="8">
         <v>153</v>
       </c>
-      <c r="B188" s="8">
-        <v>200</v>
-      </c>
       <c r="C188" s="8">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="D188" s="8">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E188" s="5">
         <v>112</v>
@@ -3482,16 +3485,16 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
+        <v>153</v>
+      </c>
+      <c r="B189" s="8">
         <v>154</v>
       </c>
-      <c r="B189" s="8">
-        <v>201</v>
-      </c>
       <c r="C189" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D189" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E189" s="5">
         <v>117</v>
@@ -3502,16 +3505,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
+        <v>154</v>
+      </c>
+      <c r="B190" s="8">
         <v>200</v>
       </c>
-      <c r="B190" s="8">
-        <v>202</v>
-      </c>
       <c r="C190" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D190" s="8">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E190" s="5">
         <v>122</v>
@@ -3525,13 +3528,13 @@
         <v>201</v>
       </c>
       <c r="B191" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C191" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D191" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E191" s="5">
         <v>123</v>
@@ -3542,16 +3545,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
+        <v>203</v>
+      </c>
+      <c r="B192" s="8">
         <v>202</v>
       </c>
-      <c r="B192" s="8">
-        <v>204</v>
-      </c>
       <c r="C192" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D192" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E192" s="5">
         <v>151</v>
@@ -3562,16 +3565,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
+        <v>204</v>
+      </c>
+      <c r="B193" s="8">
         <v>203</v>
       </c>
-      <c r="B193" s="8">
-        <v>206</v>
-      </c>
       <c r="C193" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D193" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E193" s="5">
         <v>152</v>
@@ -3582,16 +3585,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
+        <v>208</v>
+      </c>
+      <c r="B194" s="8">
         <v>204</v>
       </c>
-      <c r="B194" s="8">
+      <c r="C194" s="8">
         <v>209</v>
       </c>
-      <c r="C194" s="8">
-        <v>206</v>
-      </c>
       <c r="D194" s="8">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="E194" s="5">
         <v>153</v>
@@ -3602,16 +3605,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
+        <v>210</v>
+      </c>
+      <c r="B195" s="8">
         <v>206</v>
       </c>
-      <c r="B195" s="8">
+      <c r="C195" s="8">
         <v>210</v>
       </c>
-      <c r="C195" s="8">
-        <v>213</v>
-      </c>
       <c r="D195" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E195" s="5">
         <v>154</v>
@@ -3622,16 +3625,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B196" s="8">
+        <v>208</v>
+      </c>
+      <c r="C196" s="8">
         <v>211</v>
       </c>
-      <c r="C196" s="8">
-        <v>214</v>
-      </c>
       <c r="D196" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E196" s="5">
         <v>200</v>
@@ -3642,16 +3645,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
+        <v>213</v>
+      </c>
+      <c r="B197" s="8">
         <v>210</v>
       </c>
-      <c r="B197" s="8">
+      <c r="C197" s="8">
         <v>213</v>
       </c>
-      <c r="C197" s="8">
-        <v>215</v>
-      </c>
       <c r="D197" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E197" s="5">
         <v>201</v>
@@ -3662,16 +3665,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B198" s="8">
+        <v>211</v>
+      </c>
+      <c r="C198" s="8">
         <v>214</v>
       </c>
-      <c r="C198" s="8">
-        <v>216</v>
-      </c>
       <c r="D198" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E198" s="5">
         <v>202</v>
@@ -3682,16 +3685,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B199" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C199" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D199" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E199" s="5">
         <v>203</v>
@@ -3702,16 +3705,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B200" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C200" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D200" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E200" s="5">
         <v>204</v>
@@ -3722,16 +3725,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B201" s="8">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="C201" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D201" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E201" s="5">
         <v>206</v>
@@ -3742,16 +3745,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B202" s="8">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="C202" s="8">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="D202" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E202" s="5">
         <v>208</v>
@@ -3762,16 +3765,16 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
+        <v>302</v>
+      </c>
+      <c r="B203" s="8">
         <v>218</v>
       </c>
-      <c r="B203" s="8">
-        <v>306</v>
-      </c>
       <c r="C203" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D203" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E203" s="5">
         <v>209</v>
@@ -3782,13 +3785,13 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="B204" s="8">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C204" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D204" s="8">
         <v>213</v>
@@ -3802,13 +3805,13 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B205" s="8">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C205" s="8">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D205" s="8">
         <v>214</v>
@@ -3822,13 +3825,13 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B206" s="8">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C206" s="8">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D206" s="8">
         <v>215</v>
@@ -3842,13 +3845,13 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B207" s="8">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C207" s="8">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D207" s="8">
         <v>216</v>
@@ -3862,13 +3865,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B208" s="8">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C208" s="8">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D208" s="8">
         <v>217</v>
@@ -3882,13 +3885,13 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B209" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C209" s="8">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D209" s="8">
         <v>218</v>
@@ -3902,13 +3905,13 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B210" s="8">
         <v>321</v>
       </c>
       <c r="C210" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D210" s="8">
         <v>219</v>
@@ -3922,7 +3925,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B211" s="8">
         <v>322</v>
@@ -3942,10 +3945,10 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B212" s="8">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C212" s="8">
         <v>322</v>
@@ -3965,7 +3968,7 @@
         <v>403</v>
       </c>
       <c r="B213" s="9">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C213" s="8">
         <v>403</v>
@@ -4282,7 +4285,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B242" s="8">
         <v>106</v>
@@ -4302,10 +4305,10 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B243" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C243" s="8">
         <v>112</v>
@@ -4322,10 +4325,10 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B244" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C244" s="8">
         <v>117</v>
@@ -4342,7 +4345,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B245" s="8">
         <v>122</v>
@@ -4362,7 +4365,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B246" s="8">
         <v>123</v>
@@ -4382,7 +4385,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="B247" s="8">
         <v>151</v>
@@ -4402,7 +4405,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B248" s="8">
         <v>152</v>
@@ -4422,10 +4425,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B249" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C249" s="8">
         <v>153</v>
@@ -4442,7 +4445,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B250" s="8">
         <v>200</v>
@@ -4462,7 +4465,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="B251" s="8">
         <v>201</v>
@@ -4482,10 +4485,10 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B252" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C252" s="8">
         <v>201</v>
@@ -4502,7 +4505,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B253" s="8">
         <v>204</v>
@@ -4522,13 +4525,13 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B254" s="8">
         <v>206</v>
       </c>
       <c r="C254" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D254" s="5">
         <v>153</v>
@@ -4548,7 +4551,7 @@
         <v>208</v>
       </c>
       <c r="C255" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D255" s="5">
         <v>154</v>
@@ -4568,7 +4571,7 @@
         <v>209</v>
       </c>
       <c r="C256" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D256" s="5">
         <v>200</v>
@@ -4588,7 +4591,7 @@
         <v>210</v>
       </c>
       <c r="C257" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D257" s="5">
         <v>201</v>
@@ -4608,7 +4611,7 @@
         <v>211</v>
       </c>
       <c r="C258" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D258" s="5">
         <v>202</v>
@@ -4625,10 +4628,10 @@
         <v>211</v>
       </c>
       <c r="B259" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C259" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D259" s="5">
         <v>203</v>
@@ -4645,10 +4648,10 @@
         <v>213</v>
       </c>
       <c r="B260" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C260" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D260" s="5">
         <v>204</v>
@@ -4668,7 +4671,7 @@
         <v>216</v>
       </c>
       <c r="C261" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D261" s="5">
         <v>206</v>
@@ -4688,7 +4691,7 @@
         <v>217</v>
       </c>
       <c r="C262" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D262" s="5">
         <v>208</v>
@@ -4705,10 +4708,10 @@
         <v>216</v>
       </c>
       <c r="B263" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C263" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D263" s="5">
         <v>209</v>
@@ -4725,7 +4728,7 @@
         <v>217</v>
       </c>
       <c r="B264" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C264" s="8">
         <v>218</v>
@@ -4742,10 +4745,10 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="B265" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C265" s="8">
         <v>219</v>
@@ -4762,10 +4765,10 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="B266" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C266" s="8">
         <v>301</v>
@@ -4782,10 +4785,10 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B267" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C267" s="8">
         <v>303</v>
@@ -4802,10 +4805,10 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B268" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C268" s="8">
         <v>304</v>
@@ -4822,10 +4825,10 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B269" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C269" s="8">
         <v>305</v>
@@ -4842,10 +4845,10 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B270" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C270" s="8">
         <v>306</v>
@@ -4862,7 +4865,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B271" s="8">
         <v>317</v>
@@ -4882,7 +4885,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B272" s="8">
         <v>318</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B273" s="8">
         <v>321</v>
@@ -4922,13 +4925,13 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B274" s="8">
         <v>322</v>
       </c>
       <c r="C274" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D274" s="5">
         <v>302</v>
@@ -4942,13 +4945,13 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="B275" s="8">
         <v>403</v>
       </c>
       <c r="C275" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D275" s="5">
         <v>303</v>
@@ -4962,7 +4965,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="B276" s="8">
         <v>404</v>
@@ -4982,7 +4985,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B277" s="8">
         <v>409</v>
@@ -5002,7 +5005,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B278" s="8">
         <v>412</v>
@@ -5022,7 +5025,7 @@
     </row>
     <row r="279" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="9">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B279" s="8">
         <v>413</v>
@@ -5059,7 +5062,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C281" s="8">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D281" s="5">
         <v>311</v>
@@ -5073,7 +5076,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C282" s="8">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D282" s="5">
         <v>314</v>

--- a/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC4F80D2-BE45-43EC-97C8-2C686DB62D1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98924B92-2B41-45B3-93B6-0C546D9202E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{A1D0EE3D-4B3F-494B-B946-AA5ED7F105A9}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{60602ABC-DE20-475A-8776-861B85EDAC23}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059E8FE0-934B-4FE8-B5BC-352F3DAB4A33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A4245F-6CBA-4FC5-BEC9-1E3EE58E5A1C}">
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -615,7 +615,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="5">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="8">
         <v>104</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B3" s="5">
         <v>112</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B4" s="5">
         <v>122</v>
@@ -681,7 +681,7 @@
         <v>122</v>
       </c>
       <c r="D5" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E5" s="5">
         <v>108</v>
@@ -695,10 +695,10 @@
         <v>151</v>
       </c>
       <c r="B6" s="5">
+        <v>152</v>
+      </c>
+      <c r="C6" s="8">
         <v>151</v>
-      </c>
-      <c r="C6" s="8">
-        <v>123</v>
       </c>
       <c r="D6" s="8">
         <v>122</v>
@@ -715,10 +715,10 @@
         <v>153</v>
       </c>
       <c r="B7" s="5">
+        <v>153</v>
+      </c>
+      <c r="C7" s="8">
         <v>152</v>
-      </c>
-      <c r="C7" s="8">
-        <v>151</v>
       </c>
       <c r="D7" s="8">
         <v>123</v>
@@ -735,10 +735,10 @@
         <v>154</v>
       </c>
       <c r="B8" s="5">
+        <v>154</v>
+      </c>
+      <c r="C8" s="8">
         <v>153</v>
-      </c>
-      <c r="C8" s="8">
-        <v>152</v>
       </c>
       <c r="D8" s="8">
         <v>151</v>
@@ -755,10 +755,10 @@
         <v>200</v>
       </c>
       <c r="B9" s="5">
+        <v>200</v>
+      </c>
+      <c r="C9" s="8">
         <v>154</v>
-      </c>
-      <c r="C9" s="8">
-        <v>153</v>
       </c>
       <c r="D9" s="8">
         <v>152</v>
@@ -772,16 +772,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
+        <v>202</v>
+      </c>
+      <c r="B10" s="5">
         <v>201</v>
       </c>
-      <c r="B10" s="5">
-        <v>202</v>
-      </c>
       <c r="C10" s="8">
+        <v>200</v>
+      </c>
+      <c r="D10" s="8">
         <v>154</v>
-      </c>
-      <c r="D10" s="8">
-        <v>153</v>
       </c>
       <c r="E10" s="5">
         <v>122</v>
@@ -792,16 +792,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
+        <v>203</v>
+      </c>
+      <c r="B11" s="5">
         <v>202</v>
       </c>
-      <c r="B11" s="5">
-        <v>204</v>
-      </c>
       <c r="C11" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D11" s="8">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="E11" s="5">
         <v>123</v>
@@ -812,16 +812,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
+        <v>204</v>
+      </c>
+      <c r="B12" s="5">
         <v>203</v>
       </c>
-      <c r="B12" s="5">
-        <v>206</v>
-      </c>
       <c r="C12" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D12" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E12" s="5">
         <v>151</v>
@@ -835,13 +835,13 @@
         <v>206</v>
       </c>
       <c r="B13" s="5">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D13" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E13" s="5">
         <v>152</v>
@@ -855,13 +855,13 @@
         <v>208</v>
       </c>
       <c r="B14" s="5">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C14" s="8">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D14" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E14" s="5">
         <v>153</v>
@@ -875,13 +875,13 @@
         <v>209</v>
       </c>
       <c r="B15" s="5">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C15" s="8">
+        <v>209</v>
+      </c>
+      <c r="D15" s="8">
         <v>206</v>
-      </c>
-      <c r="D15" s="8">
-        <v>204</v>
       </c>
       <c r="E15" s="5">
         <v>154</v>
@@ -895,13 +895,13 @@
         <v>210</v>
       </c>
       <c r="B16" s="5">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C16" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D16" s="8">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E16" s="5">
         <v>200</v>
@@ -915,13 +915,13 @@
         <v>211</v>
       </c>
       <c r="B17" s="5">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C17" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D17" s="8">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E17" s="5">
         <v>201</v>
@@ -932,16 +932,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B18" s="5">
         <v>216</v>
       </c>
       <c r="C18" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D18" s="8">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E18" s="5">
         <v>202</v>
@@ -952,16 +952,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B19" s="5">
         <v>217</v>
       </c>
       <c r="C19" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D19" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E19" s="5">
         <v>203</v>
@@ -972,16 +972,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
+        <v>219</v>
+      </c>
+      <c r="B20" s="5">
+        <v>218</v>
+      </c>
+      <c r="C20" s="8">
+        <v>217</v>
+      </c>
+      <c r="D20" s="8">
         <v>216</v>
-      </c>
-      <c r="B20" s="5">
-        <v>219</v>
-      </c>
-      <c r="C20" s="8">
-        <v>214</v>
-      </c>
-      <c r="D20" s="8">
-        <v>213</v>
       </c>
       <c r="E20" s="5">
         <v>204</v>
@@ -992,16 +992,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
+        <v>302</v>
+      </c>
+      <c r="B21" s="5">
         <v>219</v>
       </c>
-      <c r="B21" s="5">
+      <c r="C21" s="8">
         <v>303</v>
       </c>
-      <c r="C21" s="8">
-        <v>215</v>
-      </c>
       <c r="D21" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E21" s="5">
         <v>206</v>
@@ -1012,16 +1012,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B22" s="5">
+        <v>303</v>
+      </c>
+      <c r="C22" s="8">
         <v>304</v>
       </c>
-      <c r="C22" s="8">
-        <v>216</v>
-      </c>
       <c r="D22" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E22" s="5">
         <v>208</v>
@@ -1032,16 +1032,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B23" s="5">
+        <v>304</v>
+      </c>
+      <c r="C23" s="8">
         <v>306</v>
       </c>
-      <c r="C23" s="8">
-        <v>217</v>
-      </c>
       <c r="D23" s="8">
-        <v>216</v>
+        <v>301</v>
       </c>
       <c r="E23" s="5">
         <v>209</v>
@@ -1052,16 +1052,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B24" s="5">
+        <v>306</v>
+      </c>
+      <c r="C24" s="8">
         <v>308</v>
       </c>
-      <c r="C24" s="8">
-        <v>304</v>
-      </c>
       <c r="D24" s="8">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="E24" s="5">
         <v>210</v>
@@ -1072,16 +1072,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B25" s="5">
         <v>310</v>
       </c>
       <c r="C25" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D25" s="8">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="E25" s="5">
         <v>211</v>
@@ -1095,13 +1095,13 @@
         <v>310</v>
       </c>
       <c r="B26" s="5">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C26" s="8">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D26" s="8">
-        <v>219</v>
+        <v>306</v>
       </c>
       <c r="E26" s="5">
         <v>213</v>
@@ -1112,16 +1112,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B27" s="5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C27" s="8">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D27" s="8">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E27" s="5">
         <v>214</v>
@@ -1132,16 +1132,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B28" s="5">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C28" s="8">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="D28" s="8">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E28" s="5">
         <v>215</v>
@@ -1152,16 +1152,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="B29" s="5">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C29" s="8">
         <v>404</v>
       </c>
       <c r="D29" s="8">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="E29" s="5">
         <v>216</v>
@@ -1172,16 +1172,16 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B30" s="5">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C30" s="9">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="D30" s="8">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="E30" s="5">
         <v>217</v>
@@ -1198,7 +1198,7 @@
         <v>412</v>
       </c>
       <c r="D31" s="8">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="E31" s="5">
         <v>218</v>
@@ -1215,7 +1215,7 @@
         <v>416</v>
       </c>
       <c r="D32" s="8">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="E32" s="5">
         <v>219</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="8">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E33" s="5">
         <v>301</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="8">
-        <v>317</v>
+        <v>403</v>
       </c>
       <c r="E34" s="5">
         <v>302</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="8">
-        <v>319</v>
+        <v>404</v>
       </c>
       <c r="E35" s="5">
         <v>303</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="8">
-        <v>321</v>
+        <v>405</v>
       </c>
       <c r="E36" s="5">
         <v>304</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="8">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E37" s="5">
         <v>305</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="8">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E38" s="5">
         <v>306</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="8">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E39" s="5">
         <v>308</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="8">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E40" s="5">
         <v>310</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="41" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D41" s="9">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E41" s="5">
         <v>311</v>
@@ -1498,7 +1498,7 @@
         <v>104</v>
       </c>
       <c r="C62" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D62" s="8">
         <v>104</v>
@@ -1512,13 +1512,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B63" s="5">
         <v>108</v>
       </c>
       <c r="C63" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D63" s="8">
         <v>105</v>
@@ -1532,13 +1532,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B64" s="5">
         <v>111</v>
       </c>
       <c r="C64" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D64" s="8">
         <v>106</v>
@@ -1575,7 +1575,7 @@
         <v>152</v>
       </c>
       <c r="B66" s="5">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C66" s="8">
         <v>123</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B67" s="5">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C67" s="8">
         <v>151</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="B68" s="5">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C68" s="8">
         <v>152</v>
@@ -1632,10 +1632,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B69" s="5">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="8">
         <v>153</v>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B70" s="5">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="C70" s="8">
         <v>154</v>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B71" s="5">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="C71" s="8">
         <v>200</v>
@@ -1692,10 +1692,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B72" s="5">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C72" s="8">
         <v>201</v>
@@ -1712,13 +1712,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B73" s="5">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C73" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8">
         <v>152</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B74" s="5">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C74" s="8">
         <v>204</v>
@@ -1755,10 +1755,10 @@
         <v>211</v>
       </c>
       <c r="B75" s="5">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C75" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8">
         <v>154</v>
@@ -1775,10 +1775,10 @@
         <v>213</v>
       </c>
       <c r="B76" s="5">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C76" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D76" s="8">
         <v>200</v>
@@ -1795,7 +1795,7 @@
         <v>214</v>
       </c>
       <c r="B77" s="5">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C77" s="8">
         <v>210</v>
@@ -1812,13 +1812,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B78" s="5">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C78" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D78" s="8">
         <v>202</v>
@@ -1832,10 +1832,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B79" s="5">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C79" s="8">
         <v>214</v>
@@ -1852,13 +1852,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B80" s="5">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C80" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D80" s="8">
         <v>204</v>
@@ -1872,13 +1872,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B81" s="5">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C81" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D81" s="8">
         <v>206</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="B82" s="5">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C82" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D82" s="8">
         <v>208</v>
@@ -1915,10 +1915,10 @@
         <v>304</v>
       </c>
       <c r="B83" s="5">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C83" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D83" s="8">
         <v>209</v>
@@ -1932,13 +1932,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B84" s="5">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="C84" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D84" s="8">
         <v>210</v>
@@ -1952,10 +1952,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B85" s="5">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C85" s="8">
         <v>308</v>
@@ -1972,13 +1972,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B86" s="5">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C86" s="8">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D86" s="8">
         <v>213</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B87" s="5">
         <v>310</v>
       </c>
       <c r="C87" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D87" s="8">
         <v>214</v>
@@ -2012,13 +2012,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
-        <v>403</v>
+        <v>317</v>
       </c>
       <c r="B88" s="5">
         <v>314</v>
       </c>
       <c r="C88" s="8">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D88" s="8">
         <v>215</v>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B89" s="5">
         <v>317</v>
       </c>
       <c r="C89" s="8">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="D89" s="8">
         <v>216</v>
@@ -2052,13 +2052,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B90" s="5">
         <v>321</v>
       </c>
       <c r="C90" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D90" s="8">
         <v>217</v>
@@ -2072,13 +2072,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B91" s="5">
         <v>403</v>
       </c>
       <c r="C91" s="8">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D91" s="8">
         <v>218</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="110" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D110" s="8">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E110" s="5">
         <v>405</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="111" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D111" s="8">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E111" s="5">
         <v>409</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D112" s="8">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E112" s="5">
         <v>410</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D113" s="8">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E113" s="5">
         <v>411</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D114" s="8">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E114" s="5">
         <v>412</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D115" s="8">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E115" s="5">
         <v>413</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D116" s="8">
-        <v>717</v>
+        <v>416</v>
       </c>
       <c r="E116" s="5">
         <v>416</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B122" s="5">
         <v>104</v>
@@ -2452,13 +2452,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B123" s="5">
         <v>105</v>
       </c>
       <c r="C123" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D123" s="8">
         <v>105</v>
@@ -2472,13 +2472,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B124" s="5">
         <v>108</v>
       </c>
       <c r="C124" s="8">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D124" s="8">
         <v>106</v>
@@ -2492,13 +2492,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B125" s="5">
         <v>112</v>
       </c>
       <c r="C125" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D125" s="8">
         <v>108</v>
@@ -2512,13 +2512,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B126" s="5">
+        <v>152</v>
+      </c>
+      <c r="C126" s="8">
         <v>123</v>
-      </c>
-      <c r="C126" s="8">
-        <v>151</v>
       </c>
       <c r="D126" s="8">
         <v>109</v>
@@ -2532,16 +2532,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="B127" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C127" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D127" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E127" s="5">
         <v>111</v>
@@ -2552,16 +2552,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B128" s="5">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C128" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D128" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E128" s="5">
         <v>112</v>
@@ -2572,16 +2572,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B129" s="5">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="C129" s="8">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="D129" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E129" s="5">
         <v>117</v>
@@ -2592,16 +2592,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="B130" s="5">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C130" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D130" s="8">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="E130" s="5">
         <v>122</v>
@@ -2612,16 +2612,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B131" s="5">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C131" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D131" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E131" s="5">
         <v>123</v>
@@ -2632,16 +2632,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B132" s="5">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C132" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D132" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E132" s="5">
         <v>151</v>
@@ -2652,16 +2652,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B133" s="5">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C133" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D133" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E133" s="5">
         <v>152</v>
@@ -2672,16 +2672,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B134" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C134" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D134" s="8">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="E134" s="5">
         <v>153</v>
@@ -2692,16 +2692,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B135" s="5">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C135" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D135" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E135" s="5">
         <v>154</v>
@@ -2712,16 +2712,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B136" s="5">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C136" s="8">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D136" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E136" s="5">
         <v>200</v>
@@ -2732,16 +2732,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B137" s="5">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C137" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D137" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E137" s="5">
         <v>201</v>
@@ -2752,16 +2752,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B138" s="5">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C138" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D138" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E138" s="5">
         <v>202</v>
@@ -2772,16 +2772,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B139" s="5">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C139" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D139" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E139" s="5">
         <v>203</v>
@@ -2792,16 +2792,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B140" s="5">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C140" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D140" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E140" s="5">
         <v>204</v>
@@ -2815,13 +2815,13 @@
         <v>215</v>
       </c>
       <c r="B141" s="5">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C141" s="8">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="D141" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E141" s="5">
         <v>206</v>
@@ -2832,13 +2832,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B142" s="5">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C142" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D142" s="8">
         <v>210</v>
@@ -2852,13 +2852,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B143" s="5">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="C143" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D143" s="8">
         <v>211</v>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="B144" s="5">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="C144" s="8">
         <v>305</v>
@@ -2892,10 +2892,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="B145" s="5">
-        <v>219</v>
+        <v>306</v>
       </c>
       <c r="C145" s="8">
         <v>306</v>
@@ -2915,7 +2915,7 @@
         <v>304</v>
       </c>
       <c r="B146" s="5">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C146" s="8">
         <v>308</v>
@@ -2935,13 +2935,13 @@
         <v>306</v>
       </c>
       <c r="B147" s="5">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C147" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D147" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E147" s="5">
         <v>214</v>
@@ -2952,16 +2952,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
+        <v>308</v>
+      </c>
+      <c r="B148" s="5">
         <v>314</v>
       </c>
-      <c r="B148" s="5">
-        <v>308</v>
-      </c>
       <c r="C148" s="8">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D148" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E148" s="5">
         <v>215</v>
@@ -2972,16 +2972,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
+        <v>310</v>
+      </c>
+      <c r="B149" s="5">
         <v>317</v>
       </c>
-      <c r="B149" s="5">
-        <v>310</v>
-      </c>
       <c r="C149" s="8">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D149" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E149" s="5">
         <v>216</v>
@@ -2992,16 +2992,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
+        <v>321</v>
+      </c>
+      <c r="B150" s="5">
+        <v>403</v>
+      </c>
+      <c r="C150" s="8">
         <v>322</v>
       </c>
-      <c r="B150" s="5">
-        <v>314</v>
-      </c>
-      <c r="C150" s="8">
-        <v>321</v>
-      </c>
       <c r="D150" s="8">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="E150" s="5">
         <v>217</v>
@@ -3015,13 +3015,13 @@
         <v>403</v>
       </c>
       <c r="B151" s="5">
-        <v>317</v>
+        <v>404</v>
       </c>
       <c r="C151" s="8">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="D151" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E151" s="5">
         <v>218</v>
@@ -3035,13 +3035,13 @@
         <v>404</v>
       </c>
       <c r="B152" s="5">
-        <v>321</v>
+        <v>409</v>
       </c>
       <c r="C152" s="8">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D152" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E152" s="5">
         <v>219</v>
@@ -3051,17 +3051,17 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="5">
+      <c r="A153" s="6">
         <v>405</v>
       </c>
       <c r="B153" s="6">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C153" s="9">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D153" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E153" s="5">
         <v>301</v>
@@ -3070,10 +3070,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="6">
-        <v>416</v>
-      </c>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D154" s="8">
         <v>306</v>
       </c>
@@ -3152,7 +3149,7 @@
     </row>
     <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" s="8">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="E161" s="5">
         <v>311</v>
@@ -3163,7 +3160,7 @@
     </row>
     <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" s="8">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E162" s="5">
         <v>314</v>
@@ -3174,7 +3171,7 @@
     </row>
     <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" s="8">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E163" s="5">
         <v>317</v>
@@ -3185,7 +3182,7 @@
     </row>
     <row r="164" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D164" s="8">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E164" s="5">
         <v>318</v>
@@ -3196,7 +3193,7 @@
     </row>
     <row r="165" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D165" s="8">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E165" s="5">
         <v>319</v>
@@ -3207,7 +3204,7 @@
     </row>
     <row r="166" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D166" s="9">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E166" s="5">
         <v>321</v>
@@ -3345,10 +3342,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B182" s="8">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C182" s="8">
         <v>106</v>
@@ -3365,10 +3362,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B183" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C183" s="8">
         <v>112</v>
@@ -3385,16 +3382,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B184" s="8">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C184" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D184" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E184" s="5">
         <v>106</v>
@@ -3405,16 +3402,16 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B185" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C185" s="8">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="D185" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E185" s="5">
         <v>108</v>
@@ -3425,16 +3422,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="B186" s="8">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C186" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D186" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E186" s="5">
         <v>109</v>
@@ -3445,16 +3442,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B187" s="8">
         <v>152</v>
       </c>
       <c r="C187" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D187" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E187" s="5">
         <v>111</v>
@@ -3465,16 +3462,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B188" s="8">
+        <v>200</v>
+      </c>
+      <c r="C188" s="8">
         <v>153</v>
       </c>
-      <c r="C188" s="8">
-        <v>201</v>
-      </c>
       <c r="D188" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E188" s="5">
         <v>112</v>
@@ -3485,16 +3482,16 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="B189" s="8">
+        <v>201</v>
+      </c>
+      <c r="C189" s="8">
         <v>154</v>
       </c>
-      <c r="C189" s="8">
-        <v>202</v>
-      </c>
       <c r="D189" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E189" s="5">
         <v>117</v>
@@ -3505,16 +3502,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="B190" s="8">
+        <v>202</v>
+      </c>
+      <c r="C190" s="8">
         <v>200</v>
       </c>
-      <c r="C190" s="8">
-        <v>203</v>
-      </c>
       <c r="D190" s="8">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="E190" s="5">
         <v>122</v>
@@ -3525,16 +3522,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
+        <v>202</v>
+      </c>
+      <c r="B191" s="8">
+        <v>203</v>
+      </c>
+      <c r="C191" s="8">
         <v>201</v>
       </c>
-      <c r="B191" s="8">
-        <v>201</v>
-      </c>
-      <c r="C191" s="8">
-        <v>204</v>
-      </c>
       <c r="D191" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E191" s="5">
         <v>123</v>
@@ -3548,13 +3545,13 @@
         <v>203</v>
       </c>
       <c r="B192" s="8">
+        <v>204</v>
+      </c>
+      <c r="C192" s="8">
         <v>202</v>
       </c>
-      <c r="C192" s="8">
-        <v>206</v>
-      </c>
       <c r="D192" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E192" s="5">
         <v>151</v>
@@ -3568,13 +3565,13 @@
         <v>204</v>
       </c>
       <c r="B193" s="8">
+        <v>206</v>
+      </c>
+      <c r="C193" s="8">
         <v>203</v>
       </c>
-      <c r="C193" s="8">
-        <v>208</v>
-      </c>
       <c r="D193" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E193" s="5">
         <v>152</v>
@@ -3585,16 +3582,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B194" s="8">
+        <v>209</v>
+      </c>
+      <c r="C194" s="8">
         <v>204</v>
       </c>
-      <c r="C194" s="8">
-        <v>209</v>
-      </c>
       <c r="D194" s="8">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="E194" s="5">
         <v>153</v>
@@ -3605,16 +3602,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
+        <v>208</v>
+      </c>
+      <c r="B195" s="8">
         <v>210</v>
       </c>
-      <c r="B195" s="8">
-        <v>206</v>
-      </c>
       <c r="C195" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D195" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E195" s="5">
         <v>154</v>
@@ -3625,16 +3622,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
+        <v>209</v>
+      </c>
+      <c r="B196" s="8">
         <v>211</v>
       </c>
-      <c r="B196" s="8">
-        <v>208</v>
-      </c>
       <c r="C196" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D196" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E196" s="5">
         <v>200</v>
@@ -3645,16 +3642,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B197" s="8">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C197" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D197" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E197" s="5">
         <v>201</v>
@@ -3665,16 +3662,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B198" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C198" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D198" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E198" s="5">
         <v>202</v>
@@ -3685,16 +3682,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B199" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C199" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D199" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E199" s="5">
         <v>203</v>
@@ -3705,16 +3702,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B200" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C200" s="8">
         <v>216</v>
       </c>
       <c r="D200" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E200" s="5">
         <v>204</v>
@@ -3725,13 +3722,13 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B201" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C201" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D201" s="8">
         <v>209</v>
@@ -3745,13 +3742,13 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
+        <v>217</v>
+      </c>
+      <c r="B202" s="8">
+        <v>303</v>
+      </c>
+      <c r="C202" s="8">
         <v>219</v>
-      </c>
-      <c r="B202" s="8">
-        <v>216</v>
-      </c>
-      <c r="C202" s="8">
-        <v>218</v>
       </c>
       <c r="D202" s="8">
         <v>210</v>
@@ -3765,10 +3762,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="B203" s="8">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="C203" s="8">
         <v>303</v>
@@ -3788,7 +3785,7 @@
         <v>303</v>
       </c>
       <c r="B204" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C204" s="8">
         <v>304</v>
@@ -3808,10 +3805,10 @@
         <v>304</v>
       </c>
       <c r="B205" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C205" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D205" s="8">
         <v>214</v>
@@ -3828,10 +3825,10 @@
         <v>306</v>
       </c>
       <c r="B206" s="8">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C206" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D206" s="8">
         <v>215</v>
@@ -3845,13 +3842,13 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B207" s="8">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C207" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D207" s="8">
         <v>216</v>
@@ -3865,10 +3862,10 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B208" s="8">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C208" s="8">
         <v>311</v>
@@ -3885,10 +3882,10 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B209" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C209" s="8">
         <v>314</v>
@@ -3905,13 +3902,13 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B210" s="8">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="C210" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D210" s="8">
         <v>219</v>
@@ -3925,13 +3922,13 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B211" s="8">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="C211" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D211" s="8">
         <v>301</v>
@@ -3945,10 +3942,10 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B212" s="8">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C212" s="8">
         <v>322</v>
@@ -3968,7 +3965,7 @@
         <v>403</v>
       </c>
       <c r="B213" s="9">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C213" s="8">
         <v>403</v>
@@ -4285,10 +4282,10 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B242" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C242" s="8">
         <v>105</v>
@@ -4308,7 +4305,7 @@
         <v>111</v>
       </c>
       <c r="B243" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C243" s="8">
         <v>112</v>
@@ -4328,7 +4325,7 @@
         <v>112</v>
       </c>
       <c r="B244" s="8">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C244" s="8">
         <v>117</v>
@@ -4368,7 +4365,7 @@
         <v>123</v>
       </c>
       <c r="B246" s="8">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C246" s="8">
         <v>123</v>
@@ -4388,10 +4385,10 @@
         <v>151</v>
       </c>
       <c r="B247" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C247" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D247" s="5">
         <v>111</v>
@@ -4408,10 +4405,10 @@
         <v>152</v>
       </c>
       <c r="B248" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C248" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D248" s="5">
         <v>112</v>
@@ -4431,7 +4428,7 @@
         <v>154</v>
       </c>
       <c r="C249" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D249" s="5">
         <v>117</v>
@@ -4448,10 +4445,10 @@
         <v>154</v>
       </c>
       <c r="B250" s="8">
+        <v>201</v>
+      </c>
+      <c r="C250" s="8">
         <v>200</v>
-      </c>
-      <c r="C250" s="8">
-        <v>154</v>
       </c>
       <c r="D250" s="5">
         <v>122</v>
@@ -4468,10 +4465,10 @@
         <v>200</v>
       </c>
       <c r="B251" s="8">
+        <v>202</v>
+      </c>
+      <c r="C251" s="8">
         <v>201</v>
-      </c>
-      <c r="C251" s="8">
-        <v>200</v>
       </c>
       <c r="D251" s="5">
         <v>123</v>
@@ -4491,7 +4488,7 @@
         <v>203</v>
       </c>
       <c r="C252" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D252" s="5">
         <v>151</v>
@@ -4511,7 +4508,7 @@
         <v>204</v>
       </c>
       <c r="C253" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D253" s="5">
         <v>152</v>
@@ -4528,7 +4525,7 @@
         <v>203</v>
       </c>
       <c r="B254" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C254" s="8">
         <v>204</v>
@@ -4545,10 +4542,10 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B255" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C255" s="8">
         <v>206</v>
@@ -4565,10 +4562,10 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B256" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C256" s="8">
         <v>208</v>
@@ -4585,10 +4582,10 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B257" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C257" s="8">
         <v>209</v>
@@ -4608,7 +4605,7 @@
         <v>210</v>
       </c>
       <c r="B258" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C258" s="8">
         <v>210</v>
@@ -4628,7 +4625,7 @@
         <v>211</v>
       </c>
       <c r="B259" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C259" s="8">
         <v>213</v>
@@ -4648,7 +4645,7 @@
         <v>213</v>
       </c>
       <c r="B260" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C260" s="8">
         <v>214</v>
@@ -4708,7 +4705,7 @@
         <v>216</v>
       </c>
       <c r="B263" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C263" s="8">
         <v>217</v>
@@ -4728,7 +4725,7 @@
         <v>217</v>
       </c>
       <c r="B264" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C264" s="8">
         <v>218</v>
@@ -4748,7 +4745,7 @@
         <v>218</v>
       </c>
       <c r="B265" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C265" s="8">
         <v>219</v>
@@ -4765,10 +4762,10 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="B266" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C266" s="8">
         <v>301</v>
@@ -4785,10 +4782,10 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B267" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C267" s="8">
         <v>303</v>
@@ -4805,10 +4802,10 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B268" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C268" s="8">
         <v>304</v>
@@ -4825,13 +4822,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B269" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C269" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D269" s="5">
         <v>216</v>
@@ -4845,13 +4842,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B270" s="8">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C270" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D270" s="5">
         <v>217</v>
@@ -4865,13 +4862,13 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B271" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C271" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D271" s="5">
         <v>218</v>
@@ -4885,13 +4882,13 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B272" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C272" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D272" s="5">
         <v>219</v>
@@ -4905,13 +4902,13 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B273" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C273" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D273" s="5">
         <v>301</v>
@@ -4925,10 +4922,10 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B274" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C274" s="8">
         <v>317</v>
@@ -4945,10 +4942,10 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B275" s="8">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="C275" s="8">
         <v>318</v>
@@ -4965,10 +4962,10 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="B276" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C276" s="8">
         <v>319</v>
@@ -4988,7 +4985,7 @@
         <v>404</v>
       </c>
       <c r="B277" s="8">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C277" s="8">
         <v>321</v>
@@ -5005,7 +5002,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B278" s="8">
         <v>412</v>
@@ -5025,13 +5022,13 @@
     </row>
     <row r="279" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="9">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B279" s="8">
         <v>413</v>
       </c>
       <c r="C279" s="8">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D279" s="5">
         <v>308</v>
@@ -5048,7 +5045,7 @@
         <v>717</v>
       </c>
       <c r="C280" s="8">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D280" s="5">
         <v>310</v>
@@ -5062,7 +5059,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C281" s="8">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D281" s="5">
         <v>311</v>
@@ -5076,7 +5073,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C282" s="8">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D282" s="5">
         <v>314</v>

--- a/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98924B92-2B41-45B3-93B6-0C546D9202E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF5754C7-4184-4DD3-9080-5EF18C6B86E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{60602ABC-DE20-475A-8776-861B85EDAC23}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{28EABB23-9510-4D98-9CD0-F69A0635A4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A4245F-6CBA-4FC5-BEC9-1E3EE58E5A1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E32BD0-461B-4E49-A156-DD40E794B76E}">
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -621,7 +621,7 @@
         <v>104</v>
       </c>
       <c r="D2" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E2" s="5">
         <v>104</v>
@@ -635,13 +635,13 @@
         <v>108</v>
       </c>
       <c r="B3" s="5">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C3" s="8">
         <v>108</v>
       </c>
       <c r="D3" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E3" s="5">
         <v>105</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
+        <v>122</v>
+      </c>
+      <c r="B4" s="5">
         <v>112</v>
-      </c>
-      <c r="B4" s="5">
-        <v>122</v>
       </c>
       <c r="C4" s="8">
         <v>112</v>
       </c>
       <c r="D4" s="8">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E4" s="5">
         <v>106</v>
@@ -675,13 +675,13 @@
         <v>123</v>
       </c>
       <c r="B5" s="5">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="8">
         <v>122</v>
       </c>
       <c r="D5" s="8">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E5" s="5">
         <v>108</v>
@@ -695,13 +695,13 @@
         <v>151</v>
       </c>
       <c r="B6" s="5">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C6" s="8">
         <v>151</v>
       </c>
       <c r="D6" s="8">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E6" s="5">
         <v>109</v>
@@ -712,16 +712,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="5">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="8">
         <v>152</v>
       </c>
       <c r="D7" s="8">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="E7" s="5">
         <v>111</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="5">
         <v>154</v>
@@ -741,7 +741,7 @@
         <v>153</v>
       </c>
       <c r="D8" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E8" s="5">
         <v>112</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="B9" s="5">
         <v>200</v>
@@ -761,7 +761,7 @@
         <v>154</v>
       </c>
       <c r="D9" s="8">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="E9" s="5">
         <v>117</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B10" s="5">
         <v>201</v>
@@ -781,7 +781,7 @@
         <v>200</v>
       </c>
       <c r="D10" s="8">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="E10" s="5">
         <v>122</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B11" s="5">
         <v>202</v>
@@ -801,7 +801,7 @@
         <v>201</v>
       </c>
       <c r="D11" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E11" s="5">
         <v>123</v>
@@ -812,16 +812,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B12" s="5">
         <v>203</v>
       </c>
       <c r="C12" s="8">
+        <v>202</v>
+      </c>
+      <c r="D12" s="8">
         <v>203</v>
-      </c>
-      <c r="D12" s="8">
-        <v>202</v>
       </c>
       <c r="E12" s="5">
         <v>151</v>
@@ -832,16 +832,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B13" s="5">
         <v>206</v>
       </c>
       <c r="C13" s="8">
+        <v>203</v>
+      </c>
+      <c r="D13" s="8">
         <v>204</v>
-      </c>
-      <c r="D13" s="8">
-        <v>203</v>
       </c>
       <c r="E13" s="5">
         <v>152</v>
@@ -852,16 +852,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B14" s="5">
         <v>208</v>
       </c>
       <c r="C14" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D14" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E14" s="5">
         <v>153</v>
@@ -872,16 +872,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B15" s="5">
         <v>210</v>
       </c>
       <c r="C15" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D15" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E15" s="5">
         <v>154</v>
@@ -892,16 +892,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
+        <v>211</v>
+      </c>
+      <c r="B16" s="5">
+        <v>213</v>
+      </c>
+      <c r="C16" s="8">
+        <v>208</v>
+      </c>
+      <c r="D16" s="8">
         <v>210</v>
-      </c>
-      <c r="B16" s="5">
-        <v>211</v>
-      </c>
-      <c r="C16" s="8">
-        <v>210</v>
-      </c>
-      <c r="D16" s="8">
-        <v>211</v>
       </c>
       <c r="E16" s="5">
         <v>200</v>
@@ -912,16 +912,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
+        <v>213</v>
+      </c>
+      <c r="B17" s="5">
+        <v>215</v>
+      </c>
+      <c r="C17" s="8">
+        <v>209</v>
+      </c>
+      <c r="D17" s="8">
         <v>211</v>
-      </c>
-      <c r="B17" s="5">
-        <v>214</v>
-      </c>
-      <c r="C17" s="8">
-        <v>211</v>
-      </c>
-      <c r="D17" s="8">
-        <v>213</v>
       </c>
       <c r="E17" s="5">
         <v>201</v>
@@ -932,16 +932,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B18" s="5">
         <v>216</v>
       </c>
       <c r="C18" s="8">
+        <v>211</v>
+      </c>
+      <c r="D18" s="8">
         <v>213</v>
-      </c>
-      <c r="D18" s="8">
-        <v>214</v>
       </c>
       <c r="E18" s="5">
         <v>202</v>
@@ -952,13 +952,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B19" s="5">
         <v>217</v>
       </c>
       <c r="C19" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D19" s="8">
         <v>215</v>
@@ -972,16 +972,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="B20" s="5">
         <v>218</v>
       </c>
       <c r="C20" s="8">
+        <v>216</v>
+      </c>
+      <c r="D20" s="8">
         <v>217</v>
-      </c>
-      <c r="D20" s="8">
-        <v>216</v>
       </c>
       <c r="E20" s="5">
         <v>204</v>
@@ -992,16 +992,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B21" s="5">
         <v>219</v>
       </c>
       <c r="C21" s="8">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="D21" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E21" s="5">
         <v>206</v>
@@ -1012,13 +1012,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B22" s="5">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C22" s="8">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="D22" s="8">
         <v>219</v>
@@ -1032,13 +1032,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B23" s="5">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C23" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D23" s="8">
         <v>301</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B24" s="5">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C24" s="8">
         <v>308</v>
@@ -1072,10 +1072,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B25" s="5">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C25" s="8">
         <v>310</v>
@@ -1092,13 +1092,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B26" s="5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C26" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D26" s="8">
         <v>306</v>
@@ -1112,13 +1112,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B27" s="5">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C27" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D27" s="8">
         <v>308</v>
@@ -1135,10 +1135,10 @@
         <v>322</v>
       </c>
       <c r="B28" s="5">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="C28" s="8">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D28" s="8">
         <v>310</v>
@@ -1155,10 +1155,10 @@
         <v>403</v>
       </c>
       <c r="B29" s="5">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C29" s="8">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D29" s="8">
         <v>314</v>
@@ -1175,7 +1175,7 @@
         <v>404</v>
       </c>
       <c r="B30" s="5">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C30" s="9">
         <v>416</v>
@@ -1474,7 +1474,7 @@
       <c r="A61" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="12" t="s">
@@ -1494,11 +1494,11 @@
       <c r="A62" s="8">
         <v>104</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="8">
         <v>104</v>
       </c>
       <c r="C62" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D62" s="8">
         <v>104</v>
@@ -1512,13 +1512,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
-        <v>122</v>
-      </c>
-      <c r="B63" s="5">
         <v>108</v>
       </c>
+      <c r="B63" s="8">
+        <v>108</v>
+      </c>
       <c r="C63" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D63" s="8">
         <v>105</v>
@@ -1532,13 +1532,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
-        <v>123</v>
-      </c>
-      <c r="B64" s="5">
-        <v>111</v>
+        <v>122</v>
+      </c>
+      <c r="B64" s="8">
+        <v>122</v>
       </c>
       <c r="C64" s="8">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D64" s="8">
         <v>106</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
-        <v>151</v>
-      </c>
-      <c r="B65" s="5">
-        <v>112</v>
+        <v>123</v>
+      </c>
+      <c r="B65" s="8">
+        <v>123</v>
       </c>
       <c r="C65" s="8">
         <v>122</v>
@@ -1572,10 +1572,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
-        <v>152</v>
-      </c>
-      <c r="B66" s="5">
-        <v>117</v>
+        <v>151</v>
+      </c>
+      <c r="B66" s="8">
+        <v>151</v>
       </c>
       <c r="C66" s="8">
         <v>123</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
-        <v>153</v>
-      </c>
-      <c r="B67" s="5">
-        <v>122</v>
+        <v>152</v>
+      </c>
+      <c r="B67" s="8">
+        <v>152</v>
       </c>
       <c r="C67" s="8">
         <v>151</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
-        <v>154</v>
-      </c>
-      <c r="B68" s="5">
-        <v>123</v>
+        <v>153</v>
+      </c>
+      <c r="B68" s="8">
+        <v>153</v>
       </c>
       <c r="C68" s="8">
         <v>152</v>
@@ -1632,10 +1632,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
-        <v>200</v>
-      </c>
-      <c r="B69" s="5">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="B69" s="8">
+        <v>154</v>
       </c>
       <c r="C69" s="8">
         <v>153</v>
@@ -1652,13 +1652,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
-        <v>201</v>
-      </c>
-      <c r="B70" s="5">
-        <v>153</v>
+        <v>200</v>
+      </c>
+      <c r="B70" s="8">
+        <v>200</v>
       </c>
       <c r="C70" s="8">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8">
         <v>122</v>
@@ -1672,13 +1672,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
-        <v>202</v>
-      </c>
-      <c r="B71" s="5">
-        <v>154</v>
+        <v>201</v>
+      </c>
+      <c r="B71" s="8">
+        <v>201</v>
       </c>
       <c r="C71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8">
         <v>123</v>
@@ -1692,13 +1692,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
-        <v>203</v>
-      </c>
-      <c r="B72" s="5">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="B72" s="8">
+        <v>202</v>
       </c>
       <c r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8">
         <v>151</v>
@@ -1712,13 +1712,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
+        <v>203</v>
+      </c>
+      <c r="B73" s="8">
         <v>204</v>
       </c>
-      <c r="B73" s="5">
-        <v>201</v>
-      </c>
       <c r="C73" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8">
         <v>152</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
-        <v>210</v>
-      </c>
-      <c r="B74" s="5">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="B74" s="8">
+        <v>206</v>
       </c>
       <c r="C74" s="8">
         <v>204</v>
@@ -1752,13 +1752,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
+        <v>208</v>
+      </c>
+      <c r="B75" s="8">
         <v>211</v>
       </c>
-      <c r="B75" s="5">
-        <v>203</v>
-      </c>
       <c r="C75" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8">
         <v>154</v>
@@ -1772,10 +1772,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
+        <v>209</v>
+      </c>
+      <c r="B76" s="8">
         <v>213</v>
-      </c>
-      <c r="B76" s="5">
-        <v>204</v>
       </c>
       <c r="C76" s="8">
         <v>209</v>
@@ -1792,10 +1792,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
+        <v>213</v>
+      </c>
+      <c r="B77" s="8">
         <v>214</v>
-      </c>
-      <c r="B77" s="5">
-        <v>206</v>
       </c>
       <c r="C77" s="8">
         <v>210</v>
@@ -1812,13 +1812,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
+        <v>214</v>
+      </c>
+      <c r="B78" s="8">
         <v>215</v>
       </c>
-      <c r="B78" s="5">
-        <v>208</v>
-      </c>
       <c r="C78" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D78" s="8">
         <v>202</v>
@@ -1832,13 +1832,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
+        <v>215</v>
+      </c>
+      <c r="B79" s="8">
         <v>216</v>
       </c>
-      <c r="B79" s="5">
-        <v>210</v>
-      </c>
       <c r="C79" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D79" s="8">
         <v>203</v>
@@ -1852,13 +1852,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
+        <v>216</v>
+      </c>
+      <c r="B80" s="8">
         <v>217</v>
       </c>
-      <c r="B80" s="5">
-        <v>211</v>
-      </c>
       <c r="C80" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D80" s="8">
         <v>204</v>
@@ -1872,10 +1872,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
+        <v>217</v>
+      </c>
+      <c r="B81" s="8">
         <v>218</v>
-      </c>
-      <c r="B81" s="5">
-        <v>213</v>
       </c>
       <c r="C81" s="8">
         <v>218</v>
@@ -1892,10 +1892,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
+        <v>218</v>
+      </c>
+      <c r="B82" s="8">
         <v>219</v>
-      </c>
-      <c r="B82" s="5">
-        <v>214</v>
       </c>
       <c r="C82" s="8">
         <v>219</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
-        <v>304</v>
-      </c>
-      <c r="B83" s="5">
-        <v>215</v>
+        <v>303</v>
+      </c>
+      <c r="B83" s="8">
+        <v>303</v>
       </c>
       <c r="C83" s="8">
         <v>303</v>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
-        <v>306</v>
-      </c>
-      <c r="B84" s="5">
-        <v>218</v>
+        <v>304</v>
+      </c>
+      <c r="B84" s="8">
+        <v>304</v>
       </c>
       <c r="C84" s="8">
         <v>304</v>
@@ -1954,11 +1954,11 @@
       <c r="A85" s="8">
         <v>308</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="8">
         <v>306</v>
       </c>
       <c r="C85" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D85" s="8">
         <v>211</v>
@@ -1974,11 +1974,11 @@
       <c r="A86" s="8">
         <v>310</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="8">
         <v>308</v>
       </c>
       <c r="C86" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D86" s="8">
         <v>213</v>
@@ -1994,11 +1994,11 @@
       <c r="A87" s="8">
         <v>314</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="8">
         <v>310</v>
       </c>
       <c r="C87" s="8">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D87" s="8">
         <v>214</v>
@@ -2014,11 +2014,11 @@
       <c r="A88" s="8">
         <v>317</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="8">
         <v>314</v>
       </c>
       <c r="C88" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D88" s="8">
         <v>215</v>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
-        <v>403</v>
-      </c>
-      <c r="B89" s="5">
+        <v>321</v>
+      </c>
+      <c r="B89" s="8">
         <v>317</v>
       </c>
       <c r="C89" s="8">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D89" s="8">
         <v>216</v>
@@ -2052,13 +2052,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
-        <v>404</v>
-      </c>
-      <c r="B90" s="5">
+        <v>322</v>
+      </c>
+      <c r="B90" s="8">
+        <v>322</v>
+      </c>
+      <c r="C90" s="8">
         <v>321</v>
-      </c>
-      <c r="C90" s="8">
-        <v>403</v>
       </c>
       <c r="D90" s="8">
         <v>217</v>
@@ -2072,13 +2072,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
-        <v>405</v>
-      </c>
-      <c r="B91" s="5">
         <v>403</v>
       </c>
+      <c r="B91" s="8">
+        <v>404</v>
+      </c>
       <c r="C91" s="8">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="D91" s="8">
         <v>218</v>
@@ -2092,13 +2092,13 @@
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
-        <v>416</v>
-      </c>
-      <c r="B92" s="5">
-        <v>404</v>
+        <v>405</v>
+      </c>
+      <c r="B92" s="8">
+        <v>405</v>
       </c>
       <c r="C92" s="8">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D92" s="8">
         <v>219</v>
@@ -2111,11 +2111,11 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="6">
+      <c r="B93" s="9">
         <v>416</v>
       </c>
-      <c r="C93" s="9">
-        <v>717</v>
+      <c r="C93" s="8">
+        <v>404</v>
       </c>
       <c r="D93" s="8">
         <v>301</v>
@@ -2127,7 +2127,10 @@
         <v>301</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="9">
+        <v>717</v>
+      </c>
       <c r="D94" s="8">
         <v>302</v>
       </c>
@@ -2162,7 +2165,7 @@
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E97" s="5">
         <v>305</v>
@@ -2173,7 +2176,7 @@
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D98" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E98" s="5">
         <v>306</v>
@@ -2184,7 +2187,7 @@
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D99" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E99" s="5">
         <v>308</v>
@@ -2195,7 +2198,7 @@
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D100" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E100" s="5">
         <v>310</v>
@@ -2206,7 +2209,7 @@
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D101" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E101" s="5">
         <v>311</v>
@@ -2217,7 +2220,7 @@
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D102" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E102" s="5">
         <v>314</v>
@@ -2228,7 +2231,7 @@
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D103" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E103" s="5">
         <v>317</v>
@@ -2239,7 +2242,7 @@
     </row>
     <row r="104" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D104" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E104" s="5">
         <v>318</v>
@@ -2250,7 +2253,7 @@
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D105" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E105" s="5">
         <v>319</v>
@@ -2261,7 +2264,7 @@
     </row>
     <row r="106" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D106" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E106" s="5">
         <v>321</v>
@@ -2272,7 +2275,7 @@
     </row>
     <row r="107" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D107" s="8">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="E107" s="5">
         <v>322</v>
@@ -2283,7 +2286,7 @@
     </row>
     <row r="108" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D108" s="8">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E108" s="5">
         <v>403</v>
@@ -2294,7 +2297,7 @@
     </row>
     <row r="109" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D109" s="8">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E109" s="5">
         <v>404</v>
@@ -2305,7 +2308,7 @@
     </row>
     <row r="110" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D110" s="8">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E110" s="5">
         <v>405</v>
@@ -2316,7 +2319,7 @@
     </row>
     <row r="111" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D111" s="8">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E111" s="5">
         <v>409</v>
@@ -2327,7 +2330,7 @@
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D112" s="8">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E112" s="5">
         <v>410</v>
@@ -2338,7 +2341,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D113" s="8">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E113" s="5">
         <v>411</v>
@@ -2349,7 +2352,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D114" s="8">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E114" s="5">
         <v>412</v>
@@ -2360,7 +2363,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D115" s="8">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E115" s="5">
         <v>413</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D116" s="8">
-        <v>416</v>
+        <v>717</v>
       </c>
       <c r="E116" s="5">
         <v>416</v>
@@ -2432,7 +2435,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B122" s="5">
         <v>104</v>
@@ -2441,7 +2444,7 @@
         <v>104</v>
       </c>
       <c r="D122" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E122" s="5">
         <v>104</v>
@@ -2452,16 +2455,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B123" s="5">
+        <v>112</v>
+      </c>
+      <c r="C123" s="8">
         <v>105</v>
       </c>
-      <c r="C123" s="8">
-        <v>111</v>
-      </c>
       <c r="D123" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E123" s="5">
         <v>105</v>
@@ -2472,16 +2475,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B124" s="5">
+        <v>123</v>
+      </c>
+      <c r="C124" s="8">
+        <v>111</v>
+      </c>
+      <c r="D124" s="8">
         <v>108</v>
-      </c>
-      <c r="C124" s="8">
-        <v>112</v>
-      </c>
-      <c r="D124" s="8">
-        <v>106</v>
       </c>
       <c r="E124" s="5">
         <v>106</v>
@@ -2492,16 +2495,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B125" s="5">
+        <v>151</v>
+      </c>
+      <c r="C125" s="8">
         <v>112</v>
       </c>
-      <c r="C125" s="8">
-        <v>122</v>
-      </c>
       <c r="D125" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E125" s="5">
         <v>108</v>
@@ -2512,16 +2515,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B126" s="5">
         <v>152</v>
       </c>
       <c r="C126" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D126" s="8">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E126" s="5">
         <v>109</v>
@@ -2532,16 +2535,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="B127" s="5">
         <v>153</v>
       </c>
       <c r="C127" s="8">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D127" s="8">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E127" s="5">
         <v>111</v>
@@ -2552,16 +2555,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B128" s="5">
         <v>154</v>
       </c>
       <c r="C128" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D128" s="8">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="E128" s="5">
         <v>112</v>
@@ -2578,10 +2581,10 @@
         <v>200</v>
       </c>
       <c r="C129" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D129" s="8">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E129" s="5">
         <v>117</v>
@@ -2595,13 +2598,13 @@
         <v>200</v>
       </c>
       <c r="B130" s="5">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C130" s="8">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="D130" s="8">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="E130" s="5">
         <v>122</v>
@@ -2615,13 +2618,13 @@
         <v>201</v>
       </c>
       <c r="B131" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C131" s="8">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="D131" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E131" s="5">
         <v>123</v>
@@ -2635,13 +2638,13 @@
         <v>202</v>
       </c>
       <c r="B132" s="5">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C132" s="8">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D132" s="8">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="E132" s="5">
         <v>151</v>
@@ -2655,13 +2658,13 @@
         <v>203</v>
       </c>
       <c r="B133" s="5">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C133" s="8">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D133" s="8">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="E133" s="5">
         <v>152</v>
@@ -2675,13 +2678,13 @@
         <v>204</v>
       </c>
       <c r="B134" s="5">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C134" s="8">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D134" s="8">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="E134" s="5">
         <v>153</v>
@@ -2695,13 +2698,13 @@
         <v>206</v>
       </c>
       <c r="B135" s="5">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C135" s="8">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D135" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E135" s="5">
         <v>154</v>
@@ -2712,16 +2715,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
+        <v>208</v>
+      </c>
+      <c r="B136" s="5">
         <v>209</v>
       </c>
-      <c r="B136" s="5">
-        <v>210</v>
-      </c>
       <c r="C136" s="8">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D136" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E136" s="5">
         <v>200</v>
@@ -2732,16 +2735,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
+        <v>211</v>
+      </c>
+      <c r="B137" s="5">
         <v>210</v>
       </c>
-      <c r="B137" s="5">
-        <v>213</v>
-      </c>
       <c r="C137" s="8">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D137" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E137" s="5">
         <v>201</v>
@@ -2752,16 +2755,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
+        <v>213</v>
+      </c>
+      <c r="B138" s="5">
         <v>211</v>
       </c>
-      <c r="B138" s="5">
-        <v>214</v>
-      </c>
       <c r="C138" s="8">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D138" s="8">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E138" s="5">
         <v>202</v>
@@ -2772,16 +2775,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
+        <v>214</v>
+      </c>
+      <c r="B139" s="5">
         <v>213</v>
       </c>
-      <c r="B139" s="5">
-        <v>216</v>
-      </c>
       <c r="C139" s="8">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D139" s="8">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E139" s="5">
         <v>203</v>
@@ -2792,16 +2795,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
+        <v>215</v>
+      </c>
+      <c r="B140" s="5">
         <v>214</v>
       </c>
-      <c r="B140" s="5">
-        <v>217</v>
-      </c>
       <c r="C140" s="8">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D140" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E140" s="5">
         <v>204</v>
@@ -2812,16 +2815,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
+        <v>216</v>
+      </c>
+      <c r="B141" s="5">
         <v>215</v>
       </c>
-      <c r="B141" s="5">
-        <v>218</v>
-      </c>
       <c r="C141" s="8">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="D141" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E141" s="5">
         <v>206</v>
@@ -2832,16 +2835,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
+        <v>217</v>
+      </c>
+      <c r="B142" s="5">
         <v>216</v>
       </c>
-      <c r="B142" s="5">
+      <c r="C142" s="8">
         <v>219</v>
       </c>
-      <c r="C142" s="8">
-        <v>303</v>
-      </c>
       <c r="D142" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E142" s="5">
         <v>208</v>
@@ -2852,16 +2855,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
+        <v>218</v>
+      </c>
+      <c r="B143" s="5">
         <v>217</v>
       </c>
-      <c r="B143" s="5">
+      <c r="C143" s="8">
         <v>303</v>
       </c>
-      <c r="C143" s="8">
-        <v>304</v>
-      </c>
       <c r="D143" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E143" s="5">
         <v>209</v>
@@ -2872,16 +2875,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
+        <v>219</v>
+      </c>
+      <c r="B144" s="5">
         <v>218</v>
       </c>
-      <c r="B144" s="5">
+      <c r="C144" s="8">
         <v>304</v>
       </c>
-      <c r="C144" s="8">
-        <v>305</v>
-      </c>
       <c r="D144" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E144" s="5">
         <v>210</v>
@@ -2892,16 +2895,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="B145" s="5">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C145" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D145" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E145" s="5">
         <v>211</v>
@@ -2912,16 +2915,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
+        <v>303</v>
+      </c>
+      <c r="B146" s="5">
         <v>304</v>
-      </c>
-      <c r="B146" s="5">
-        <v>308</v>
       </c>
       <c r="C146" s="8">
         <v>308</v>
       </c>
       <c r="D146" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E146" s="5">
         <v>213</v>
@@ -2932,16 +2935,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
+        <v>304</v>
+      </c>
+      <c r="B147" s="5">
         <v>306</v>
-      </c>
-      <c r="B147" s="5">
-        <v>310</v>
       </c>
       <c r="C147" s="8">
         <v>311</v>
       </c>
       <c r="D147" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E147" s="5">
         <v>214</v>
@@ -2955,13 +2958,13 @@
         <v>308</v>
       </c>
       <c r="B148" s="5">
+        <v>308</v>
+      </c>
+      <c r="C148" s="8">
         <v>314</v>
       </c>
-      <c r="C148" s="8">
-        <v>317</v>
-      </c>
       <c r="D148" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E148" s="5">
         <v>215</v>
@@ -2972,16 +2975,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
+        <v>314</v>
+      </c>
+      <c r="B149" s="5">
         <v>310</v>
       </c>
-      <c r="B149" s="5">
+      <c r="C149" s="8">
         <v>317</v>
       </c>
-      <c r="C149" s="8">
-        <v>321</v>
-      </c>
       <c r="D149" s="8">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="E149" s="5">
         <v>216</v>
@@ -2992,16 +2995,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
+        <v>317</v>
+      </c>
+      <c r="B150" s="5">
+        <v>314</v>
+      </c>
+      <c r="C150" s="8">
         <v>321</v>
       </c>
-      <c r="B150" s="5">
-        <v>403</v>
-      </c>
-      <c r="C150" s="8">
-        <v>322</v>
-      </c>
       <c r="D150" s="8">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="E150" s="5">
         <v>217</v>
@@ -3012,16 +3015,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="B151" s="5">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="C151" s="8">
         <v>403</v>
       </c>
       <c r="D151" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E151" s="5">
         <v>218</v>
@@ -3032,16 +3035,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
+        <v>403</v>
+      </c>
+      <c r="B152" s="5">
         <v>404</v>
-      </c>
-      <c r="B152" s="5">
-        <v>409</v>
       </c>
       <c r="C152" s="8">
         <v>404</v>
       </c>
       <c r="D152" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E152" s="5">
         <v>219</v>
@@ -3051,8 +3054,8 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="6">
-        <v>405</v>
+      <c r="A153" s="5">
+        <v>404</v>
       </c>
       <c r="B153" s="6">
         <v>413</v>
@@ -3061,7 +3064,7 @@
         <v>412</v>
       </c>
       <c r="D153" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E153" s="5">
         <v>301</v>
@@ -3070,9 +3073,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="6">
+        <v>405</v>
+      </c>
       <c r="D154" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E154" s="5">
         <v>302</v>
@@ -3083,7 +3089,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D155" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E155" s="5">
         <v>303</v>
@@ -3094,7 +3100,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D156" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E156" s="5">
         <v>304</v>
@@ -3105,7 +3111,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D157" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E157" s="5">
         <v>305</v>
@@ -3116,7 +3122,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D158" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E158" s="5">
         <v>306</v>
@@ -3127,7 +3133,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D159" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E159" s="5">
         <v>308</v>
@@ -3138,7 +3144,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D160" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E160" s="5">
         <v>310</v>
@@ -3160,7 +3166,7 @@
     </row>
     <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" s="8">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E162" s="5">
         <v>314</v>
@@ -3171,7 +3177,7 @@
     </row>
     <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" s="8">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E163" s="5">
         <v>317</v>
@@ -3345,7 +3351,7 @@
         <v>108</v>
       </c>
       <c r="B182" s="8">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C182" s="8">
         <v>106</v>
@@ -3365,7 +3371,7 @@
         <v>112</v>
       </c>
       <c r="B183" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C183" s="8">
         <v>112</v>
@@ -3385,7 +3391,7 @@
         <v>122</v>
       </c>
       <c r="B184" s="8">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C184" s="8">
         <v>122</v>
@@ -3428,7 +3434,7 @@
         <v>151</v>
       </c>
       <c r="C186" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D186" s="8">
         <v>109</v>
@@ -3442,13 +3448,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
+        <v>152</v>
+      </c>
+      <c r="B187" s="8">
         <v>153</v>
       </c>
-      <c r="B187" s="8">
-        <v>152</v>
-      </c>
       <c r="C187" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D187" s="8">
         <v>112</v>
@@ -3462,13 +3468,13 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
+        <v>153</v>
+      </c>
+      <c r="B188" s="8">
         <v>154</v>
       </c>
-      <c r="B188" s="8">
-        <v>200</v>
-      </c>
       <c r="C188" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D188" s="8">
         <v>117</v>
@@ -3485,10 +3491,10 @@
         <v>200</v>
       </c>
       <c r="B189" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C189" s="8">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="D189" s="8">
         <v>122</v>
@@ -3505,10 +3511,10 @@
         <v>201</v>
       </c>
       <c r="B190" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C190" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D190" s="8">
         <v>123</v>
@@ -3525,10 +3531,10 @@
         <v>202</v>
       </c>
       <c r="B191" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C191" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D191" s="8">
         <v>151</v>
@@ -3542,13 +3548,13 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
+        <v>204</v>
+      </c>
+      <c r="B192" s="8">
         <v>203</v>
       </c>
-      <c r="B192" s="8">
-        <v>204</v>
-      </c>
       <c r="C192" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D192" s="8">
         <v>152</v>
@@ -3562,13 +3568,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B193" s="8">
         <v>206</v>
       </c>
       <c r="C193" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D193" s="8">
         <v>153</v>
@@ -3582,13 +3588,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
+        <v>208</v>
+      </c>
+      <c r="B194" s="8">
+        <v>208</v>
+      </c>
+      <c r="C194" s="8">
         <v>206</v>
-      </c>
-      <c r="B194" s="8">
-        <v>209</v>
-      </c>
-      <c r="C194" s="8">
-        <v>204</v>
       </c>
       <c r="D194" s="8">
         <v>154</v>
@@ -3602,10 +3608,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B195" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C195" s="8">
         <v>208</v>
@@ -3622,10 +3628,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B196" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C196" s="8">
         <v>209</v>
@@ -3645,10 +3651,10 @@
         <v>211</v>
       </c>
       <c r="B197" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C197" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D197" s="8">
         <v>202</v>
@@ -3662,13 +3668,13 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
+        <v>214</v>
+      </c>
+      <c r="B198" s="8">
         <v>213</v>
       </c>
-      <c r="B198" s="8">
-        <v>215</v>
-      </c>
       <c r="C198" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D198" s="8">
         <v>203</v>
@@ -3682,13 +3688,13 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B199" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C199" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D199" s="8">
         <v>204</v>
@@ -3702,7 +3708,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B200" s="8">
         <v>217</v>
@@ -3722,16 +3728,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B201" s="8">
         <v>218</v>
       </c>
       <c r="C201" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D201" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E201" s="5">
         <v>206</v>
@@ -3742,16 +3748,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B202" s="8">
+        <v>219</v>
+      </c>
+      <c r="C202" s="8">
         <v>303</v>
       </c>
-      <c r="C202" s="8">
-        <v>219</v>
-      </c>
       <c r="D202" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E202" s="5">
         <v>208</v>
@@ -3765,13 +3771,13 @@
         <v>219</v>
       </c>
       <c r="B203" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C203" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D203" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E203" s="5">
         <v>209</v>
@@ -3782,16 +3788,16 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B204" s="8">
+        <v>310</v>
+      </c>
+      <c r="C204" s="8">
         <v>306</v>
       </c>
-      <c r="C204" s="8">
-        <v>304</v>
-      </c>
       <c r="D204" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E204" s="5">
         <v>210</v>
@@ -3802,16 +3808,16 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B205" s="8">
+        <v>311</v>
+      </c>
+      <c r="C205" s="8">
         <v>308</v>
       </c>
-      <c r="C205" s="8">
-        <v>306</v>
-      </c>
       <c r="D205" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E205" s="5">
         <v>211</v>
@@ -3822,16 +3828,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B206" s="8">
+        <v>314</v>
+      </c>
+      <c r="C206" s="8">
         <v>310</v>
       </c>
-      <c r="C206" s="8">
-        <v>308</v>
-      </c>
       <c r="D206" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E206" s="5">
         <v>213</v>
@@ -3842,16 +3848,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B207" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C207" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D207" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E207" s="5">
         <v>214</v>
@@ -3862,16 +3868,16 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B208" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C208" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D208" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E208" s="5">
         <v>215</v>
@@ -3882,16 +3888,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B209" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C209" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D209" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E209" s="5">
         <v>216</v>
@@ -3902,7 +3908,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B210" s="8">
         <v>403</v>
@@ -3911,7 +3917,7 @@
         <v>318</v>
       </c>
       <c r="D210" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E210" s="5">
         <v>217</v>
@@ -3922,16 +3928,16 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B211" s="8">
         <v>404</v>
       </c>
       <c r="C211" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D211" s="8">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="E211" s="5">
         <v>218</v>
@@ -3942,7 +3948,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B212" s="8">
         <v>413</v>
@@ -3951,7 +3957,7 @@
         <v>322</v>
       </c>
       <c r="D212" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E212" s="5">
         <v>219</v>
@@ -3962,7 +3968,7 @@
     </row>
     <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="B213" s="9">
         <v>416</v>
@@ -3971,7 +3977,7 @@
         <v>403</v>
       </c>
       <c r="D213" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E213" s="5">
         <v>301</v>
@@ -3982,13 +3988,13 @@
     </row>
     <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C214" s="8">
         <v>404</v>
       </c>
       <c r="D214" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E214" s="5">
         <v>302</v>
@@ -4002,7 +4008,7 @@
         <v>410</v>
       </c>
       <c r="D215" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E215" s="5">
         <v>303</v>
@@ -4016,7 +4022,7 @@
         <v>411</v>
       </c>
       <c r="D216" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E216" s="5">
         <v>304</v>
@@ -4027,7 +4033,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D217" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E217" s="5">
         <v>305</v>
@@ -4038,7 +4044,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D218" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E218" s="5">
         <v>306</v>
@@ -4049,7 +4055,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D219" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E219" s="5">
         <v>308</v>
@@ -4060,7 +4066,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D220" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E220" s="5">
         <v>310</v>
@@ -4071,7 +4077,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D221" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E221" s="5">
         <v>311</v>
@@ -4082,7 +4088,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D222" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E222" s="5">
         <v>314</v>
@@ -4093,7 +4099,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D223" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E223" s="5">
         <v>317</v>
@@ -4104,7 +4110,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D224" s="8">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="E224" s="5">
         <v>318</v>
@@ -4115,7 +4121,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D225" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E225" s="5">
         <v>319</v>
@@ -4126,7 +4132,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D226" s="8">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E226" s="5">
         <v>321</v>
@@ -4137,7 +4143,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D227" s="8">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E227" s="5">
         <v>322</v>
@@ -4148,7 +4154,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D228" s="8">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E228" s="5">
         <v>403</v>
@@ -4285,7 +4291,7 @@
         <v>105</v>
       </c>
       <c r="B242" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C242" s="8">
         <v>105</v>
@@ -4302,10 +4308,10 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B243" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C243" s="8">
         <v>112</v>
@@ -4325,7 +4331,7 @@
         <v>112</v>
       </c>
       <c r="B244" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C244" s="8">
         <v>117</v>
@@ -4345,7 +4351,7 @@
         <v>122</v>
       </c>
       <c r="B245" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C245" s="8">
         <v>122</v>
@@ -4362,10 +4368,10 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="B246" s="8">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C246" s="8">
         <v>123</v>
@@ -4382,13 +4388,13 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
+        <v>152</v>
+      </c>
+      <c r="B247" s="8">
         <v>151</v>
       </c>
-      <c r="B247" s="8">
-        <v>152</v>
-      </c>
       <c r="C247" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D247" s="5">
         <v>111</v>
@@ -4402,13 +4408,13 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B248" s="8">
         <v>153</v>
       </c>
       <c r="C248" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D248" s="5">
         <v>112</v>
@@ -4422,13 +4428,13 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B249" s="8">
         <v>154</v>
       </c>
       <c r="C249" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D249" s="5">
         <v>117</v>
@@ -4442,13 +4448,13 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
+        <v>200</v>
+      </c>
+      <c r="B250" s="8">
+        <v>200</v>
+      </c>
+      <c r="C250" s="8">
         <v>154</v>
-      </c>
-      <c r="B250" s="8">
-        <v>201</v>
-      </c>
-      <c r="C250" s="8">
-        <v>200</v>
       </c>
       <c r="D250" s="5">
         <v>122</v>
@@ -4462,10 +4468,10 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B251" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C251" s="8">
         <v>201</v>
@@ -4482,7 +4488,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B252" s="8">
         <v>203</v>
@@ -4502,13 +4508,13 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B253" s="8">
         <v>204</v>
       </c>
       <c r="C253" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D253" s="5">
         <v>152</v>
@@ -4522,13 +4528,13 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B254" s="8">
         <v>208</v>
       </c>
       <c r="C254" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D254" s="5">
         <v>153</v>
@@ -4542,13 +4548,13 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B255" s="8">
         <v>209</v>
       </c>
       <c r="C255" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D255" s="5">
         <v>154</v>
@@ -4562,13 +4568,13 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B256" s="8">
         <v>210</v>
       </c>
       <c r="C256" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D256" s="5">
         <v>200</v>
@@ -4582,13 +4588,13 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B257" s="8">
         <v>211</v>
       </c>
       <c r="C257" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D257" s="5">
         <v>201</v>
@@ -4602,13 +4608,13 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B258" s="8">
         <v>213</v>
       </c>
       <c r="C258" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D258" s="5">
         <v>202</v>
@@ -4622,13 +4628,13 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B259" s="8">
         <v>214</v>
       </c>
       <c r="C259" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D259" s="5">
         <v>203</v>
@@ -4642,13 +4648,13 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B260" s="8">
         <v>215</v>
       </c>
       <c r="C260" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D260" s="5">
         <v>204</v>
@@ -4662,13 +4668,13 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B261" s="8">
         <v>216</v>
       </c>
       <c r="C261" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D261" s="5">
         <v>206</v>
@@ -4682,13 +4688,13 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B262" s="8">
+        <v>218</v>
+      </c>
+      <c r="C262" s="8">
         <v>217</v>
-      </c>
-      <c r="C262" s="8">
-        <v>216</v>
       </c>
       <c r="D262" s="5">
         <v>208</v>
@@ -4702,13 +4708,13 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B263" s="8">
+        <v>219</v>
+      </c>
+      <c r="C263" s="8">
         <v>218</v>
-      </c>
-      <c r="C263" s="8">
-        <v>217</v>
       </c>
       <c r="D263" s="5">
         <v>209</v>
@@ -4722,13 +4728,13 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="B264" s="8">
         <v>301</v>
       </c>
       <c r="C264" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D264" s="5">
         <v>210</v>
@@ -4742,13 +4748,13 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="B265" s="8">
         <v>303</v>
       </c>
       <c r="C265" s="8">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="D265" s="5">
         <v>211</v>
@@ -4762,13 +4768,13 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B266" s="8">
         <v>304</v>
       </c>
       <c r="C266" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D266" s="5">
         <v>213</v>
@@ -4782,13 +4788,13 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B267" s="8">
         <v>305</v>
       </c>
       <c r="C267" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D267" s="5">
         <v>214</v>
@@ -4802,13 +4808,13 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B268" s="8">
         <v>306</v>
       </c>
       <c r="C268" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D268" s="5">
         <v>215</v>
@@ -4822,7 +4828,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B269" s="8">
         <v>308</v>
@@ -4842,7 +4848,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B270" s="8">
         <v>310</v>
@@ -4862,7 +4868,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B271" s="8">
         <v>314</v>
@@ -4882,7 +4888,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B272" s="8">
         <v>317</v>
@@ -4902,10 +4908,10 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B273" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C273" s="8">
         <v>314</v>
@@ -4922,13 +4928,13 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B274" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C274" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D274" s="5">
         <v>302</v>
@@ -4942,13 +4948,13 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="B275" s="8">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="C275" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D275" s="5">
         <v>303</v>
@@ -4962,13 +4968,13 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B276" s="8">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C276" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D276" s="5">
         <v>304</v>
@@ -4982,13 +4988,13 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B277" s="8">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C277" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D277" s="5">
         <v>305</v>
@@ -5008,7 +5014,7 @@
         <v>412</v>
       </c>
       <c r="C278" s="8">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="D278" s="5">
         <v>306</v>

--- a/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB8D6F4B-5630-493B-98D9-5244EC95B404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC9E3173-B5D6-4D46-BE48-E9A31E2F0378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{401B4B1B-A7BD-436C-8D37-0842766C1DAF}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{7767D525-0072-4DD7-BB8A-9BBB304CEE36}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E74B1A9-5B8A-4FF7-9C0A-012C4AB2827A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E651C9EE-87CC-4C91-84D3-CF9F8B0C634E}">
   <dimension ref="A1:F296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -612,13 +612,13 @@
         <v>104</v>
       </c>
       <c r="B2" s="6">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="9">
         <v>104</v>
       </c>
       <c r="D2" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="6">
         <v>104</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B3" s="6">
         <v>112</v>
@@ -638,7 +638,7 @@
         <v>108</v>
       </c>
       <c r="D3" s="9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E3" s="6">
         <v>105</v>
@@ -649,16 +649,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
+        <v>122</v>
+      </c>
+      <c r="B4" s="6">
+        <v>122</v>
+      </c>
+      <c r="C4" s="9">
         <v>112</v>
       </c>
-      <c r="B4" s="6">
-        <v>151</v>
-      </c>
-      <c r="C4" s="9">
-        <v>122</v>
-      </c>
       <c r="D4" s="9">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E4" s="6">
         <v>106</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
+        <v>123</v>
+      </c>
+      <c r="B5" s="6">
+        <v>123</v>
+      </c>
+      <c r="C5" s="9">
         <v>122</v>
       </c>
-      <c r="B5" s="6">
-        <v>152</v>
-      </c>
-      <c r="C5" s="9">
-        <v>153</v>
-      </c>
       <c r="D5" s="9">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E5" s="6">
         <v>108</v>
@@ -689,16 +689,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
+        <v>151</v>
+      </c>
+      <c r="B6" s="6">
+        <v>154</v>
+      </c>
+      <c r="C6" s="9">
         <v>123</v>
       </c>
-      <c r="B6" s="6">
-        <v>153</v>
-      </c>
-      <c r="C6" s="9">
-        <v>200</v>
-      </c>
       <c r="D6" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="6">
         <v>109</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
+        <v>152</v>
+      </c>
+      <c r="B7" s="6">
+        <v>200</v>
+      </c>
+      <c r="C7" s="9">
         <v>151</v>
-      </c>
-      <c r="B7" s="6">
-        <v>154</v>
-      </c>
-      <c r="C7" s="9">
-        <v>201</v>
       </c>
       <c r="D7" s="9">
         <v>151</v>
@@ -729,13 +729,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
+        <v>154</v>
+      </c>
+      <c r="B8" s="6">
+        <v>201</v>
+      </c>
+      <c r="C8" s="9">
         <v>152</v>
-      </c>
-      <c r="B8" s="6">
-        <v>200</v>
-      </c>
-      <c r="C8" s="9">
-        <v>202</v>
       </c>
       <c r="D8" s="9">
         <v>152</v>
@@ -749,16 +749,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
+        <v>202</v>
+      </c>
+      <c r="B9" s="6">
+        <v>202</v>
+      </c>
+      <c r="C9" s="9">
+        <v>200</v>
+      </c>
+      <c r="D9" s="9">
         <v>153</v>
-      </c>
-      <c r="B9" s="6">
-        <v>201</v>
-      </c>
-      <c r="C9" s="9">
-        <v>204</v>
-      </c>
-      <c r="D9" s="9">
-        <v>154</v>
       </c>
       <c r="E9" s="6">
         <v>117</v>
@@ -772,13 +772,13 @@
         <v>203</v>
       </c>
       <c r="B10" s="6">
+        <v>203</v>
+      </c>
+      <c r="C10" s="9">
         <v>202</v>
       </c>
-      <c r="C10" s="9">
-        <v>206</v>
-      </c>
       <c r="D10" s="9">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="E10" s="6">
         <v>122</v>
@@ -792,13 +792,13 @@
         <v>204</v>
       </c>
       <c r="B11" s="6">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C11" s="9">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D11" s="9">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E11" s="6">
         <v>123</v>
@@ -812,13 +812,13 @@
         <v>206</v>
       </c>
       <c r="B12" s="6">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C12" s="9">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D12" s="9">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E12" s="6">
         <v>151</v>
@@ -829,16 +829,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
+        <v>209</v>
+      </c>
+      <c r="B13" s="6">
+        <v>210</v>
+      </c>
+      <c r="C13" s="9">
         <v>208</v>
       </c>
-      <c r="B13" s="6">
-        <v>208</v>
-      </c>
-      <c r="C13" s="9">
-        <v>210</v>
-      </c>
       <c r="D13" s="9">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E13" s="6">
         <v>152</v>
@@ -849,16 +849,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B14" s="6">
+        <v>211</v>
+      </c>
+      <c r="C14" s="9">
         <v>210</v>
       </c>
-      <c r="C14" s="9">
-        <v>211</v>
-      </c>
       <c r="D14" s="9">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E14" s="6">
         <v>153</v>
@@ -869,16 +869,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B15" s="6">
+        <v>213</v>
+      </c>
+      <c r="C15" s="9">
         <v>211</v>
       </c>
-      <c r="C15" s="9">
-        <v>213</v>
-      </c>
       <c r="D15" s="9">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E15" s="6">
         <v>154</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B16" s="6">
         <v>214</v>
@@ -898,7 +898,7 @@
         <v>214</v>
       </c>
       <c r="D16" s="9">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E16" s="6">
         <v>200</v>
@@ -909,16 +909,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" s="6">
         <v>215</v>
       </c>
       <c r="C17" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D17" s="9">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E17" s="6">
         <v>201</v>
@@ -929,16 +929,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B18" s="6">
         <v>216</v>
       </c>
       <c r="C18" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D18" s="9">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E18" s="6">
         <v>202</v>
@@ -949,16 +949,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B19" s="6">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C19" s="9">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D19" s="9">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E19" s="6">
         <v>203</v>
@@ -969,16 +969,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="B20" s="6">
         <v>219</v>
       </c>
       <c r="C20" s="9">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="D20" s="9">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E20" s="6">
         <v>204</v>
@@ -989,16 +989,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="B21" s="6">
         <v>303</v>
       </c>
       <c r="C21" s="9">
-        <v>219</v>
+        <v>306</v>
       </c>
       <c r="D21" s="9">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E21" s="6">
         <v>206</v>
@@ -1009,16 +1009,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B22" s="6">
         <v>304</v>
       </c>
       <c r="C22" s="9">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D22" s="9">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E22" s="6">
         <v>208</v>
@@ -1029,16 +1029,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B23" s="6">
         <v>306</v>
       </c>
       <c r="C23" s="9">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D23" s="9">
-        <v>301</v>
+        <v>217</v>
       </c>
       <c r="E23" s="6">
         <v>209</v>
@@ -1049,16 +1049,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B24" s="6">
         <v>308</v>
       </c>
       <c r="C24" s="9">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D24" s="9">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="E24" s="6">
         <v>210</v>
@@ -1069,16 +1069,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B25" s="6">
         <v>310</v>
       </c>
       <c r="C25" s="9">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D25" s="9">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="E25" s="6">
         <v>211</v>
@@ -1089,16 +1089,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B26" s="6">
         <v>314</v>
       </c>
       <c r="C26" s="9">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D26" s="9">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E26" s="6">
         <v>213</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B27" s="6">
         <v>317</v>
@@ -1118,7 +1118,7 @@
         <v>322</v>
       </c>
       <c r="D27" s="9">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E27" s="6">
         <v>214</v>
@@ -1129,16 +1129,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B28" s="6">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C28" s="9">
         <v>403</v>
       </c>
       <c r="D28" s="9">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E28" s="6">
         <v>215</v>
@@ -1149,16 +1149,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="B29" s="6">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="C29" s="9">
         <v>404</v>
       </c>
       <c r="D29" s="9">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E29" s="6">
         <v>216</v>
@@ -1169,16 +1169,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="B30" s="6">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C30" s="9">
         <v>405</v>
       </c>
       <c r="D30" s="9">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E30" s="6">
         <v>217</v>
@@ -1189,16 +1189,16 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B31" s="6">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C31" s="10">
         <v>416</v>
       </c>
       <c r="D31" s="9">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E31" s="6">
         <v>218</v>
@@ -1209,13 +1209,13 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
+        <v>416</v>
+      </c>
+      <c r="B32" s="6">
         <v>405</v>
       </c>
-      <c r="B32" s="6">
-        <v>412</v>
-      </c>
       <c r="D32" s="9">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E32" s="6">
         <v>219</v>
@@ -1226,10 +1226,10 @@
     </row>
     <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D33" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E33" s="6">
         <v>301</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D34" s="9">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="E34" s="6">
         <v>302</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D35" s="9">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E35" s="6">
         <v>303</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D36" s="9">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E36" s="6">
         <v>304</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D37" s="9">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E37" s="6">
         <v>305</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
+        <v>108</v>
+      </c>
+      <c r="B61" s="6">
         <v>104</v>
-      </c>
-      <c r="B61" s="6">
-        <v>112</v>
       </c>
       <c r="C61" s="9">
         <v>106</v>
@@ -1495,10 +1495,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B62" s="6">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C62" s="9">
         <v>108</v>
@@ -1515,16 +1515,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B63" s="6">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C63" s="9">
         <v>117</v>
       </c>
       <c r="D63" s="9">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="6">
         <v>106</v>
@@ -1535,16 +1535,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B64" s="6">
+        <v>122</v>
+      </c>
+      <c r="C64" s="9">
         <v>123</v>
       </c>
-      <c r="C64" s="9">
-        <v>122</v>
-      </c>
       <c r="D64" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E64" s="6">
         <v>108</v>
@@ -1555,16 +1555,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="B65" s="6">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C65" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D65" s="9">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E65" s="6">
         <v>109</v>
@@ -1575,16 +1575,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="B66" s="6">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C66" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D66" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E66" s="6">
         <v>111</v>
@@ -1595,16 +1595,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B67" s="6">
+        <v>153</v>
+      </c>
+      <c r="C67" s="9">
         <v>200</v>
       </c>
-      <c r="C67" s="9">
-        <v>153</v>
-      </c>
       <c r="D67" s="9">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E67" s="6">
         <v>112</v>
@@ -1615,16 +1615,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B68" s="6">
         <v>201</v>
       </c>
       <c r="C68" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="9">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E68" s="6">
         <v>117</v>
@@ -1635,16 +1635,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="B69" s="6">
         <v>202</v>
       </c>
       <c r="C69" s="9">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D69" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E69" s="6">
         <v>122</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="B70" s="6">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C70" s="9">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D70" s="9">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E70" s="6">
         <v>123</v>
@@ -1675,16 +1675,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B71" s="6">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C71" s="9">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D71" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E71" s="6">
         <v>151</v>
@@ -1695,16 +1695,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B72" s="6">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C72" s="9">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D72" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E72" s="6">
         <v>152</v>
@@ -1715,16 +1715,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B73" s="6">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C73" s="9">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D73" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E73" s="6">
         <v>153</v>
@@ -1735,16 +1735,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B74" s="6">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C74" s="9">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D74" s="9">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="E74" s="6">
         <v>154</v>
@@ -1755,16 +1755,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B75" s="6">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C75" s="9">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D75" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E75" s="6">
         <v>200</v>
@@ -1775,16 +1775,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B76" s="6">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C76" s="9">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D76" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E76" s="6">
         <v>201</v>
@@ -1795,16 +1795,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B77" s="6">
         <v>215</v>
       </c>
       <c r="C77" s="9">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D77" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E77" s="6">
         <v>202</v>
@@ -1815,16 +1815,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B78" s="6">
         <v>216</v>
       </c>
       <c r="C78" s="9">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D78" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E78" s="6">
         <v>203</v>
@@ -1835,16 +1835,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B79" s="6">
         <v>217</v>
       </c>
       <c r="C79" s="9">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="D79" s="9">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E79" s="6">
         <v>204</v>
@@ -1855,16 +1855,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B80" s="6">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="C80" s="9">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D80" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E80" s="6">
         <v>206</v>
@@ -1875,16 +1875,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="B81" s="6">
         <v>304</v>
       </c>
       <c r="C81" s="9">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D81" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E81" s="6">
         <v>208</v>
@@ -1895,16 +1895,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="B82" s="6">
         <v>306</v>
       </c>
       <c r="C82" s="9">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D82" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E82" s="6">
         <v>209</v>
@@ -1915,16 +1915,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="B83" s="6">
         <v>308</v>
       </c>
       <c r="C83" s="9">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D83" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E83" s="6">
         <v>210</v>
@@ -1935,16 +1935,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="B84" s="6">
         <v>310</v>
       </c>
       <c r="C84" s="9">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D84" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E84" s="6">
         <v>211</v>
@@ -1955,16 +1955,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="B85" s="6">
         <v>314</v>
       </c>
       <c r="C85" s="9">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D85" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E85" s="6">
         <v>213</v>
@@ -1975,16 +1975,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B86" s="6">
         <v>317</v>
       </c>
       <c r="C86" s="9">
-        <v>317</v>
+        <v>403</v>
       </c>
       <c r="D86" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E86" s="6">
         <v>214</v>
@@ -1995,16 +1995,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B87" s="6">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C87" s="9">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="D87" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E87" s="6">
         <v>215</v>
@@ -2018,13 +2018,13 @@
         <v>321</v>
       </c>
       <c r="B88" s="6">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="C88" s="9">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D88" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E88" s="6">
         <v>216</v>
@@ -2035,16 +2035,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="B89" s="6">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C89" s="9">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="D89" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E89" s="6">
         <v>217</v>
@@ -2055,16 +2055,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B90" s="6">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C90" s="9">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D90" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E90" s="6">
         <v>218</v>
@@ -2075,16 +2075,16 @@
     </row>
     <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B91" s="7">
         <v>416</v>
       </c>
       <c r="C91" s="10">
-        <v>416</v>
+        <v>717</v>
       </c>
       <c r="D91" s="9">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="E91" s="6">
         <v>219</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D92" s="9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E92" s="6">
         <v>301</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D93" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E93" s="6">
         <v>302</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D94" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E94" s="6">
         <v>303</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D95" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E95" s="6">
         <v>304</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D96" s="9">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E96" s="6">
         <v>305</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E97" s="6">
         <v>306</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D98" s="9">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E98" s="6">
         <v>308</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D99" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E99" s="6">
         <v>310</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D100" s="9">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E100" s="6">
         <v>311</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D101" s="9">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E101" s="6">
         <v>314</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D102" s="9">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E102" s="6">
         <v>317</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D103" s="9">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E103" s="6">
         <v>318</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="104" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D104" s="9">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E104" s="6">
         <v>319</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D105" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E105" s="6">
         <v>321</v>
@@ -2412,13 +2412,13 @@
         <v>104</v>
       </c>
       <c r="B121" s="6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C121" s="9">
         <v>105</v>
       </c>
       <c r="D121" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E121" s="6">
         <v>104</v>
@@ -2432,13 +2432,13 @@
         <v>108</v>
       </c>
       <c r="B122" s="6">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C122" s="9">
         <v>108</v>
       </c>
       <c r="D122" s="9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E122" s="6">
         <v>105</v>
@@ -2452,13 +2452,13 @@
         <v>112</v>
       </c>
       <c r="B123" s="6">
+        <v>108</v>
+      </c>
+      <c r="C123" s="9">
         <v>122</v>
       </c>
-      <c r="C123" s="9">
-        <v>111</v>
-      </c>
       <c r="D123" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E123" s="6">
         <v>106</v>
@@ -2472,13 +2472,13 @@
         <v>117</v>
       </c>
       <c r="B124" s="6">
+        <v>112</v>
+      </c>
+      <c r="C124" s="9">
         <v>123</v>
       </c>
-      <c r="C124" s="9">
-        <v>122</v>
-      </c>
       <c r="D124" s="9">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E124" s="6">
         <v>108</v>
@@ -2492,13 +2492,13 @@
         <v>122</v>
       </c>
       <c r="B125" s="6">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C125" s="9">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D125" s="9">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E125" s="6">
         <v>109</v>
@@ -2512,13 +2512,13 @@
         <v>123</v>
       </c>
       <c r="B126" s="6">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C126" s="9">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D126" s="9">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E126" s="6">
         <v>111</v>
@@ -2532,13 +2532,13 @@
         <v>151</v>
       </c>
       <c r="B127" s="6">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C127" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D127" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E127" s="6">
         <v>112</v>
@@ -2549,16 +2549,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
+        <v>152</v>
+      </c>
+      <c r="B128" s="6">
         <v>153</v>
       </c>
-      <c r="B128" s="6">
-        <v>154</v>
-      </c>
       <c r="C128" s="9">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="D128" s="9">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="E128" s="6">
         <v>117</v>
@@ -2572,10 +2572,10 @@
         <v>154</v>
       </c>
       <c r="B129" s="6">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="C129" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D129" s="9">
         <v>152</v>
@@ -2592,10 +2592,10 @@
         <v>200</v>
       </c>
       <c r="B130" s="6">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C130" s="9">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D130" s="9">
         <v>153</v>
@@ -2612,10 +2612,10 @@
         <v>201</v>
       </c>
       <c r="B131" s="6">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C131" s="9">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D131" s="9">
         <v>154</v>
@@ -2629,13 +2629,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B132" s="6">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C132" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D132" s="9">
         <v>200</v>
@@ -2649,13 +2649,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="9">
+        <v>206</v>
+      </c>
+      <c r="B133" s="6">
         <v>204</v>
       </c>
-      <c r="B133" s="6">
-        <v>208</v>
-      </c>
       <c r="C133" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D133" s="9">
         <v>201</v>
@@ -2669,10 +2669,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="9">
+        <v>210</v>
+      </c>
+      <c r="B134" s="6">
         <v>206</v>
-      </c>
-      <c r="B134" s="6">
-        <v>209</v>
       </c>
       <c r="C134" s="9">
         <v>210</v>
@@ -2689,10 +2689,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="9">
+        <v>211</v>
+      </c>
+      <c r="B135" s="6">
         <v>208</v>
-      </c>
-      <c r="B135" s="6">
-        <v>210</v>
       </c>
       <c r="C135" s="9">
         <v>211</v>
@@ -2709,16 +2709,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="9">
+        <v>213</v>
+      </c>
+      <c r="B136" s="6">
         <v>209</v>
-      </c>
-      <c r="B136" s="6">
-        <v>211</v>
       </c>
       <c r="C136" s="9">
         <v>213</v>
       </c>
       <c r="D136" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E136" s="6">
         <v>201</v>
@@ -2729,16 +2729,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="9">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B137" s="6">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C137" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D137" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E137" s="6">
         <v>202</v>
@@ -2749,16 +2749,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="9">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B138" s="6">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C138" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D138" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E138" s="6">
         <v>203</v>
@@ -2769,16 +2769,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="9">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B139" s="6">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C139" s="9">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D139" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E139" s="6">
         <v>204</v>
@@ -2789,16 +2789,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="B140" s="6">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C140" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D140" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E140" s="6">
         <v>206</v>
@@ -2809,16 +2809,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B141" s="6">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C141" s="9">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="D141" s="9">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E141" s="6">
         <v>208</v>
@@ -2829,16 +2829,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="9">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B142" s="6">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C142" s="9">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D142" s="9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E142" s="6">
         <v>209</v>
@@ -2849,16 +2849,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="9">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B143" s="6">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="C143" s="9">
         <v>306</v>
       </c>
       <c r="D143" s="9">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E143" s="6">
         <v>210</v>
@@ -2869,16 +2869,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="9">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B144" s="6">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="C144" s="9">
         <v>308</v>
       </c>
       <c r="D144" s="9">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E144" s="6">
         <v>211</v>
@@ -2889,16 +2889,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B145" s="6">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C145" s="9">
         <v>310</v>
       </c>
       <c r="D145" s="9">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E145" s="6">
         <v>213</v>
@@ -2909,16 +2909,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="9">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B146" s="6">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C146" s="9">
         <v>311</v>
       </c>
       <c r="D146" s="9">
-        <v>301</v>
+        <v>217</v>
       </c>
       <c r="E146" s="6">
         <v>214</v>
@@ -2929,16 +2929,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B147" s="6">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C147" s="9">
         <v>314</v>
       </c>
       <c r="D147" s="9">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="E147" s="6">
         <v>215</v>
@@ -2949,16 +2949,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="9">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B148" s="6">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C148" s="9">
         <v>317</v>
       </c>
       <c r="D148" s="9">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E148" s="6">
         <v>216</v>
@@ -2969,16 +2969,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="B149" s="6">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C149" s="9">
         <v>321</v>
       </c>
       <c r="D149" s="9">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E149" s="6">
         <v>217</v>
@@ -2989,16 +2989,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="9">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B150" s="6">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C150" s="9">
         <v>322</v>
       </c>
       <c r="D150" s="9">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E150" s="6">
         <v>218</v>
@@ -3007,18 +3007,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="10">
-        <v>409</v>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="9">
+        <v>404</v>
       </c>
       <c r="B151" s="6">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C151" s="9">
         <v>403</v>
       </c>
       <c r="D151" s="9">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E151" s="6">
         <v>219</v>
@@ -3028,6 +3028,9 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="10">
+        <v>409</v>
+      </c>
       <c r="B152" s="6">
         <v>403</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>404</v>
       </c>
       <c r="D152" s="9">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E152" s="6">
         <v>301</v>
@@ -3049,7 +3052,7 @@
         <v>404</v>
       </c>
       <c r="D153" s="9">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E153" s="6">
         <v>302</v>
@@ -3058,12 +3061,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="7">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="6">
         <v>405</v>
       </c>
       <c r="D154" s="9">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E154" s="6">
         <v>303</v>
@@ -3072,9 +3075,12 @@
         <v>303</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="7">
+        <v>412</v>
+      </c>
       <c r="D155" s="9">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E155" s="6">
         <v>304</v>
@@ -3085,7 +3091,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D156" s="9">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E156" s="6">
         <v>305</v>
@@ -3096,7 +3102,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D157" s="9">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E157" s="6">
         <v>306</v>
@@ -3107,7 +3113,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D158" s="9">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="E158" s="6">
         <v>308</v>
@@ -3118,7 +3124,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D159" s="9">
-        <v>405</v>
+        <v>322</v>
       </c>
       <c r="E159" s="6">
         <v>310</v>
@@ -3129,7 +3135,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D160" s="9">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E160" s="6">
         <v>311</v>
@@ -3140,7 +3146,7 @@
     </row>
     <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" s="9">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E161" s="6">
         <v>314</v>
@@ -3151,7 +3157,7 @@
     </row>
     <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" s="9">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E162" s="6">
         <v>317</v>
@@ -3162,7 +3168,7 @@
     </row>
     <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" s="9">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E163" s="6">
         <v>318</v>
@@ -3173,7 +3179,7 @@
     </row>
     <row r="164" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D164" s="10">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E164" s="6">
         <v>319</v>
@@ -3305,7 +3311,7 @@
         <v>108</v>
       </c>
       <c r="C180" s="9">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D180" s="9">
         <v>104</v>
@@ -3325,7 +3331,7 @@
         <v>111</v>
       </c>
       <c r="C181" s="9">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D181" s="9">
         <v>105</v>
@@ -3345,7 +3351,7 @@
         <v>112</v>
       </c>
       <c r="C182" s="9">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D182" s="9">
         <v>106</v>
@@ -3365,7 +3371,7 @@
         <v>122</v>
       </c>
       <c r="C183" s="9">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="D183" s="9">
         <v>108</v>
@@ -3385,7 +3391,7 @@
         <v>123</v>
       </c>
       <c r="C184" s="9">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="D184" s="9">
         <v>109</v>
@@ -3405,7 +3411,7 @@
         <v>151</v>
       </c>
       <c r="C185" s="9">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="D185" s="9">
         <v>112</v>
@@ -3422,10 +3428,10 @@
         <v>152</v>
       </c>
       <c r="B186" s="9">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="C186" s="9">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="D186" s="9">
         <v>117</v>
@@ -3439,13 +3445,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
+        <v>154</v>
+      </c>
+      <c r="B187" s="9">
+        <v>154</v>
+      </c>
+      <c r="C187" s="9">
         <v>153</v>
-      </c>
-      <c r="B187" s="9">
-        <v>202</v>
-      </c>
-      <c r="C187" s="9">
-        <v>204</v>
       </c>
       <c r="D187" s="9">
         <v>122</v>
@@ -3462,10 +3468,10 @@
         <v>200</v>
       </c>
       <c r="B188" s="9">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C188" s="9">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="D188" s="9">
         <v>123</v>
@@ -3479,13 +3485,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
+        <v>202</v>
+      </c>
+      <c r="B189" s="9">
         <v>201</v>
       </c>
-      <c r="B189" s="9">
-        <v>208</v>
-      </c>
       <c r="C189" s="9">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D189" s="9">
         <v>151</v>
@@ -3499,13 +3505,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
+        <v>204</v>
+      </c>
+      <c r="B190" s="9">
+        <v>204</v>
+      </c>
+      <c r="C190" s="9">
         <v>202</v>
-      </c>
-      <c r="B190" s="9">
-        <v>210</v>
-      </c>
-      <c r="C190" s="9">
-        <v>209</v>
       </c>
       <c r="D190" s="9">
         <v>152</v>
@@ -3519,13 +3525,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B191" s="9">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C191" s="9">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D191" s="9">
         <v>153</v>
@@ -3539,13 +3545,13 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B192" s="9">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C192" s="9">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D192" s="9">
         <v>154</v>
@@ -3559,16 +3565,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B193" s="9">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C193" s="9">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D193" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E193" s="6">
         <v>154</v>
@@ -3579,16 +3585,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B194" s="9">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C194" s="9">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D194" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E194" s="6">
         <v>200</v>
@@ -3602,13 +3608,13 @@
         <v>211</v>
       </c>
       <c r="B195" s="9">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C195" s="9">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D195" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E195" s="6">
         <v>201</v>
@@ -3622,13 +3628,13 @@
         <v>213</v>
       </c>
       <c r="B196" s="9">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C196" s="9">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D196" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E196" s="6">
         <v>202</v>
@@ -3642,13 +3648,13 @@
         <v>214</v>
       </c>
       <c r="B197" s="9">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C197" s="9">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D197" s="9">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E197" s="6">
         <v>203</v>
@@ -3662,13 +3668,13 @@
         <v>215</v>
       </c>
       <c r="B198" s="9">
-        <v>304</v>
+        <v>217</v>
       </c>
       <c r="C198" s="9">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="D198" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E198" s="6">
         <v>204</v>
@@ -3679,16 +3685,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B199" s="9">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="C199" s="9">
-        <v>304</v>
+        <v>217</v>
       </c>
       <c r="D199" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E199" s="6">
         <v>206</v>
@@ -3699,16 +3705,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B200" s="9">
-        <v>308</v>
+        <v>219</v>
       </c>
       <c r="C200" s="9">
-        <v>305</v>
+        <v>218</v>
       </c>
       <c r="D200" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E200" s="6">
         <v>208</v>
@@ -3719,16 +3725,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B201" s="9">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C201" s="9">
-        <v>306</v>
+        <v>219</v>
       </c>
       <c r="D201" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E201" s="6">
         <v>209</v>
@@ -3739,16 +3745,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="B202" s="9">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C202" s="9">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D202" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E202" s="6">
         <v>210</v>
@@ -3762,13 +3768,13 @@
         <v>303</v>
       </c>
       <c r="B203" s="9">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C203" s="9">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D203" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E203" s="6">
         <v>211</v>
@@ -3782,13 +3788,13 @@
         <v>304</v>
       </c>
       <c r="B204" s="9">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C204" s="9">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D204" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E204" s="6">
         <v>213</v>
@@ -3802,13 +3808,13 @@
         <v>306</v>
       </c>
       <c r="B205" s="9">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C205" s="9">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D205" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E205" s="6">
         <v>214</v>
@@ -3819,16 +3825,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B206" s="9">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C206" s="9">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D206" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E206" s="6">
         <v>215</v>
@@ -3839,16 +3845,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B207" s="9">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C207" s="9">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D207" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E207" s="6">
         <v>216</v>
@@ -3859,16 +3865,16 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B208" s="9">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="C208" s="9">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D208" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E208" s="6">
         <v>217</v>
@@ -3879,16 +3885,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B209" s="9">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C209" s="9">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D209" s="9">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="E209" s="6">
         <v>218</v>
@@ -3899,16 +3905,16 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B210" s="9">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C210" s="9">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D210" s="9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E210" s="6">
         <v>219</v>
@@ -3919,16 +3925,16 @@
     </row>
     <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="B211" s="10">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C211" s="9">
-        <v>403</v>
+        <v>319</v>
       </c>
       <c r="D211" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E211" s="6">
         <v>301</v>
@@ -3939,13 +3945,13 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="C212" s="9">
         <v>404</v>
       </c>
       <c r="D212" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E212" s="6">
         <v>302</v>
@@ -3956,13 +3962,13 @@
     </row>
     <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
+        <v>404</v>
+      </c>
+      <c r="C213" s="10">
         <v>411</v>
       </c>
-      <c r="C213" s="10">
-        <v>410</v>
-      </c>
       <c r="D213" s="9">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E213" s="6">
         <v>303</v>
@@ -3973,7 +3979,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D214" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E214" s="6">
         <v>304</v>
@@ -3984,7 +3990,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D215" s="9">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E215" s="6">
         <v>305</v>
@@ -3995,7 +4001,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D216" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E216" s="6">
         <v>306</v>
@@ -4006,7 +4012,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D217" s="9">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E217" s="6">
         <v>308</v>
@@ -4017,7 +4023,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D218" s="9">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E218" s="6">
         <v>310</v>
@@ -4028,7 +4034,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D219" s="9">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E219" s="6">
         <v>311</v>
@@ -4039,7 +4045,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D220" s="9">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E220" s="6">
         <v>314</v>
@@ -4339,7 +4345,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B245" s="9">
         <v>123</v>
@@ -4359,10 +4365,10 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B246" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C246" s="9">
         <v>152</v>
@@ -4382,7 +4388,7 @@
         <v>154</v>
       </c>
       <c r="B247" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C247" s="9">
         <v>153</v>
@@ -4402,7 +4408,7 @@
         <v>200</v>
       </c>
       <c r="B248" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C248" s="9">
         <v>154</v>
@@ -4422,7 +4428,7 @@
         <v>201</v>
       </c>
       <c r="B249" s="9">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="C249" s="9">
         <v>200</v>
@@ -4442,7 +4448,7 @@
         <v>202</v>
       </c>
       <c r="B250" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C250" s="9">
         <v>201</v>
@@ -4459,10 +4465,10 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B251" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C251" s="9">
         <v>202</v>
@@ -4479,10 +4485,10 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="9">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B252" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C252" s="9">
         <v>203</v>
@@ -4499,13 +4505,13 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B253" s="9">
         <v>204</v>
       </c>
       <c r="C253" s="9">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D253" s="6">
         <v>154</v>
@@ -4522,10 +4528,10 @@
         <v>209</v>
       </c>
       <c r="B254" s="9">
+        <v>206</v>
+      </c>
+      <c r="C254" s="9">
         <v>208</v>
-      </c>
-      <c r="C254" s="9">
-        <v>206</v>
       </c>
       <c r="D254" s="6">
         <v>200</v>
@@ -4542,10 +4548,10 @@
         <v>210</v>
       </c>
       <c r="B255" s="9">
+        <v>208</v>
+      </c>
+      <c r="C255" s="9">
         <v>209</v>
-      </c>
-      <c r="C255" s="9">
-        <v>208</v>
       </c>
       <c r="D255" s="6">
         <v>201</v>
@@ -4562,10 +4568,10 @@
         <v>213</v>
       </c>
       <c r="B256" s="9">
+        <v>209</v>
+      </c>
+      <c r="C256" s="9">
         <v>210</v>
-      </c>
-      <c r="C256" s="9">
-        <v>209</v>
       </c>
       <c r="D256" s="6">
         <v>202</v>
@@ -4582,10 +4588,10 @@
         <v>214</v>
       </c>
       <c r="B257" s="9">
+        <v>210</v>
+      </c>
+      <c r="C257" s="9">
         <v>211</v>
-      </c>
-      <c r="C257" s="9">
-        <v>210</v>
       </c>
       <c r="D257" s="6">
         <v>203</v>
@@ -4605,7 +4611,7 @@
         <v>213</v>
       </c>
       <c r="C258" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D258" s="6">
         <v>204</v>
@@ -4622,10 +4628,10 @@
         <v>216</v>
       </c>
       <c r="B259" s="9">
+        <v>215</v>
+      </c>
+      <c r="C259" s="9">
         <v>214</v>
-      </c>
-      <c r="C259" s="9">
-        <v>213</v>
       </c>
       <c r="D259" s="6">
         <v>206</v>
@@ -4639,13 +4645,13 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B260" s="9">
+        <v>216</v>
+      </c>
+      <c r="C260" s="9">
         <v>215</v>
-      </c>
-      <c r="C260" s="9">
-        <v>214</v>
       </c>
       <c r="D260" s="6">
         <v>208</v>
@@ -4659,13 +4665,13 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B261" s="9">
+        <v>217</v>
+      </c>
+      <c r="C261" s="9">
         <v>216</v>
-      </c>
-      <c r="C261" s="9">
-        <v>215</v>
       </c>
       <c r="D261" s="6">
         <v>209</v>
@@ -4679,13 +4685,13 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="9">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="B262" s="9">
+        <v>218</v>
+      </c>
+      <c r="C262" s="9">
         <v>217</v>
-      </c>
-      <c r="C262" s="9">
-        <v>216</v>
       </c>
       <c r="D262" s="6">
         <v>210</v>
@@ -4699,13 +4705,13 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="9">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B263" s="9">
+        <v>219</v>
+      </c>
+      <c r="C263" s="9">
         <v>218</v>
-      </c>
-      <c r="C263" s="9">
-        <v>217</v>
       </c>
       <c r="D263" s="6">
         <v>211</v>
@@ -4719,13 +4725,13 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B264" s="9">
+        <v>301</v>
+      </c>
+      <c r="C264" s="9">
         <v>219</v>
-      </c>
-      <c r="C264" s="9">
-        <v>218</v>
       </c>
       <c r="D264" s="6">
         <v>213</v>
@@ -4742,10 +4748,10 @@
         <v>306</v>
       </c>
       <c r="B265" s="9">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C265" s="9">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="D265" s="6">
         <v>214</v>
@@ -4762,10 +4768,10 @@
         <v>308</v>
       </c>
       <c r="B266" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C266" s="9">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D266" s="6">
         <v>215</v>
@@ -4782,10 +4788,10 @@
         <v>310</v>
       </c>
       <c r="B267" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C267" s="9">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D267" s="6">
         <v>216</v>
@@ -4799,13 +4805,13 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="9">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B268" s="9">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C268" s="9">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D268" s="6">
         <v>217</v>
@@ -4819,13 +4825,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="9">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B269" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C269" s="9">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D269" s="6">
         <v>218</v>
@@ -4839,13 +4845,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="9">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B270" s="9">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C270" s="9">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D270" s="6">
         <v>219</v>
@@ -4859,13 +4865,13 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B271" s="9">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C271" s="9">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D271" s="6">
         <v>301</v>
@@ -4879,13 +4885,13 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="9">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="B272" s="9">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C272" s="9">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D272" s="6">
         <v>302</v>
@@ -4899,13 +4905,13 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="9">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B273" s="9">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C273" s="9">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D273" s="6">
         <v>303</v>
@@ -4919,13 +4925,13 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="9">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B274" s="9">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C274" s="9">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D274" s="6">
         <v>304</v>
@@ -4942,7 +4948,7 @@
         <v>412</v>
       </c>
       <c r="B275" s="9">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C275" s="9">
         <v>321</v>
@@ -4962,10 +4968,10 @@
         <v>413</v>
       </c>
       <c r="B276" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C276" s="9">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="D276" s="6">
         <v>306</v>
@@ -4979,10 +4985,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B277" s="9">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="C277" s="9">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D277" s="6">
         <v>308</v>
@@ -4996,10 +5002,10 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B278" s="9">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C278" s="9">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D278" s="6">
         <v>310</v>
@@ -5013,10 +5019,10 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B279" s="9">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C279" s="9">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D279" s="6">
         <v>311</v>
@@ -5030,7 +5036,7 @@
     </row>
     <row r="280" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B280" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C280" s="9">
         <v>412</v>

--- a/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC9E3173-B5D6-4D46-BE48-E9A31E2F0378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EE2FC18-B745-45D9-8095-8B788EEB01BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{7767D525-0072-4DD7-BB8A-9BBB304CEE36}"/>
+    <workbookView xWindow="3900" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{997E7780-75C8-457C-B790-5455B4BBDC67}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E651C9EE-87CC-4C91-84D3-CF9F8B0C634E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3FA9A8-A83F-4101-B14C-6135D15DCA4F}">
   <dimension ref="A1:F296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -632,10 +632,10 @@
         <v>112</v>
       </c>
       <c r="B3" s="6">
+        <v>122</v>
+      </c>
+      <c r="C3" s="9">
         <v>112</v>
-      </c>
-      <c r="C3" s="9">
-        <v>108</v>
       </c>
       <c r="D3" s="9">
         <v>105</v>
@@ -652,10 +652,10 @@
         <v>122</v>
       </c>
       <c r="B4" s="6">
+        <v>123</v>
+      </c>
+      <c r="C4" s="9">
         <v>122</v>
-      </c>
-      <c r="C4" s="9">
-        <v>112</v>
       </c>
       <c r="D4" s="9">
         <v>108</v>
@@ -672,13 +672,13 @@
         <v>123</v>
       </c>
       <c r="B5" s="6">
+        <v>151</v>
+      </c>
+      <c r="C5" s="9">
         <v>123</v>
       </c>
-      <c r="C5" s="9">
-        <v>122</v>
-      </c>
       <c r="D5" s="9">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E5" s="6">
         <v>108</v>
@@ -692,13 +692,13 @@
         <v>151</v>
       </c>
       <c r="B6" s="6">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="9">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D6" s="9">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E6" s="6">
         <v>109</v>
@@ -709,16 +709,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
+        <v>153</v>
+      </c>
+      <c r="B7" s="6">
+        <v>154</v>
+      </c>
+      <c r="C7" s="9">
         <v>152</v>
       </c>
-      <c r="B7" s="6">
-        <v>200</v>
-      </c>
-      <c r="C7" s="9">
-        <v>151</v>
-      </c>
       <c r="D7" s="9">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E7" s="6">
         <v>111</v>
@@ -732,10 +732,10 @@
         <v>154</v>
       </c>
       <c r="B8" s="6">
+        <v>202</v>
+      </c>
+      <c r="C8" s="9">
         <v>201</v>
-      </c>
-      <c r="C8" s="9">
-        <v>152</v>
       </c>
       <c r="D8" s="9">
         <v>152</v>
@@ -749,13 +749,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B9" s="6">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C9" s="9">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D9" s="9">
         <v>153</v>
@@ -769,16 +769,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="6">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C10" s="9">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D10" s="9">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="E10" s="6">
         <v>122</v>
@@ -792,13 +792,13 @@
         <v>204</v>
       </c>
       <c r="B11" s="6">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C11" s="9">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D11" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E11" s="6">
         <v>123</v>
@@ -815,10 +815,10 @@
         <v>209</v>
       </c>
       <c r="C12" s="9">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D12" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E12" s="6">
         <v>151</v>
@@ -829,16 +829,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="6">
         <v>210</v>
       </c>
       <c r="C13" s="9">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D13" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E13" s="6">
         <v>152</v>
@@ -849,16 +849,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" s="6">
         <v>211</v>
       </c>
       <c r="C14" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D14" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E14" s="6">
         <v>153</v>
@@ -869,16 +869,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="6">
         <v>213</v>
       </c>
       <c r="C15" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D15" s="9">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E15" s="6">
         <v>154</v>
@@ -892,13 +892,13 @@
         <v>213</v>
       </c>
       <c r="B16" s="6">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C16" s="9">
         <v>214</v>
       </c>
       <c r="D16" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E16" s="6">
         <v>200</v>
@@ -912,10 +912,10 @@
         <v>214</v>
       </c>
       <c r="B17" s="6">
+        <v>216</v>
+      </c>
+      <c r="C17" s="9">
         <v>215</v>
-      </c>
-      <c r="C17" s="9">
-        <v>216</v>
       </c>
       <c r="D17" s="9">
         <v>209</v>
@@ -932,10 +932,10 @@
         <v>215</v>
       </c>
       <c r="B18" s="6">
+        <v>217</v>
+      </c>
+      <c r="C18" s="9">
         <v>216</v>
-      </c>
-      <c r="C18" s="9">
-        <v>217</v>
       </c>
       <c r="D18" s="9">
         <v>210</v>
@@ -949,13 +949,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B19" s="6">
         <v>218</v>
       </c>
       <c r="C19" s="9">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D19" s="9">
         <v>211</v>
@@ -969,16 +969,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="B20" s="6">
         <v>219</v>
       </c>
       <c r="C20" s="9">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="D20" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E20" s="6">
         <v>204</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="B21" s="6">
         <v>303</v>
       </c>
       <c r="C21" s="9">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D21" s="9">
         <v>215</v>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B22" s="6">
         <v>304</v>
       </c>
       <c r="C22" s="9">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D22" s="9">
         <v>216</v>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B23" s="6">
         <v>306</v>
       </c>
       <c r="C23" s="9">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D23" s="9">
         <v>217</v>
@@ -1055,7 +1055,7 @@
         <v>308</v>
       </c>
       <c r="C24" s="9">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D24" s="9">
         <v>218</v>
@@ -1075,7 +1075,7 @@
         <v>310</v>
       </c>
       <c r="C25" s="9">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D25" s="9">
         <v>219</v>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B26" s="6">
         <v>314</v>
       </c>
       <c r="C26" s="9">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D26" s="9">
         <v>301</v>
@@ -1112,10 +1112,10 @@
         <v>321</v>
       </c>
       <c r="B27" s="6">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C27" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D27" s="9">
         <v>303</v>
@@ -1132,13 +1132,13 @@
         <v>322</v>
       </c>
       <c r="B28" s="6">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C28" s="9">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="D28" s="9">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E28" s="6">
         <v>215</v>
@@ -1152,13 +1152,13 @@
         <v>403</v>
       </c>
       <c r="B29" s="6">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="C29" s="9">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D29" s="9">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E29" s="6">
         <v>216</v>
@@ -1172,13 +1172,13 @@
         <v>404</v>
       </c>
       <c r="B30" s="6">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C30" s="9">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D30" s="9">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E30" s="6">
         <v>217</v>
@@ -1187,18 +1187,18 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>405</v>
       </c>
       <c r="B31" s="6">
-        <v>404</v>
-      </c>
-      <c r="C31" s="10">
-        <v>416</v>
+        <v>405</v>
+      </c>
+      <c r="C31" s="9">
+        <v>405</v>
       </c>
       <c r="D31" s="9">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E31" s="6">
         <v>218</v>
@@ -1212,10 +1212,13 @@
         <v>416</v>
       </c>
       <c r="B32" s="6">
-        <v>405</v>
+        <v>412</v>
+      </c>
+      <c r="C32" s="10">
+        <v>416</v>
       </c>
       <c r="D32" s="9">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E32" s="6">
         <v>219</v>
@@ -1226,10 +1229,10 @@
     </row>
     <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D33" s="9">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E33" s="6">
         <v>301</v>
@@ -1240,7 +1243,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D34" s="9">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E34" s="6">
         <v>302</v>
@@ -1251,7 +1254,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D35" s="9">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="E35" s="6">
         <v>303</v>
@@ -1262,7 +1265,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D36" s="9">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="E36" s="6">
         <v>304</v>
@@ -1273,7 +1276,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D37" s="9">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E37" s="6">
         <v>305</v>
@@ -1284,7 +1287,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D38" s="9">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E38" s="6">
         <v>306</v>
@@ -1295,7 +1298,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D39" s="9">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E39" s="6">
         <v>308</v>
@@ -1306,7 +1309,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D40" s="9">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E40" s="6">
         <v>310</v>
@@ -1317,7 +1320,7 @@
     </row>
     <row r="41" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D41" s="10">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E41" s="6">
         <v>311</v>
@@ -1475,7 +1478,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B61" s="6">
         <v>104</v>
@@ -1495,7 +1498,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B62" s="6">
         <v>108</v>
@@ -1515,16 +1518,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B63" s="6">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C63" s="9">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D63" s="9">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E63" s="6">
         <v>106</v>
@@ -1538,13 +1541,13 @@
         <v>123</v>
       </c>
       <c r="B64" s="6">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C64" s="9">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D64" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E64" s="6">
         <v>108</v>
@@ -1558,13 +1561,13 @@
         <v>151</v>
       </c>
       <c r="B65" s="6">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" s="9">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="D65" s="9">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E65" s="6">
         <v>109</v>
@@ -1578,13 +1581,13 @@
         <v>152</v>
       </c>
       <c r="B66" s="6">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C66" s="9">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="D66" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E66" s="6">
         <v>111</v>
@@ -1598,13 +1601,13 @@
         <v>153</v>
       </c>
       <c r="B67" s="6">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C67" s="9">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="D67" s="9">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E67" s="6">
         <v>112</v>
@@ -1618,13 +1621,13 @@
         <v>154</v>
       </c>
       <c r="B68" s="6">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="C68" s="9">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="D68" s="9">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E68" s="6">
         <v>117</v>
@@ -1638,13 +1641,13 @@
         <v>200</v>
       </c>
       <c r="B69" s="6">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="C69" s="9">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="D69" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E69" s="6">
         <v>122</v>
@@ -1658,13 +1661,13 @@
         <v>201</v>
       </c>
       <c r="B70" s="6">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C70" s="9">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="D70" s="9">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="E70" s="6">
         <v>123</v>
@@ -1675,16 +1678,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B71" s="6">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C71" s="9">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D71" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E71" s="6">
         <v>151</v>
@@ -1695,16 +1698,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B72" s="6">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C72" s="9">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D72" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E72" s="6">
         <v>152</v>
@@ -1715,16 +1718,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B73" s="6">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C73" s="9">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D73" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E73" s="6">
         <v>153</v>
@@ -1735,16 +1738,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B74" s="6">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C74" s="9">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D74" s="9">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="E74" s="6">
         <v>154</v>
@@ -1755,16 +1758,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B75" s="6">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C75" s="9">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D75" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E75" s="6">
         <v>200</v>
@@ -1775,16 +1778,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B76" s="6">
         <v>213</v>
       </c>
       <c r="C76" s="9">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D76" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E76" s="6">
         <v>201</v>
@@ -1795,16 +1798,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B77" s="6">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C77" s="9">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D77" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E77" s="6">
         <v>202</v>
@@ -1815,16 +1818,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B78" s="6">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C78" s="9">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D78" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E78" s="6">
         <v>203</v>
@@ -1835,16 +1838,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B79" s="6">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C79" s="9">
-        <v>303</v>
+        <v>214</v>
       </c>
       <c r="D79" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E79" s="6">
         <v>204</v>
@@ -1855,16 +1858,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B80" s="6">
-        <v>303</v>
+        <v>217</v>
       </c>
       <c r="C80" s="9">
-        <v>306</v>
+        <v>215</v>
       </c>
       <c r="D80" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E80" s="6">
         <v>206</v>
@@ -1875,16 +1878,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
+        <v>218</v>
+      </c>
+      <c r="B81" s="6">
+        <v>218</v>
+      </c>
+      <c r="C81" s="9">
         <v>303</v>
       </c>
-      <c r="B81" s="6">
-        <v>304</v>
-      </c>
-      <c r="C81" s="9">
-        <v>308</v>
-      </c>
       <c r="D81" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E81" s="6">
         <v>208</v>
@@ -1895,16 +1898,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
+        <v>303</v>
+      </c>
+      <c r="B82" s="6">
+        <v>219</v>
+      </c>
+      <c r="C82" s="9">
         <v>304</v>
       </c>
-      <c r="B82" s="6">
-        <v>306</v>
-      </c>
-      <c r="C82" s="9">
-        <v>310</v>
-      </c>
       <c r="D82" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E82" s="6">
         <v>209</v>
@@ -1915,16 +1918,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
+        <v>304</v>
+      </c>
+      <c r="B83" s="6">
+        <v>304</v>
+      </c>
+      <c r="C83" s="9">
         <v>306</v>
       </c>
-      <c r="B83" s="6">
-        <v>308</v>
-      </c>
-      <c r="C83" s="9">
-        <v>314</v>
-      </c>
       <c r="D83" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E83" s="6">
         <v>210</v>
@@ -1935,16 +1938,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
+        <v>306</v>
+      </c>
+      <c r="B84" s="6">
+        <v>306</v>
+      </c>
+      <c r="C84" s="9">
         <v>308</v>
       </c>
-      <c r="B84" s="6">
-        <v>310</v>
-      </c>
-      <c r="C84" s="9">
-        <v>317</v>
-      </c>
       <c r="D84" s="9">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E84" s="6">
         <v>211</v>
@@ -1955,16 +1958,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B85" s="6">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C85" s="9">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D85" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E85" s="6">
         <v>213</v>
@@ -1978,13 +1981,13 @@
         <v>314</v>
       </c>
       <c r="B86" s="6">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C86" s="9">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="D86" s="9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E86" s="6">
         <v>214</v>
@@ -1995,16 +1998,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B87" s="6">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C87" s="9">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="D87" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E87" s="6">
         <v>215</v>
@@ -2015,16 +2018,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="B88" s="6">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C88" s="9">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D88" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E88" s="6">
         <v>216</v>
@@ -2035,16 +2038,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="B89" s="6">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="C89" s="9">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D89" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E89" s="6">
         <v>217</v>
@@ -2055,16 +2058,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B90" s="6">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="C90" s="9">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D90" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E90" s="6">
         <v>218</v>
@@ -2075,16 +2078,16 @@
     </row>
     <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="B91" s="7">
         <v>416</v>
       </c>
       <c r="C91" s="10">
-        <v>717</v>
+        <v>413</v>
       </c>
       <c r="D91" s="9">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="E91" s="6">
         <v>219</v>
@@ -2095,7 +2098,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D92" s="9">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E92" s="6">
         <v>301</v>
@@ -2106,7 +2109,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D93" s="9">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E93" s="6">
         <v>302</v>
@@ -2117,7 +2120,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D94" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E94" s="6">
         <v>303</v>
@@ -2128,7 +2131,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D95" s="9">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E95" s="6">
         <v>304</v>
@@ -2139,7 +2142,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D96" s="9">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E96" s="6">
         <v>305</v>
@@ -2150,7 +2153,7 @@
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97" s="9">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E97" s="6">
         <v>306</v>
@@ -2161,7 +2164,7 @@
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D98" s="9">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E98" s="6">
         <v>308</v>
@@ -2172,7 +2175,7 @@
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D99" s="9">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E99" s="6">
         <v>310</v>
@@ -2183,7 +2186,7 @@
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D100" s="9">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E100" s="6">
         <v>311</v>
@@ -2194,7 +2197,7 @@
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D101" s="9">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E101" s="6">
         <v>314</v>
@@ -2205,7 +2208,7 @@
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D102" s="9">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E102" s="6">
         <v>317</v>
@@ -2216,7 +2219,7 @@
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D103" s="9">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E103" s="6">
         <v>318</v>
@@ -2227,7 +2230,7 @@
     </row>
     <row r="104" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D104" s="9">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E104" s="6">
         <v>319</v>
@@ -2238,7 +2241,7 @@
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D105" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E105" s="6">
         <v>321</v>
@@ -2412,10 +2415,10 @@
         <v>104</v>
       </c>
       <c r="B121" s="6">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C121" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D121" s="9">
         <v>104</v>
@@ -2429,10 +2432,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="9">
+        <v>112</v>
+      </c>
+      <c r="B122" s="6">
         <v>108</v>
-      </c>
-      <c r="B122" s="6">
-        <v>106</v>
       </c>
       <c r="C122" s="9">
         <v>108</v>
@@ -2449,16 +2452,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="9">
+        <v>122</v>
+      </c>
+      <c r="B123" s="6">
         <v>112</v>
       </c>
-      <c r="B123" s="6">
-        <v>108</v>
-      </c>
       <c r="C123" s="9">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D123" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E123" s="6">
         <v>106</v>
@@ -2469,16 +2472,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="9">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="B124" s="6">
+        <v>122</v>
+      </c>
+      <c r="C124" s="9">
         <v>112</v>
       </c>
-      <c r="C124" s="9">
-        <v>123</v>
-      </c>
       <c r="D124" s="9">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E124" s="6">
         <v>108</v>
@@ -2489,16 +2492,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
+        <v>153</v>
+      </c>
+      <c r="B125" s="6">
+        <v>151</v>
+      </c>
+      <c r="C125" s="9">
         <v>122</v>
       </c>
-      <c r="B125" s="6">
-        <v>122</v>
-      </c>
-      <c r="C125" s="9">
-        <v>152</v>
-      </c>
       <c r="D125" s="9">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E125" s="6">
         <v>109</v>
@@ -2509,16 +2512,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="9">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="B126" s="6">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C126" s="9">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D126" s="9">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="E126" s="6">
         <v>111</v>
@@ -2529,16 +2532,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="B127" s="6">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C127" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D127" s="9">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E127" s="6">
         <v>112</v>
@@ -2549,16 +2552,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="B128" s="6">
+        <v>200</v>
+      </c>
+      <c r="C128" s="9">
         <v>153</v>
       </c>
-      <c r="C128" s="9">
-        <v>200</v>
-      </c>
       <c r="D128" s="9">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="E128" s="6">
         <v>117</v>
@@ -2569,16 +2572,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
+        <v>202</v>
+      </c>
+      <c r="B129" s="6">
+        <v>201</v>
+      </c>
+      <c r="C129" s="9">
         <v>154</v>
       </c>
-      <c r="B129" s="6">
+      <c r="D129" s="9">
         <v>154</v>
-      </c>
-      <c r="C129" s="9">
-        <v>202</v>
-      </c>
-      <c r="D129" s="9">
-        <v>152</v>
       </c>
       <c r="E129" s="6">
         <v>122</v>
@@ -2589,16 +2592,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
+        <v>204</v>
+      </c>
+      <c r="B130" s="6">
+        <v>202</v>
+      </c>
+      <c r="C130" s="9">
+        <v>202</v>
+      </c>
+      <c r="D130" s="9">
         <v>200</v>
-      </c>
-      <c r="B130" s="6">
-        <v>200</v>
-      </c>
-      <c r="C130" s="9">
-        <v>204</v>
-      </c>
-      <c r="D130" s="9">
-        <v>153</v>
       </c>
       <c r="E130" s="6">
         <v>123</v>
@@ -2609,16 +2612,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="9">
+        <v>206</v>
+      </c>
+      <c r="B131" s="6">
+        <v>204</v>
+      </c>
+      <c r="C131" s="9">
+        <v>203</v>
+      </c>
+      <c r="D131" s="9">
         <v>201</v>
-      </c>
-      <c r="B131" s="6">
-        <v>201</v>
-      </c>
-      <c r="C131" s="9">
-        <v>206</v>
-      </c>
-      <c r="D131" s="9">
-        <v>154</v>
       </c>
       <c r="E131" s="6">
         <v>151</v>
@@ -2629,16 +2632,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
+        <v>208</v>
+      </c>
+      <c r="B132" s="6">
+        <v>206</v>
+      </c>
+      <c r="C132" s="9">
         <v>204</v>
       </c>
-      <c r="B132" s="6">
-        <v>203</v>
-      </c>
-      <c r="C132" s="9">
-        <v>208</v>
-      </c>
       <c r="D132" s="9">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E132" s="6">
         <v>152</v>
@@ -2649,16 +2652,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="9">
+        <v>210</v>
+      </c>
+      <c r="B133" s="6">
+        <v>209</v>
+      </c>
+      <c r="C133" s="9">
         <v>206</v>
       </c>
-      <c r="B133" s="6">
-        <v>204</v>
-      </c>
-      <c r="C133" s="9">
-        <v>209</v>
-      </c>
       <c r="D133" s="9">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E133" s="6">
         <v>153</v>
@@ -2669,16 +2672,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="9">
+        <v>211</v>
+      </c>
+      <c r="B134" s="6">
         <v>210</v>
       </c>
-      <c r="B134" s="6">
-        <v>206</v>
-      </c>
       <c r="C134" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D134" s="9">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E134" s="6">
         <v>154</v>
@@ -2689,16 +2692,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="9">
+        <v>213</v>
+      </c>
+      <c r="B135" s="6">
         <v>211</v>
       </c>
-      <c r="B135" s="6">
-        <v>208</v>
-      </c>
       <c r="C135" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D135" s="9">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E135" s="6">
         <v>200</v>
@@ -2709,16 +2712,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="9">
+        <v>214</v>
+      </c>
+      <c r="B136" s="6">
         <v>213</v>
       </c>
-      <c r="B136" s="6">
-        <v>209</v>
-      </c>
       <c r="C136" s="9">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D136" s="9">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E136" s="6">
         <v>201</v>
@@ -2729,16 +2732,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="9">
+        <v>216</v>
+      </c>
+      <c r="B137" s="6">
         <v>214</v>
       </c>
-      <c r="B137" s="6">
-        <v>210</v>
-      </c>
       <c r="C137" s="9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D137" s="9">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E137" s="6">
         <v>202</v>
@@ -2749,16 +2752,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="9">
+        <v>217</v>
+      </c>
+      <c r="B138" s="6">
         <v>215</v>
       </c>
-      <c r="B138" s="6">
-        <v>211</v>
-      </c>
       <c r="C138" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D138" s="9">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E138" s="6">
         <v>203</v>
@@ -2769,16 +2772,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="9">
+        <v>218</v>
+      </c>
+      <c r="B139" s="6">
+        <v>217</v>
+      </c>
+      <c r="C139" s="9">
         <v>216</v>
       </c>
-      <c r="B139" s="6">
-        <v>213</v>
-      </c>
-      <c r="C139" s="9">
-        <v>218</v>
-      </c>
       <c r="D139" s="9">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E139" s="6">
         <v>204</v>
@@ -2792,13 +2795,13 @@
         <v>219</v>
       </c>
       <c r="B140" s="6">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C140" s="9">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D140" s="9">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E140" s="6">
         <v>206</v>
@@ -2809,16 +2812,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B141" s="6">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C141" s="9">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="D141" s="9">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E141" s="6">
         <v>208</v>
@@ -2829,16 +2832,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B142" s="6">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="C142" s="9">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="D142" s="9">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E142" s="6">
         <v>209</v>
@@ -2849,16 +2852,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="9">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B143" s="6">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="C143" s="9">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D143" s="9">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E143" s="6">
         <v>210</v>
@@ -2869,16 +2872,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="9">
+        <v>305</v>
+      </c>
+      <c r="B144" s="6">
         <v>306</v>
       </c>
-      <c r="B144" s="6">
-        <v>219</v>
-      </c>
       <c r="C144" s="9">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D144" s="9">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E144" s="6">
         <v>211</v>
@@ -2889,16 +2892,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
+        <v>306</v>
+      </c>
+      <c r="B145" s="6">
+        <v>310</v>
+      </c>
+      <c r="C145" s="9">
         <v>308</v>
       </c>
-      <c r="B145" s="6">
-        <v>303</v>
-      </c>
-      <c r="C145" s="9">
-        <v>310</v>
-      </c>
       <c r="D145" s="9">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E145" s="6">
         <v>213</v>
@@ -2909,16 +2912,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="9">
+        <v>308</v>
+      </c>
+      <c r="B146" s="6">
+        <v>311</v>
+      </c>
+      <c r="C146" s="9">
         <v>310</v>
       </c>
-      <c r="B146" s="6">
-        <v>304</v>
-      </c>
-      <c r="C146" s="9">
-        <v>311</v>
-      </c>
       <c r="D146" s="9">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E146" s="6">
         <v>214</v>
@@ -2929,16 +2932,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
+        <v>310</v>
+      </c>
+      <c r="B147" s="6">
         <v>314</v>
       </c>
-      <c r="B147" s="6">
-        <v>306</v>
-      </c>
       <c r="C147" s="9">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D147" s="9">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="E147" s="6">
         <v>215</v>
@@ -2949,16 +2952,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="9">
+        <v>314</v>
+      </c>
+      <c r="B148" s="6">
         <v>317</v>
       </c>
-      <c r="B148" s="6">
-        <v>308</v>
-      </c>
       <c r="C148" s="9">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D148" s="9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E148" s="6">
         <v>216</v>
@@ -2969,16 +2972,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B149" s="6">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C149" s="9">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D149" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E149" s="6">
         <v>217</v>
@@ -2989,16 +2992,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="9">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="B150" s="6">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C150" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D150" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E150" s="6">
         <v>218</v>
@@ -3007,18 +3010,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="9">
+    <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="10">
         <v>404</v>
       </c>
       <c r="B151" s="6">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="C151" s="9">
         <v>403</v>
       </c>
       <c r="D151" s="9">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E151" s="6">
         <v>219</v>
@@ -3028,17 +3031,14 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="10">
-        <v>409</v>
-      </c>
       <c r="B152" s="6">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C152" s="10">
         <v>404</v>
       </c>
       <c r="D152" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E152" s="6">
         <v>301</v>
@@ -3049,10 +3049,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B153" s="6">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D153" s="9">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E153" s="6">
         <v>302</v>
@@ -3061,12 +3061,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B154" s="6">
-        <v>405</v>
+    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="7">
+        <v>412</v>
       </c>
       <c r="D154" s="9">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E154" s="6">
         <v>303</v>
@@ -3075,12 +3075,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="7">
-        <v>412</v>
-      </c>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D155" s="9">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E155" s="6">
         <v>304</v>
@@ -3091,7 +3088,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D156" s="9">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E156" s="6">
         <v>305</v>
@@ -3102,7 +3099,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D157" s="9">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E157" s="6">
         <v>306</v>
@@ -3113,7 +3110,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D158" s="9">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="E158" s="6">
         <v>308</v>
@@ -3124,7 +3121,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D159" s="9">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="E159" s="6">
         <v>310</v>
@@ -3135,7 +3132,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D160" s="9">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E160" s="6">
         <v>311</v>
@@ -3146,7 +3143,7 @@
     </row>
     <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" s="9">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E161" s="6">
         <v>314</v>
@@ -3157,7 +3154,7 @@
     </row>
     <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" s="9">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E162" s="6">
         <v>317</v>
@@ -3168,7 +3165,7 @@
     </row>
     <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" s="9">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E163" s="6">
         <v>318</v>
@@ -3179,7 +3176,7 @@
     </row>
     <row r="164" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D164" s="10">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E164" s="6">
         <v>319</v>
@@ -3305,10 +3302,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B180" s="9">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C180" s="9">
         <v>106</v>
@@ -3325,13 +3322,13 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
+        <v>112</v>
+      </c>
+      <c r="B181" s="9">
+        <v>112</v>
+      </c>
+      <c r="C181" s="9">
         <v>108</v>
-      </c>
-      <c r="B181" s="9">
-        <v>111</v>
-      </c>
-      <c r="C181" s="9">
-        <v>111</v>
       </c>
       <c r="D181" s="9">
         <v>105</v>
@@ -3345,13 +3342,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B182" s="9">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C182" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D182" s="9">
         <v>106</v>
@@ -3365,16 +3362,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B183" s="9">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="C183" s="9">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D183" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E183" s="6">
         <v>108</v>
@@ -3385,16 +3382,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="B184" s="9">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="C184" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D184" s="9">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E184" s="6">
         <v>109</v>
@@ -3405,13 +3402,13 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B185" s="9">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="C185" s="9">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="D185" s="9">
         <v>112</v>
@@ -3425,10 +3422,10 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B186" s="9">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="C186" s="9">
         <v>152</v>
@@ -3445,10 +3442,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="B187" s="9">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="C187" s="9">
         <v>153</v>
@@ -3465,10 +3462,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B188" s="9">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C188" s="9">
         <v>154</v>
@@ -3488,10 +3485,10 @@
         <v>202</v>
       </c>
       <c r="B189" s="9">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C189" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D189" s="9">
         <v>151</v>
@@ -3505,13 +3502,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B190" s="9">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C190" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D190" s="9">
         <v>152</v>
@@ -3525,10 +3522,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B191" s="9">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C191" s="9">
         <v>203</v>
@@ -3545,10 +3542,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B192" s="9">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C192" s="9">
         <v>204</v>
@@ -3565,16 +3562,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B193" s="9">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C193" s="9">
         <v>206</v>
       </c>
       <c r="D193" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E193" s="6">
         <v>154</v>
@@ -3585,16 +3582,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B194" s="9">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C194" s="9">
         <v>208</v>
       </c>
       <c r="D194" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E194" s="6">
         <v>200</v>
@@ -3608,13 +3605,13 @@
         <v>211</v>
       </c>
       <c r="B195" s="9">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C195" s="9">
         <v>209</v>
       </c>
       <c r="D195" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E195" s="6">
         <v>201</v>
@@ -3625,16 +3622,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B196" s="9">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C196" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D196" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E196" s="6">
         <v>202</v>
@@ -3645,16 +3642,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B197" s="9">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C197" s="9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D197" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E197" s="6">
         <v>203</v>
@@ -3665,16 +3662,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B198" s="9">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C198" s="9">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D198" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E198" s="6">
         <v>204</v>
@@ -3688,13 +3685,13 @@
         <v>217</v>
       </c>
       <c r="B199" s="9">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="C199" s="9">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D199" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E199" s="6">
         <v>206</v>
@@ -3708,13 +3705,13 @@
         <v>218</v>
       </c>
       <c r="B200" s="9">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="C200" s="9">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D200" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E200" s="6">
         <v>208</v>
@@ -3725,16 +3722,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="B201" s="9">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C201" s="9">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D201" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E201" s="6">
         <v>209</v>
@@ -3745,16 +3742,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B202" s="9">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C202" s="9">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="D202" s="9">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E202" s="6">
         <v>210</v>
@@ -3765,16 +3762,16 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B203" s="9">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C203" s="9">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D203" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E203" s="6">
         <v>211</v>
@@ -3785,16 +3782,16 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B204" s="9">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C204" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D204" s="9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E204" s="6">
         <v>213</v>
@@ -3805,16 +3802,16 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
+        <v>308</v>
+      </c>
+      <c r="B205" s="9">
+        <v>318</v>
+      </c>
+      <c r="C205" s="9">
         <v>306</v>
       </c>
-      <c r="B205" s="9">
-        <v>310</v>
-      </c>
-      <c r="C205" s="9">
-        <v>305</v>
-      </c>
       <c r="D205" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E205" s="6">
         <v>214</v>
@@ -3825,16 +3822,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
+        <v>310</v>
+      </c>
+      <c r="B206" s="9">
+        <v>321</v>
+      </c>
+      <c r="C206" s="9">
         <v>308</v>
       </c>
-      <c r="B206" s="9">
-        <v>311</v>
-      </c>
-      <c r="C206" s="9">
-        <v>306</v>
-      </c>
       <c r="D206" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E206" s="6">
         <v>215</v>
@@ -3845,16 +3842,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B207" s="9">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C207" s="9">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D207" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E207" s="6">
         <v>216</v>
@@ -3865,16 +3862,16 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B208" s="9">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="C208" s="9">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D208" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E208" s="6">
         <v>217</v>
@@ -3885,16 +3882,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B209" s="9">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C209" s="9">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D209" s="9">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="E209" s="6">
         <v>218</v>
@@ -3905,16 +3902,16 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B210" s="9">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C210" s="9">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D210" s="9">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E210" s="6">
         <v>219</v>
@@ -3925,16 +3922,16 @@
     </row>
     <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
+        <v>322</v>
+      </c>
+      <c r="B211" s="10">
+        <v>413</v>
+      </c>
+      <c r="C211" s="9">
         <v>321</v>
       </c>
-      <c r="B211" s="10">
-        <v>411</v>
-      </c>
-      <c r="C211" s="9">
-        <v>319</v>
-      </c>
       <c r="D211" s="9">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E211" s="6">
         <v>301</v>
@@ -3945,10 +3942,10 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="C212" s="9">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D212" s="9">
         <v>304</v>
@@ -3962,13 +3959,13 @@
     </row>
     <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
+        <v>411</v>
+      </c>
+      <c r="C213" s="9">
         <v>404</v>
       </c>
-      <c r="C213" s="10">
-        <v>411</v>
-      </c>
       <c r="D213" s="9">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E213" s="6">
         <v>303</v>
@@ -3978,8 +3975,11 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C214" s="9">
+        <v>410</v>
+      </c>
       <c r="D214" s="9">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E214" s="6">
         <v>304</v>
@@ -3988,9 +3988,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C215" s="10">
+        <v>411</v>
+      </c>
       <c r="D215" s="9">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E215" s="6">
         <v>305</v>
@@ -4001,7 +4004,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D216" s="9">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E216" s="6">
         <v>306</v>
@@ -4012,7 +4015,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D217" s="9">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E217" s="6">
         <v>308</v>
@@ -4023,7 +4026,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D218" s="9">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E218" s="6">
         <v>310</v>
@@ -4034,7 +4037,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D219" s="9">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E219" s="6">
         <v>311</v>
@@ -4045,7 +4048,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D220" s="9">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E220" s="6">
         <v>314</v>
@@ -4056,7 +4059,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D221" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E221" s="6">
         <v>317</v>
@@ -4067,7 +4070,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D222" s="9">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="E222" s="6">
         <v>318</v>
@@ -4078,7 +4081,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D223" s="9">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E223" s="6">
         <v>319</v>
@@ -4089,7 +4092,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D224" s="9">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E224" s="6">
         <v>321</v>
@@ -4100,7 +4103,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D225" s="9">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E225" s="6">
         <v>322</v>
@@ -4111,7 +4114,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D226" s="9">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E226" s="6">
         <v>403</v>
@@ -4122,7 +4125,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D227" s="9">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E227" s="6">
         <v>404</v>
@@ -4133,7 +4136,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D228" s="9">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E228" s="6">
         <v>405</v>
@@ -4144,7 +4147,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D229" s="9">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E229" s="6">
         <v>409</v>
@@ -4153,9 +4156,9 @@
         <v>409</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D230" s="10">
-        <v>717</v>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D230" s="9">
+        <v>416</v>
       </c>
       <c r="E230" s="6">
         <v>410</v>
@@ -4164,7 +4167,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D231" s="10">
+        <v>717</v>
+      </c>
       <c r="E231" s="6">
         <v>411</v>
       </c>
@@ -4248,10 +4254,10 @@
         <v>105</v>
       </c>
       <c r="B240" s="9">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C240" s="9">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D240" s="6">
         <v>104</v>
@@ -4271,7 +4277,7 @@
         <v>111</v>
       </c>
       <c r="C241" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D241" s="6">
         <v>105</v>
@@ -4291,7 +4297,7 @@
         <v>112</v>
       </c>
       <c r="C242" s="9">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D242" s="6">
         <v>106</v>
@@ -4311,7 +4317,7 @@
         <v>117</v>
       </c>
       <c r="C243" s="9">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D243" s="6">
         <v>108</v>
@@ -4331,7 +4337,7 @@
         <v>122</v>
       </c>
       <c r="C244" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D244" s="6">
         <v>109</v>
@@ -4351,7 +4357,7 @@
         <v>123</v>
       </c>
       <c r="C245" s="9">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="D245" s="6">
         <v>111</v>
@@ -4365,13 +4371,13 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B246" s="9">
         <v>151</v>
       </c>
       <c r="C246" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D246" s="6">
         <v>112</v>
@@ -4391,7 +4397,7 @@
         <v>152</v>
       </c>
       <c r="C247" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D247" s="6">
         <v>117</v>
@@ -4411,7 +4417,7 @@
         <v>153</v>
       </c>
       <c r="C248" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D248" s="6">
         <v>122</v>
@@ -4431,7 +4437,7 @@
         <v>154</v>
       </c>
       <c r="C249" s="9">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="D249" s="6">
         <v>123</v>
@@ -4451,7 +4457,7 @@
         <v>200</v>
       </c>
       <c r="C250" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D250" s="6">
         <v>151</v>
@@ -4465,13 +4471,13 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B251" s="9">
+        <v>202</v>
+      </c>
+      <c r="C251" s="9">
         <v>201</v>
-      </c>
-      <c r="C251" s="9">
-        <v>202</v>
       </c>
       <c r="D251" s="6">
         <v>152</v>
@@ -4485,13 +4491,13 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B252" s="9">
+        <v>203</v>
+      </c>
+      <c r="C252" s="9">
         <v>202</v>
-      </c>
-      <c r="C252" s="9">
-        <v>203</v>
       </c>
       <c r="D252" s="6">
         <v>153</v>
@@ -4505,13 +4511,13 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B253" s="9">
         <v>204</v>
       </c>
       <c r="C253" s="9">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D253" s="6">
         <v>154</v>
@@ -4525,13 +4531,13 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B254" s="9">
         <v>206</v>
       </c>
       <c r="C254" s="9">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D254" s="6">
         <v>200</v>
@@ -4545,13 +4551,13 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B255" s="9">
         <v>208</v>
       </c>
       <c r="C255" s="9">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D255" s="6">
         <v>201</v>
@@ -4565,13 +4571,13 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="9">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B256" s="9">
         <v>209</v>
       </c>
       <c r="C256" s="9">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D256" s="6">
         <v>202</v>
@@ -4585,13 +4591,13 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B257" s="9">
         <v>210</v>
       </c>
       <c r="C257" s="9">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D257" s="6">
         <v>203</v>
@@ -4605,13 +4611,13 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B258" s="9">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C258" s="9">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D258" s="6">
         <v>204</v>
@@ -4625,13 +4631,13 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B259" s="9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C259" s="9">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D259" s="6">
         <v>206</v>
@@ -4645,13 +4651,13 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B260" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C260" s="9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D260" s="6">
         <v>208</v>
@@ -4665,13 +4671,13 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B261" s="9">
         <v>217</v>
       </c>
       <c r="C261" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D261" s="6">
         <v>209</v>
@@ -4685,13 +4691,13 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B262" s="9">
         <v>218</v>
       </c>
       <c r="C262" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D262" s="6">
         <v>210</v>
@@ -4705,13 +4711,13 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="9">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="B263" s="9">
         <v>219</v>
       </c>
       <c r="C263" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D263" s="6">
         <v>211</v>
@@ -4725,13 +4731,13 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="9">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B264" s="9">
         <v>301</v>
       </c>
       <c r="C264" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D264" s="6">
         <v>213</v>
@@ -4745,13 +4751,13 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="9">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B265" s="9">
         <v>303</v>
       </c>
       <c r="C265" s="9">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="D265" s="6">
         <v>214</v>
@@ -4765,13 +4771,13 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="9">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B266" s="9">
         <v>304</v>
       </c>
       <c r="C266" s="9">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D266" s="6">
         <v>215</v>
@@ -4785,13 +4791,13 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="9">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B267" s="9">
         <v>305</v>
       </c>
       <c r="C267" s="9">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D267" s="6">
         <v>216</v>
@@ -4805,13 +4811,13 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="9">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B268" s="9">
         <v>306</v>
       </c>
       <c r="C268" s="9">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D268" s="6">
         <v>217</v>
@@ -4825,13 +4831,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="9">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B269" s="9">
         <v>308</v>
       </c>
       <c r="C269" s="9">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D269" s="6">
         <v>218</v>
@@ -4845,13 +4851,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="9">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B270" s="9">
         <v>310</v>
       </c>
       <c r="C270" s="9">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D270" s="6">
         <v>219</v>
@@ -4865,13 +4871,13 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="9">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B271" s="9">
         <v>314</v>
       </c>
       <c r="C271" s="9">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D271" s="6">
         <v>301</v>
@@ -4885,13 +4891,13 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="9">
-        <v>403</v>
+        <v>317</v>
       </c>
       <c r="B272" s="9">
         <v>317</v>
       </c>
       <c r="C272" s="9">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D272" s="6">
         <v>302</v>
@@ -4905,13 +4911,13 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="9">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="B273" s="9">
         <v>318</v>
       </c>
       <c r="C273" s="9">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D273" s="6">
         <v>303</v>
@@ -4925,13 +4931,13 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="9">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B274" s="9">
         <v>319</v>
       </c>
       <c r="C274" s="9">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D274" s="6">
         <v>304</v>
@@ -4945,13 +4951,13 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="9">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B275" s="9">
         <v>321</v>
       </c>
       <c r="C275" s="9">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D275" s="6">
         <v>305</v>
@@ -4963,15 +4969,15 @@
         <v>305</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="10">
-        <v>413</v>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="9">
+        <v>409</v>
       </c>
       <c r="B276" s="9">
         <v>322</v>
       </c>
       <c r="C276" s="9">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="D276" s="6">
         <v>306</v>
@@ -4984,11 +4990,14 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="9">
+        <v>412</v>
+      </c>
       <c r="B277" s="9">
         <v>403</v>
       </c>
       <c r="C277" s="9">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D277" s="6">
         <v>308</v>
@@ -5000,12 +5009,15 @@
         <v>308</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="10">
+        <v>413</v>
+      </c>
       <c r="B278" s="9">
         <v>404</v>
       </c>
       <c r="C278" s="9">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D278" s="6">
         <v>310</v>
@@ -5019,10 +5031,10 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B279" s="9">
+        <v>412</v>
+      </c>
+      <c r="C279" s="9">
         <v>409</v>
-      </c>
-      <c r="C279" s="9">
-        <v>410</v>
       </c>
       <c r="D279" s="6">
         <v>311</v>
@@ -5036,7 +5048,7 @@
     </row>
     <row r="280" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B280" s="10">
-        <v>412</v>
+        <v>717</v>
       </c>
       <c r="C280" s="9">
         <v>412</v>
@@ -5051,8 +5063,8 @@
         <v>314</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C281" s="9">
+    <row r="281" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C281" s="10">
         <v>413</v>
       </c>
       <c r="D281" s="6">
@@ -5065,10 +5077,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C282" s="10">
-        <v>717</v>
-      </c>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D282" s="6">
         <v>318</v>
       </c>

--- a/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EE2FC18-B745-45D9-8095-8B788EEB01BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D063F1A1-E4B8-48F5-BBFB-4AF0BBF28D0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{997E7780-75C8-457C-B790-5455B4BBDC67}"/>
+    <workbookView xWindow="7650" yWindow="1455" windowWidth="13995" windowHeight="11505" xr2:uid="{E5F24909-3BB9-4BE8-BF14-07081227E833}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3FA9A8-A83F-4101-B14C-6135D15DCA4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660475A0-1B79-4759-9B6B-BA733CB90724}">
   <dimension ref="A1:F296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -608,14 +608,14 @@
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>104</v>
+      <c r="A2" s="6">
+        <v>108</v>
       </c>
       <c r="B2" s="6">
         <v>104</v>
       </c>
       <c r="C2" s="9">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D2" s="9">
         <v>104</v>
@@ -628,11 +628,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>112</v>
       </c>
       <c r="B3" s="6">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C3" s="9">
         <v>112</v>
@@ -648,17 +648,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>122</v>
       </c>
       <c r="B4" s="6">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="9">
         <v>122</v>
       </c>
       <c r="D4" s="9">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E4" s="6">
         <v>106</v>
@@ -668,8 +668,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>123</v>
+      <c r="A5" s="6">
+        <v>151</v>
       </c>
       <c r="B5" s="6">
         <v>151</v>
@@ -678,7 +678,7 @@
         <v>123</v>
       </c>
       <c r="D5" s="9">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E5" s="6">
         <v>108</v>
@@ -688,17 +688,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>151</v>
+      <c r="A6" s="6">
+        <v>153</v>
       </c>
       <c r="B6" s="6">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="9">
         <v>151</v>
       </c>
       <c r="D6" s="9">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E6" s="6">
         <v>109</v>
@@ -708,17 +708,17 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
+        <v>154</v>
+      </c>
+      <c r="B7" s="6">
         <v>153</v>
-      </c>
-      <c r="B7" s="6">
-        <v>154</v>
       </c>
       <c r="C7" s="9">
         <v>152</v>
       </c>
       <c r="D7" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7" s="6">
         <v>111</v>
@@ -728,17 +728,17 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
+        <v>200</v>
+      </c>
+      <c r="B8" s="6">
         <v>154</v>
       </c>
-      <c r="B8" s="6">
-        <v>202</v>
-      </c>
       <c r="C8" s="9">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="D8" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" s="6">
         <v>112</v>
@@ -748,17 +748,17 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
+        <v>201</v>
+      </c>
+      <c r="B9" s="6">
         <v>200</v>
       </c>
-      <c r="B9" s="6">
-        <v>203</v>
-      </c>
       <c r="C9" s="9">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="D9" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" s="6">
         <v>117</v>
@@ -768,17 +768,17 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>202</v>
       </c>
       <c r="B10" s="6">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C10" s="9">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D10" s="9">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="E10" s="6">
         <v>122</v>
@@ -788,17 +788,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>204</v>
+      <c r="A11" s="6">
+        <v>203</v>
       </c>
       <c r="B11" s="6">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C11" s="9">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D11" s="9">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="E11" s="6">
         <v>123</v>
@@ -808,17 +808,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>206</v>
+      <c r="A12" s="6">
+        <v>204</v>
       </c>
       <c r="B12" s="6">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C12" s="9">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D12" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E12" s="6">
         <v>151</v>
@@ -828,17 +828,17 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
+        <v>206</v>
+      </c>
+      <c r="B13" s="6">
         <v>208</v>
       </c>
-      <c r="B13" s="6">
-        <v>210</v>
-      </c>
       <c r="C13" s="9">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D13" s="9">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E13" s="6">
         <v>152</v>
@@ -848,17 +848,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
+        <v>210</v>
+      </c>
+      <c r="B14" s="6">
         <v>209</v>
       </c>
-      <c r="B14" s="6">
-        <v>211</v>
-      </c>
       <c r="C14" s="9">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D14" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E14" s="6">
         <v>153</v>
@@ -868,17 +868,17 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
+        <v>211</v>
+      </c>
+      <c r="B15" s="6">
         <v>210</v>
       </c>
-      <c r="B15" s="6">
-        <v>213</v>
-      </c>
       <c r="C15" s="9">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D15" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E15" s="6">
         <v>154</v>
@@ -888,17 +888,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
+        <v>214</v>
+      </c>
+      <c r="B16" s="6">
         <v>213</v>
       </c>
-      <c r="B16" s="6">
-        <v>215</v>
-      </c>
       <c r="C16" s="9">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D16" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E16" s="6">
         <v>200</v>
@@ -908,17 +908,17 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
+        <v>215</v>
+      </c>
+      <c r="B17" s="6">
         <v>214</v>
       </c>
-      <c r="B17" s="6">
-        <v>216</v>
-      </c>
       <c r="C17" s="9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E17" s="6">
         <v>201</v>
@@ -928,14 +928,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
+        <v>216</v>
+      </c>
+      <c r="B18" s="6">
         <v>215</v>
       </c>
-      <c r="B18" s="6">
-        <v>217</v>
-      </c>
       <c r="C18" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D18" s="9">
         <v>210</v>
@@ -948,17 +948,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
+        <v>217</v>
+      </c>
+      <c r="B19" s="6">
         <v>216</v>
-      </c>
-      <c r="B19" s="6">
-        <v>218</v>
       </c>
       <c r="C19" s="9">
         <v>217</v>
       </c>
       <c r="D19" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E19" s="6">
         <v>203</v>
@@ -968,17 +968,17 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>218</v>
       </c>
       <c r="B20" s="6">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C20" s="9">
         <v>218</v>
       </c>
       <c r="D20" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E20" s="6">
         <v>204</v>
@@ -988,14 +988,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>219</v>
       </c>
       <c r="B21" s="6">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="C21" s="9">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="D21" s="9">
         <v>215</v>
@@ -1008,14 +1008,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
+        <v>302</v>
+      </c>
+      <c r="B22" s="6">
         <v>303</v>
       </c>
-      <c r="B22" s="6">
-        <v>304</v>
-      </c>
       <c r="C22" s="9">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D22" s="9">
         <v>216</v>
@@ -1028,14 +1028,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="6">
+        <v>303</v>
+      </c>
+      <c r="B23" s="6">
         <v>304</v>
       </c>
-      <c r="B23" s="6">
-        <v>306</v>
-      </c>
       <c r="C23" s="9">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D23" s="9">
         <v>217</v>
@@ -1048,14 +1048,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>308</v>
+      <c r="A24" s="6">
+        <v>304</v>
       </c>
       <c r="B24" s="6">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C24" s="9">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D24" s="9">
         <v>218</v>
@@ -1068,14 +1068,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="6">
+        <v>308</v>
+      </c>
+      <c r="B25" s="6">
+        <v>308</v>
+      </c>
+      <c r="C25" s="9">
         <v>310</v>
-      </c>
-      <c r="B25" s="6">
-        <v>310</v>
-      </c>
-      <c r="C25" s="9">
-        <v>314</v>
       </c>
       <c r="D25" s="9">
         <v>219</v>
@@ -1088,14 +1088,14 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>317</v>
+      <c r="A26" s="6">
+        <v>314</v>
       </c>
       <c r="B26" s="6">
+        <v>310</v>
+      </c>
+      <c r="C26" s="9">
         <v>314</v>
-      </c>
-      <c r="C26" s="9">
-        <v>317</v>
       </c>
       <c r="D26" s="9">
         <v>301</v>
@@ -1108,14 +1108,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>321</v>
+      <c r="A27" s="6">
+        <v>317</v>
       </c>
       <c r="B27" s="6">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C27" s="9">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D27" s="9">
         <v>303</v>
@@ -1128,14 +1128,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>322</v>
+      <c r="A28" s="6">
+        <v>321</v>
       </c>
       <c r="B28" s="6">
         <v>322</v>
       </c>
       <c r="C28" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D28" s="9">
         <v>304</v>
@@ -1148,14 +1148,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>403</v>
+      <c r="A29" s="6">
+        <v>322</v>
       </c>
       <c r="B29" s="6">
         <v>403</v>
       </c>
       <c r="C29" s="9">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="D29" s="9">
         <v>306</v>
@@ -1168,14 +1168,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>404</v>
+      <c r="A30" s="6">
+        <v>403</v>
       </c>
       <c r="B30" s="6">
         <v>404</v>
       </c>
       <c r="C30" s="9">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D30" s="9">
         <v>308</v>
@@ -1188,17 +1188,17 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>405</v>
+      <c r="A31" s="6">
+        <v>404</v>
       </c>
       <c r="B31" s="6">
         <v>405</v>
       </c>
       <c r="C31" s="9">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D31" s="9">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E31" s="6">
         <v>218</v>
@@ -1207,18 +1207,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
-        <v>416</v>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>405</v>
       </c>
       <c r="B32" s="6">
         <v>412</v>
       </c>
-      <c r="C32" s="10">
-        <v>416</v>
+      <c r="C32" s="9">
+        <v>405</v>
       </c>
       <c r="D32" s="9">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E32" s="6">
         <v>219</v>
@@ -1227,12 +1227,18 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>416</v>
+      </c>
       <c r="B33" s="7">
         <v>416</v>
       </c>
+      <c r="C33" s="10">
+        <v>416</v>
+      </c>
       <c r="D33" s="9">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E33" s="6">
         <v>301</v>
@@ -1241,9 +1247,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" s="9">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E34" s="6">
         <v>302</v>
@@ -1252,9 +1258,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D35" s="9">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="E35" s="6">
         <v>303</v>
@@ -1263,9 +1269,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D36" s="9">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="E36" s="6">
         <v>304</v>
@@ -1274,9 +1280,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D37" s="9">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E37" s="6">
         <v>305</v>
@@ -1285,7 +1291,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D38" s="9">
         <v>409</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D39" s="9">
         <v>411</v>
       </c>
@@ -1307,7 +1313,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D40" s="9">
         <v>412</v>
       </c>
@@ -1318,9 +1324,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D41" s="10">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E41" s="6">
         <v>311</v>
@@ -1329,7 +1335,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E42" s="6">
         <v>314</v>
       </c>
@@ -1337,7 +1343,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E43" s="6">
         <v>317</v>
       </c>
@@ -1345,7 +1351,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E44" s="6">
         <v>318</v>
       </c>
@@ -1353,7 +1359,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E45" s="6">
         <v>319</v>
       </c>
@@ -1361,7 +1367,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E46" s="6">
         <v>321</v>
       </c>
@@ -1369,7 +1375,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E47" s="6">
         <v>322</v>
       </c>
@@ -1377,7 +1383,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E48" s="6">
         <v>403</v>
       </c>
@@ -1470,7 +1476,7 @@
       <c r="A60" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="5"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="5"/>
@@ -1480,8 +1486,8 @@
       <c r="A61" s="6">
         <v>104</v>
       </c>
-      <c r="B61" s="6">
-        <v>104</v>
+      <c r="B61" s="9">
+        <v>108</v>
       </c>
       <c r="C61" s="9">
         <v>106</v>
@@ -1500,8 +1506,8 @@
       <c r="A62" s="6">
         <v>106</v>
       </c>
-      <c r="B62" s="6">
-        <v>108</v>
+      <c r="B62" s="9">
+        <v>112</v>
       </c>
       <c r="C62" s="9">
         <v>108</v>
@@ -1518,10 +1524,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>112</v>
-      </c>
-      <c r="B63" s="6">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="B63" s="9">
+        <v>122</v>
       </c>
       <c r="C63" s="9">
         <v>112</v>
@@ -1538,10 +1544,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
+        <v>112</v>
+      </c>
+      <c r="B64" s="9">
         <v>123</v>
-      </c>
-      <c r="B64" s="6">
-        <v>117</v>
       </c>
       <c r="C64" s="9">
         <v>117</v>
@@ -1558,13 +1564,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
+        <v>122</v>
+      </c>
+      <c r="B65" s="9">
         <v>151</v>
       </c>
-      <c r="B65" s="6">
-        <v>122</v>
-      </c>
       <c r="C65" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D65" s="9">
         <v>109</v>
@@ -1578,13 +1584,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
+        <v>123</v>
+      </c>
+      <c r="B66" s="9">
         <v>152</v>
       </c>
-      <c r="B66" s="6">
-        <v>123</v>
-      </c>
       <c r="C66" s="9">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D66" s="9">
         <v>111</v>
@@ -1598,13 +1604,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
+        <v>151</v>
+      </c>
+      <c r="B67" s="9">
         <v>153</v>
       </c>
-      <c r="B67" s="6">
-        <v>151</v>
-      </c>
       <c r="C67" s="9">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D67" s="9">
         <v>112</v>
@@ -1618,13 +1624,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
+        <v>152</v>
+      </c>
+      <c r="B68" s="9">
         <v>154</v>
       </c>
-      <c r="B68" s="6">
-        <v>152</v>
-      </c>
       <c r="C68" s="9">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D68" s="9">
         <v>117</v>
@@ -1638,13 +1644,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
+        <v>154</v>
+      </c>
+      <c r="B69" s="9">
         <v>200</v>
       </c>
-      <c r="B69" s="6">
-        <v>153</v>
-      </c>
       <c r="C69" s="9">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="D69" s="9">
         <v>122</v>
@@ -1658,13 +1664,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
+        <v>200</v>
+      </c>
+      <c r="B70" s="9">
         <v>201</v>
       </c>
-      <c r="B70" s="6">
-        <v>200</v>
-      </c>
       <c r="C70" s="9">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="D70" s="9">
         <v>123</v>
@@ -1678,13 +1684,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
+        <v>201</v>
+      </c>
+      <c r="B71" s="9">
         <v>202</v>
       </c>
-      <c r="B71" s="6">
-        <v>201</v>
-      </c>
       <c r="C71" s="9">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D71" s="9">
         <v>151</v>
@@ -1698,13 +1704,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>204</v>
-      </c>
-      <c r="B72" s="6">
         <v>202</v>
       </c>
+      <c r="B72" s="9">
+        <v>203</v>
+      </c>
       <c r="C72" s="9">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D72" s="9">
         <v>152</v>
@@ -1718,13 +1724,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>206</v>
-      </c>
-      <c r="B73" s="6">
         <v>203</v>
       </c>
+      <c r="B73" s="9">
+        <v>204</v>
+      </c>
       <c r="C73" s="9">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D73" s="9">
         <v>153</v>
@@ -1738,13 +1744,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>208</v>
-      </c>
-      <c r="B74" s="6">
-        <v>208</v>
+        <v>204</v>
+      </c>
+      <c r="B74" s="9">
+        <v>206</v>
       </c>
       <c r="C74" s="9">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D74" s="9">
         <v>154</v>
@@ -1758,13 +1764,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>209</v>
-      </c>
-      <c r="B75" s="6">
-        <v>210</v>
+        <v>206</v>
+      </c>
+      <c r="B75" s="9">
+        <v>208</v>
       </c>
       <c r="C75" s="9">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D75" s="9">
         <v>200</v>
@@ -1778,13 +1784,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>211</v>
-      </c>
-      <c r="B76" s="6">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="B76" s="9">
+        <v>209</v>
       </c>
       <c r="C76" s="9">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D76" s="9">
         <v>201</v>
@@ -1798,13 +1804,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>213</v>
-      </c>
-      <c r="B77" s="6">
-        <v>214</v>
+        <v>211</v>
+      </c>
+      <c r="B77" s="9">
+        <v>210</v>
       </c>
       <c r="C77" s="9">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D77" s="9">
         <v>202</v>
@@ -1818,13 +1824,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>214</v>
-      </c>
-      <c r="B78" s="6">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="B78" s="9">
+        <v>211</v>
       </c>
       <c r="C78" s="9">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D78" s="9">
         <v>203</v>
@@ -1838,13 +1844,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>216</v>
-      </c>
-      <c r="B79" s="6">
-        <v>216</v>
+        <v>214</v>
+      </c>
+      <c r="B79" s="9">
+        <v>215</v>
       </c>
       <c r="C79" s="9">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D79" s="9">
         <v>204</v>
@@ -1858,13 +1864,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
+        <v>216</v>
+      </c>
+      <c r="B80" s="9">
         <v>217</v>
       </c>
-      <c r="B80" s="6">
-        <v>217</v>
-      </c>
       <c r="C80" s="9">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D80" s="9">
         <v>206</v>
@@ -1878,10 +1884,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>218</v>
-      </c>
-      <c r="B81" s="6">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="B81" s="9">
+        <v>303</v>
       </c>
       <c r="C81" s="9">
         <v>303</v>
@@ -1900,11 +1906,11 @@
       <c r="A82" s="6">
         <v>303</v>
       </c>
-      <c r="B82" s="6">
-        <v>219</v>
+      <c r="B82" s="9">
+        <v>304</v>
       </c>
       <c r="C82" s="9">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D82" s="9">
         <v>209</v>
@@ -1920,11 +1926,11 @@
       <c r="A83" s="6">
         <v>304</v>
       </c>
-      <c r="B83" s="6">
-        <v>304</v>
+      <c r="B83" s="9">
+        <v>306</v>
       </c>
       <c r="C83" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D83" s="9">
         <v>210</v>
@@ -1938,13 +1944,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>306</v>
-      </c>
-      <c r="B84" s="6">
-        <v>306</v>
+        <v>308</v>
+      </c>
+      <c r="B84" s="9">
+        <v>308</v>
       </c>
       <c r="C84" s="9">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D84" s="9">
         <v>211</v>
@@ -1958,10 +1964,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>308</v>
-      </c>
-      <c r="B85" s="6">
-        <v>308</v>
+        <v>310</v>
+      </c>
+      <c r="B85" s="9">
+        <v>310</v>
       </c>
       <c r="C85" s="9">
         <v>317</v>
@@ -1980,8 +1986,8 @@
       <c r="A86" s="6">
         <v>314</v>
       </c>
-      <c r="B86" s="6">
-        <v>310</v>
+      <c r="B86" s="9">
+        <v>314</v>
       </c>
       <c r="C86" s="9">
         <v>321</v>
@@ -1998,10 +2004,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>321</v>
-      </c>
-      <c r="B87" s="6">
-        <v>314</v>
+        <v>317</v>
+      </c>
+      <c r="B87" s="9">
+        <v>322</v>
       </c>
       <c r="C87" s="9">
         <v>322</v>
@@ -2018,10 +2024,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
+        <v>321</v>
+      </c>
+      <c r="B88" s="9">
         <v>403</v>
-      </c>
-      <c r="B88" s="6">
-        <v>317</v>
       </c>
       <c r="C88" s="9">
         <v>403</v>
@@ -2038,10 +2044,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
+        <v>403</v>
+      </c>
+      <c r="B89" s="9">
         <v>404</v>
-      </c>
-      <c r="B89" s="6">
-        <v>321</v>
       </c>
       <c r="C89" s="9">
         <v>404</v>
@@ -2058,10 +2064,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
+        <v>404</v>
+      </c>
+      <c r="B90" s="9">
         <v>405</v>
-      </c>
-      <c r="B90" s="6">
-        <v>322</v>
       </c>
       <c r="C90" s="9">
         <v>405</v>
@@ -2080,10 +2086,10 @@
       <c r="A91" s="7">
         <v>416</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="10">
         <v>416</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="9">
         <v>413</v>
       </c>
       <c r="D91" s="9">
@@ -2096,7 +2102,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="10">
+        <v>717</v>
+      </c>
       <c r="D92" s="9">
         <v>301</v>
       </c>
@@ -2252,7 +2261,7 @@
     </row>
     <row r="106" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D106" s="9">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="E106" s="6">
         <v>322</v>
@@ -2263,7 +2272,7 @@
     </row>
     <row r="107" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D107" s="9">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E107" s="6">
         <v>403</v>
@@ -2418,7 +2427,7 @@
         <v>104</v>
       </c>
       <c r="C121" s="9">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D121" s="9">
         <v>104</v>
@@ -2432,13 +2441,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="9">
+        <v>108</v>
+      </c>
+      <c r="B122" s="6">
+        <v>106</v>
+      </c>
+      <c r="C122" s="9">
         <v>112</v>
-      </c>
-      <c r="B122" s="6">
-        <v>108</v>
-      </c>
-      <c r="C122" s="9">
-        <v>108</v>
       </c>
       <c r="D122" s="9">
         <v>105</v>
@@ -2452,16 +2461,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="9">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B123" s="6">
         <v>112</v>
       </c>
       <c r="C123" s="9">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D123" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E123" s="6">
         <v>106</v>
@@ -2472,13 +2481,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="9">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B124" s="6">
         <v>122</v>
       </c>
       <c r="C124" s="9">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="D124" s="9">
         <v>112</v>
@@ -2492,13 +2501,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
+        <v>151</v>
+      </c>
+      <c r="B125" s="6">
+        <v>123</v>
+      </c>
+      <c r="C125" s="9">
         <v>153</v>
-      </c>
-      <c r="B125" s="6">
-        <v>151</v>
-      </c>
-      <c r="C125" s="9">
-        <v>122</v>
       </c>
       <c r="D125" s="9">
         <v>117</v>
@@ -2512,16 +2521,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="9">
+        <v>152</v>
+      </c>
+      <c r="B126" s="6">
+        <v>151</v>
+      </c>
+      <c r="C126" s="9">
         <v>154</v>
       </c>
-      <c r="B126" s="6">
-        <v>152</v>
-      </c>
-      <c r="C126" s="9">
-        <v>151</v>
-      </c>
       <c r="D126" s="9">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="E126" s="6">
         <v>111</v>
@@ -2532,16 +2541,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
+        <v>153</v>
+      </c>
+      <c r="B127" s="6">
+        <v>152</v>
+      </c>
+      <c r="C127" s="9">
         <v>200</v>
       </c>
-      <c r="B127" s="6">
-        <v>154</v>
-      </c>
-      <c r="C127" s="9">
-        <v>152</v>
-      </c>
       <c r="D127" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E127" s="6">
         <v>112</v>
@@ -2552,13 +2561,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
+        <v>154</v>
+      </c>
+      <c r="B128" s="6">
+        <v>153</v>
+      </c>
+      <c r="C128" s="9">
         <v>201</v>
-      </c>
-      <c r="B128" s="6">
-        <v>200</v>
-      </c>
-      <c r="C128" s="9">
-        <v>153</v>
       </c>
       <c r="D128" s="9">
         <v>153</v>
@@ -2572,13 +2581,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
+        <v>200</v>
+      </c>
+      <c r="B129" s="6">
+        <v>154</v>
+      </c>
+      <c r="C129" s="9">
         <v>202</v>
-      </c>
-      <c r="B129" s="6">
-        <v>201</v>
-      </c>
-      <c r="C129" s="9">
-        <v>154</v>
       </c>
       <c r="D129" s="9">
         <v>154</v>
@@ -2592,13 +2601,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B130" s="6">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C130" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D130" s="9">
         <v>200</v>
@@ -2612,13 +2621,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="9">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B131" s="6">
+        <v>201</v>
+      </c>
+      <c r="C131" s="9">
         <v>204</v>
-      </c>
-      <c r="C131" s="9">
-        <v>203</v>
       </c>
       <c r="D131" s="9">
         <v>201</v>
@@ -2635,10 +2644,10 @@
         <v>208</v>
       </c>
       <c r="B132" s="6">
+        <v>203</v>
+      </c>
+      <c r="C132" s="9">
         <v>206</v>
-      </c>
-      <c r="C132" s="9">
-        <v>204</v>
       </c>
       <c r="D132" s="9">
         <v>202</v>
@@ -2652,16 +2661,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B133" s="6">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C133" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D133" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E133" s="6">
         <v>153</v>
@@ -2675,13 +2684,13 @@
         <v>211</v>
       </c>
       <c r="B134" s="6">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C134" s="9">
         <v>209</v>
       </c>
       <c r="D134" s="9">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E134" s="6">
         <v>154</v>
@@ -2695,13 +2704,13 @@
         <v>213</v>
       </c>
       <c r="B135" s="6">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C135" s="9">
         <v>210</v>
       </c>
       <c r="D135" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E135" s="6">
         <v>200</v>
@@ -2712,16 +2721,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B136" s="6">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C136" s="9">
         <v>211</v>
       </c>
       <c r="D136" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E136" s="6">
         <v>201</v>
@@ -2732,16 +2741,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B137" s="6">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C137" s="9">
         <v>213</v>
       </c>
       <c r="D137" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E137" s="6">
         <v>202</v>
@@ -2752,16 +2761,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B138" s="6">
         <v>215</v>
       </c>
       <c r="C138" s="9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D138" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E138" s="6">
         <v>203</v>
@@ -2772,16 +2781,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B139" s="6">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C139" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D139" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E139" s="6">
         <v>204</v>
@@ -2792,16 +2801,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="B140" s="6">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C140" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D140" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E140" s="6">
         <v>206</v>
@@ -2812,16 +2821,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B141" s="6">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C141" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D141" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E141" s="6">
         <v>208</v>
@@ -2832,16 +2841,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B142" s="6">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="C142" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D142" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E142" s="6">
         <v>209</v>
@@ -2852,16 +2861,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B143" s="6">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C143" s="9">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="D143" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E143" s="6">
         <v>210</v>
@@ -2872,16 +2881,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="9">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B144" s="6">
         <v>306</v>
       </c>
       <c r="C144" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D144" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E144" s="6">
         <v>211</v>
@@ -2892,16 +2901,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
+        <v>308</v>
+      </c>
+      <c r="B145" s="6">
+        <v>308</v>
+      </c>
+      <c r="C145" s="9">
         <v>306</v>
       </c>
-      <c r="B145" s="6">
-        <v>310</v>
-      </c>
-      <c r="C145" s="9">
-        <v>308</v>
-      </c>
       <c r="D145" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E145" s="6">
         <v>213</v>
@@ -2912,16 +2921,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="9">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B146" s="6">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C146" s="9">
         <v>310</v>
       </c>
       <c r="D146" s="9">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="E146" s="6">
         <v>214</v>
@@ -2932,16 +2941,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B147" s="6">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C147" s="9">
         <v>311</v>
       </c>
       <c r="D147" s="9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E147" s="6">
         <v>215</v>
@@ -2952,16 +2961,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="9">
+        <v>317</v>
+      </c>
+      <c r="B148" s="6">
         <v>314</v>
       </c>
-      <c r="B148" s="6">
+      <c r="C148" s="9">
         <v>317</v>
       </c>
-      <c r="C148" s="9">
-        <v>314</v>
-      </c>
       <c r="D148" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E148" s="6">
         <v>216</v>
@@ -2972,16 +2981,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
+        <v>321</v>
+      </c>
+      <c r="B149" s="6">
         <v>317</v>
       </c>
-      <c r="B149" s="6">
+      <c r="C149" s="9">
         <v>321</v>
       </c>
-      <c r="C149" s="9">
-        <v>317</v>
-      </c>
       <c r="D149" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E149" s="6">
         <v>217</v>
@@ -2992,16 +3001,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="9">
+        <v>322</v>
+      </c>
+      <c r="B150" s="6">
         <v>321</v>
       </c>
-      <c r="B150" s="6">
-        <v>322</v>
-      </c>
       <c r="C150" s="9">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="D150" s="9">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E150" s="6">
         <v>218</v>
@@ -3017,11 +3026,11 @@
       <c r="B151" s="6">
         <v>403</v>
       </c>
-      <c r="C151" s="9">
-        <v>403</v>
+      <c r="C151" s="10">
+        <v>404</v>
       </c>
       <c r="D151" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E151" s="6">
         <v>219</v>
@@ -3030,15 +3039,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="6">
         <v>404</v>
       </c>
-      <c r="C152" s="10">
-        <v>404</v>
-      </c>
       <c r="D152" s="9">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E152" s="6">
         <v>301</v>
@@ -3052,7 +3058,7 @@
         <v>405</v>
       </c>
       <c r="D153" s="9">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E153" s="6">
         <v>302</v>
@@ -3066,7 +3072,7 @@
         <v>412</v>
       </c>
       <c r="D154" s="9">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E154" s="6">
         <v>303</v>
@@ -3110,7 +3116,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D158" s="9">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E158" s="6">
         <v>308</v>
@@ -3121,7 +3127,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D159" s="9">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E159" s="6">
         <v>310</v>
@@ -3132,7 +3138,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D160" s="9">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E160" s="6">
         <v>311</v>
@@ -3143,7 +3149,7 @@
     </row>
     <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" s="9">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E161" s="6">
         <v>314</v>
@@ -3302,13 +3308,13 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
+        <v>104</v>
+      </c>
+      <c r="B180" s="9">
         <v>108</v>
       </c>
-      <c r="B180" s="9">
+      <c r="C180" s="9">
         <v>111</v>
-      </c>
-      <c r="C180" s="9">
-        <v>106</v>
       </c>
       <c r="D180" s="9">
         <v>104</v>
@@ -3322,13 +3328,13 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
+        <v>106</v>
+      </c>
+      <c r="B181" s="9">
+        <v>111</v>
+      </c>
+      <c r="C181" s="9">
         <v>112</v>
-      </c>
-      <c r="B181" s="9">
-        <v>112</v>
-      </c>
-      <c r="C181" s="9">
-        <v>108</v>
       </c>
       <c r="D181" s="9">
         <v>105</v>
@@ -3342,13 +3348,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
+        <v>108</v>
+      </c>
+      <c r="B182" s="9">
         <v>122</v>
       </c>
-      <c r="B182" s="9">
-        <v>152</v>
-      </c>
       <c r="C182" s="9">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D182" s="9">
         <v>106</v>
@@ -3362,16 +3368,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
+        <v>112</v>
+      </c>
+      <c r="B183" s="9">
         <v>123</v>
       </c>
-      <c r="B183" s="9">
-        <v>154</v>
-      </c>
       <c r="C183" s="9">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D183" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E183" s="6">
         <v>108</v>
@@ -3382,16 +3388,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
+        <v>122</v>
+      </c>
+      <c r="B184" s="9">
         <v>151</v>
       </c>
-      <c r="B184" s="9">
-        <v>200</v>
-      </c>
       <c r="C184" s="9">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="D184" s="9">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E184" s="6">
         <v>109</v>
@@ -3402,13 +3408,13 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
+        <v>123</v>
+      </c>
+      <c r="B185" s="9">
+        <v>152</v>
+      </c>
+      <c r="C185" s="9">
         <v>153</v>
-      </c>
-      <c r="B185" s="9">
-        <v>201</v>
-      </c>
-      <c r="C185" s="9">
-        <v>123</v>
       </c>
       <c r="D185" s="9">
         <v>112</v>
@@ -3422,13 +3428,13 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
+        <v>151</v>
+      </c>
+      <c r="B186" s="9">
+        <v>153</v>
+      </c>
+      <c r="C186" s="9">
         <v>154</v>
-      </c>
-      <c r="B186" s="9">
-        <v>202</v>
-      </c>
-      <c r="C186" s="9">
-        <v>152</v>
       </c>
       <c r="D186" s="9">
         <v>117</v>
@@ -3442,13 +3448,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
+        <v>152</v>
+      </c>
+      <c r="B187" s="9">
+        <v>154</v>
+      </c>
+      <c r="C187" s="9">
         <v>200</v>
-      </c>
-      <c r="B187" s="9">
-        <v>204</v>
-      </c>
-      <c r="C187" s="9">
-        <v>153</v>
       </c>
       <c r="D187" s="9">
         <v>122</v>
@@ -3462,13 +3468,13 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
+        <v>153</v>
+      </c>
+      <c r="B188" s="9">
         <v>201</v>
       </c>
-      <c r="B188" s="9">
-        <v>206</v>
-      </c>
       <c r="C188" s="9">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="D188" s="9">
         <v>123</v>
@@ -3482,13 +3488,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
+        <v>154</v>
+      </c>
+      <c r="B189" s="9">
         <v>202</v>
       </c>
-      <c r="B189" s="9">
-        <v>209</v>
-      </c>
       <c r="C189" s="9">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D189" s="9">
         <v>151</v>
@@ -3502,13 +3508,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
+        <v>200</v>
+      </c>
+      <c r="B190" s="9">
         <v>203</v>
       </c>
-      <c r="B190" s="9">
-        <v>210</v>
-      </c>
       <c r="C190" s="9">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D190" s="9">
         <v>152</v>
@@ -3522,13 +3528,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
+        <v>201</v>
+      </c>
+      <c r="B191" s="9">
         <v>204</v>
       </c>
-      <c r="B191" s="9">
-        <v>211</v>
-      </c>
       <c r="C191" s="9">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D191" s="9">
         <v>153</v>
@@ -3542,16 +3548,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B192" s="9">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C192" s="9">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D192" s="9">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="E192" s="6">
         <v>153</v>
@@ -3565,13 +3571,13 @@
         <v>208</v>
       </c>
       <c r="B193" s="9">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C193" s="9">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D193" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E193" s="6">
         <v>154</v>
@@ -3582,16 +3588,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B194" s="9">
         <v>215</v>
       </c>
       <c r="C194" s="9">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D194" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E194" s="6">
         <v>200</v>
@@ -3602,16 +3608,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B195" s="9">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C195" s="9">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D195" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E195" s="6">
         <v>201</v>
@@ -3625,13 +3631,13 @@
         <v>214</v>
       </c>
       <c r="B196" s="9">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C196" s="9">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D196" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E196" s="6">
         <v>202</v>
@@ -3645,13 +3651,13 @@
         <v>215</v>
       </c>
       <c r="B197" s="9">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="C197" s="9">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D197" s="9">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E197" s="6">
         <v>203</v>
@@ -3662,16 +3668,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
+        <v>217</v>
+      </c>
+      <c r="B198" s="9">
+        <v>304</v>
+      </c>
+      <c r="C198" s="9">
         <v>216</v>
       </c>
-      <c r="B198" s="9">
-        <v>219</v>
-      </c>
-      <c r="C198" s="9">
-        <v>214</v>
-      </c>
       <c r="D198" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E198" s="6">
         <v>204</v>
@@ -3682,16 +3688,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B199" s="9">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C199" s="9">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D199" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E199" s="6">
         <v>206</v>
@@ -3702,16 +3708,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B200" s="9">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C200" s="9">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D200" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E200" s="6">
         <v>208</v>
@@ -3725,13 +3731,13 @@
         <v>302</v>
       </c>
       <c r="B201" s="9">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C201" s="9">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="D201" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E201" s="6">
         <v>209</v>
@@ -3745,13 +3751,13 @@
         <v>303</v>
       </c>
       <c r="B202" s="9">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C202" s="9">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="D202" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E202" s="6">
         <v>210</v>
@@ -3765,13 +3771,13 @@
         <v>304</v>
       </c>
       <c r="B203" s="9">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C203" s="9">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D203" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E203" s="6">
         <v>211</v>
@@ -3785,13 +3791,13 @@
         <v>306</v>
       </c>
       <c r="B204" s="9">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C204" s="9">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D204" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E204" s="6">
         <v>213</v>
@@ -3802,16 +3808,16 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
+        <v>310</v>
+      </c>
+      <c r="B205" s="9">
+        <v>322</v>
+      </c>
+      <c r="C205" s="9">
         <v>308</v>
       </c>
-      <c r="B205" s="9">
-        <v>318</v>
-      </c>
-      <c r="C205" s="9">
-        <v>306</v>
-      </c>
       <c r="D205" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E205" s="6">
         <v>214</v>
@@ -3822,16 +3828,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
+        <v>314</v>
+      </c>
+      <c r="B206" s="9">
+        <v>403</v>
+      </c>
+      <c r="C206" s="9">
         <v>310</v>
       </c>
-      <c r="B206" s="9">
-        <v>321</v>
-      </c>
-      <c r="C206" s="9">
-        <v>308</v>
-      </c>
       <c r="D206" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E206" s="6">
         <v>215</v>
@@ -3842,16 +3848,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B207" s="9">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="C207" s="9">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D207" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E207" s="6">
         <v>216</v>
@@ -3862,16 +3868,16 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B208" s="9">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C208" s="9">
         <v>317</v>
       </c>
       <c r="D208" s="9">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="E208" s="6">
         <v>217</v>
@@ -3882,16 +3888,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B209" s="9">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C209" s="9">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D209" s="9">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="E209" s="6">
         <v>218</v>
@@ -3900,18 +3906,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6">
-        <v>321</v>
-      </c>
-      <c r="B210" s="9">
-        <v>411</v>
+        <v>403</v>
+      </c>
+      <c r="B210" s="10">
+        <v>416</v>
       </c>
       <c r="C210" s="9">
-        <v>319</v>
+        <v>403</v>
       </c>
       <c r="D210" s="9">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E210" s="6">
         <v>219</v>
@@ -3920,18 +3926,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
-        <v>322</v>
-      </c>
-      <c r="B211" s="10">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C211" s="9">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="D211" s="9">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E211" s="6">
         <v>301</v>
@@ -3942,13 +3945,13 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C212" s="9">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D212" s="9">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E212" s="6">
         <v>302</v>
@@ -3959,13 +3962,13 @@
     </row>
     <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
-        <v>411</v>
-      </c>
-      <c r="C213" s="9">
-        <v>404</v>
+        <v>717</v>
+      </c>
+      <c r="C213" s="10">
+        <v>413</v>
       </c>
       <c r="D213" s="9">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E213" s="6">
         <v>303</v>
@@ -3975,11 +3978,8 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C214" s="9">
-        <v>410</v>
-      </c>
       <c r="D214" s="9">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E214" s="6">
         <v>304</v>
@@ -3988,12 +3988,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C215" s="10">
-        <v>411</v>
-      </c>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D215" s="9">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E215" s="6">
         <v>305</v>
@@ -4004,7 +4001,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D216" s="9">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E216" s="6">
         <v>306</v>
@@ -4015,7 +4012,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D217" s="9">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E217" s="6">
         <v>308</v>
@@ -4026,7 +4023,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D218" s="9">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E218" s="6">
         <v>310</v>
@@ -4037,7 +4034,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D219" s="9">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E219" s="6">
         <v>311</v>
@@ -4048,7 +4045,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D220" s="9">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E220" s="6">
         <v>314</v>
@@ -4059,7 +4056,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D221" s="9">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="E221" s="6">
         <v>317</v>
@@ -4070,7 +4067,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D222" s="9">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="E222" s="6">
         <v>318</v>
@@ -4081,7 +4078,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D223" s="9">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E223" s="6">
         <v>319</v>
@@ -4092,7 +4089,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D224" s="9">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="E224" s="6">
         <v>321</v>
@@ -4103,7 +4100,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D225" s="9">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E225" s="6">
         <v>322</v>
@@ -4114,7 +4111,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D226" s="9">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E226" s="6">
         <v>403</v>
@@ -4125,7 +4122,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D227" s="9">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E227" s="6">
         <v>404</v>
@@ -4136,7 +4133,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D228" s="9">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E228" s="6">
         <v>405</v>
@@ -4145,9 +4142,9 @@
         <v>405</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D229" s="9">
-        <v>413</v>
+    <row r="229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D229" s="10">
+        <v>717</v>
       </c>
       <c r="E229" s="6">
         <v>409</v>
@@ -4157,9 +4154,6 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D230" s="9">
-        <v>416</v>
-      </c>
       <c r="E230" s="6">
         <v>410</v>
       </c>
@@ -4167,10 +4161,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D231" s="10">
-        <v>717</v>
-      </c>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E231" s="6">
         <v>411</v>
       </c>
@@ -4230,7 +4221,7 @@
       <c r="F238" s="3"/>
     </row>
     <row r="239" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="13" t="s">
+      <c r="A239" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B239" s="13" t="s">
@@ -4250,14 +4241,14 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="9">
+      <c r="A240" s="6">
         <v>105</v>
       </c>
       <c r="B240" s="9">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C240" s="9">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D240" s="6">
         <v>104</v>
@@ -4270,14 +4261,14 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="9">
+      <c r="A241" s="6">
         <v>106</v>
       </c>
       <c r="B241" s="9">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C241" s="9">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D241" s="6">
         <v>105</v>
@@ -4290,14 +4281,14 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="9">
+      <c r="A242" s="6">
         <v>112</v>
       </c>
       <c r="B242" s="9">
         <v>112</v>
       </c>
       <c r="C242" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D242" s="6">
         <v>106</v>
@@ -4310,14 +4301,14 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="9">
+      <c r="A243" s="6">
         <v>122</v>
       </c>
       <c r="B243" s="9">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C243" s="9">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D243" s="6">
         <v>108</v>
@@ -4330,14 +4321,14 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="9">
+      <c r="A244" s="6">
         <v>123</v>
       </c>
       <c r="B244" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C244" s="9">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D244" s="6">
         <v>109</v>
@@ -4350,14 +4341,14 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="9">
+      <c r="A245" s="6">
         <v>151</v>
       </c>
       <c r="B245" s="9">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C245" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D245" s="6">
         <v>111</v>
@@ -4370,14 +4361,14 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="9">
+      <c r="A246" s="6">
+        <v>152</v>
+      </c>
+      <c r="B246" s="9">
         <v>153</v>
       </c>
-      <c r="B246" s="9">
-        <v>151</v>
-      </c>
       <c r="C246" s="9">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="D246" s="6">
         <v>112</v>
@@ -4390,14 +4381,14 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="9">
+      <c r="A247" s="6">
+        <v>153</v>
+      </c>
+      <c r="B247" s="9">
         <v>154</v>
       </c>
-      <c r="B247" s="9">
-        <v>152</v>
-      </c>
       <c r="C247" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D247" s="6">
         <v>117</v>
@@ -4410,14 +4401,14 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="9">
+      <c r="A248" s="6">
+        <v>154</v>
+      </c>
+      <c r="B248" s="9">
         <v>200</v>
       </c>
-      <c r="B248" s="9">
-        <v>153</v>
-      </c>
       <c r="C248" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D248" s="6">
         <v>122</v>
@@ -4430,14 +4421,14 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="9">
+      <c r="A249" s="6">
+        <v>200</v>
+      </c>
+      <c r="B249" s="9">
         <v>201</v>
       </c>
-      <c r="B249" s="9">
-        <v>154</v>
-      </c>
       <c r="C249" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D249" s="6">
         <v>123</v>
@@ -4450,14 +4441,14 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="9">
+      <c r="A250" s="6">
+        <v>201</v>
+      </c>
+      <c r="B250" s="9">
         <v>202</v>
       </c>
-      <c r="B250" s="9">
-        <v>200</v>
-      </c>
       <c r="C250" s="9">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="D250" s="6">
         <v>151</v>
@@ -4470,14 +4461,14 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="9">
+      <c r="A251" s="6">
+        <v>202</v>
+      </c>
+      <c r="B251" s="9">
         <v>203</v>
       </c>
-      <c r="B251" s="9">
-        <v>202</v>
-      </c>
       <c r="C251" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D251" s="6">
         <v>152</v>
@@ -4490,14 +4481,14 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="9">
+      <c r="A252" s="6">
+        <v>203</v>
+      </c>
+      <c r="B252" s="9">
         <v>204</v>
       </c>
-      <c r="B252" s="9">
-        <v>203</v>
-      </c>
       <c r="C252" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D252" s="6">
         <v>153</v>
@@ -4510,14 +4501,14 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="9">
+      <c r="A253" s="6">
+        <v>204</v>
+      </c>
+      <c r="B253" s="9">
         <v>206</v>
       </c>
-      <c r="B253" s="9">
-        <v>204</v>
-      </c>
       <c r="C253" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D253" s="6">
         <v>154</v>
@@ -4530,14 +4521,14 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="9">
+      <c r="A254" s="6">
+        <v>206</v>
+      </c>
+      <c r="B254" s="9">
         <v>208</v>
       </c>
-      <c r="B254" s="9">
-        <v>206</v>
-      </c>
       <c r="C254" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D254" s="6">
         <v>200</v>
@@ -4550,14 +4541,14 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="9">
+      <c r="A255" s="6">
         <v>209</v>
       </c>
       <c r="B255" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C255" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D255" s="6">
         <v>201</v>
@@ -4570,14 +4561,14 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="9">
+      <c r="A256" s="6">
         <v>210</v>
       </c>
       <c r="B256" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C256" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D256" s="6">
         <v>202</v>
@@ -4590,14 +4581,14 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="9">
+      <c r="A257" s="6">
         <v>213</v>
       </c>
       <c r="B257" s="9">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C257" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D257" s="6">
         <v>203</v>
@@ -4610,14 +4601,14 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="9">
-        <v>214</v>
+      <c r="A258" s="6">
+        <v>215</v>
       </c>
       <c r="B258" s="9">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C258" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D258" s="6">
         <v>204</v>
@@ -4630,14 +4621,14 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="9">
-        <v>215</v>
+      <c r="A259" s="6">
+        <v>216</v>
       </c>
       <c r="B259" s="9">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C259" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D259" s="6">
         <v>206</v>
@@ -4650,14 +4641,14 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="9">
-        <v>216</v>
+      <c r="A260" s="6">
+        <v>217</v>
       </c>
       <c r="B260" s="9">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C260" s="9">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D260" s="6">
         <v>208</v>
@@ -4670,14 +4661,14 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="9">
-        <v>217</v>
+      <c r="A261" s="6">
+        <v>219</v>
       </c>
       <c r="B261" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C261" s="9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D261" s="6">
         <v>209</v>
@@ -4690,14 +4681,14 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="9">
-        <v>218</v>
+      <c r="A262" s="6">
+        <v>301</v>
       </c>
       <c r="B262" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C262" s="9">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D262" s="6">
         <v>210</v>
@@ -4710,14 +4701,14 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="9">
-        <v>219</v>
+      <c r="A263" s="6">
+        <v>303</v>
       </c>
       <c r="B263" s="9">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="C263" s="9">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D263" s="6">
         <v>211</v>
@@ -4730,14 +4721,14 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="9">
-        <v>301</v>
+      <c r="A264" s="6">
+        <v>304</v>
       </c>
       <c r="B264" s="9">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C264" s="9">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D264" s="6">
         <v>213</v>
@@ -4750,14 +4741,14 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="9">
-        <v>303</v>
+      <c r="A265" s="6">
+        <v>305</v>
       </c>
       <c r="B265" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C265" s="9">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D265" s="6">
         <v>214</v>
@@ -4770,14 +4761,14 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="9">
-        <v>304</v>
+      <c r="A266" s="6">
+        <v>306</v>
       </c>
       <c r="B266" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C266" s="9">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="D266" s="6">
         <v>215</v>
@@ -4790,14 +4781,14 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="9">
-        <v>305</v>
+      <c r="A267" s="6">
+        <v>308</v>
       </c>
       <c r="B267" s="9">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C267" s="9">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D267" s="6">
         <v>216</v>
@@ -4810,14 +4801,14 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="9">
-        <v>306</v>
+      <c r="A268" s="6">
+        <v>310</v>
       </c>
       <c r="B268" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C268" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D268" s="6">
         <v>217</v>
@@ -4830,14 +4821,14 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="9">
+      <c r="A269" s="6">
+        <v>311</v>
+      </c>
+      <c r="B269" s="9">
         <v>310</v>
       </c>
-      <c r="B269" s="9">
-        <v>308</v>
-      </c>
       <c r="C269" s="9">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D269" s="6">
         <v>218</v>
@@ -4850,14 +4841,14 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="9">
+      <c r="A270" s="6">
+        <v>314</v>
+      </c>
+      <c r="B270" s="9">
         <v>311</v>
       </c>
-      <c r="B270" s="9">
-        <v>310</v>
-      </c>
       <c r="C270" s="9">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D270" s="6">
         <v>219</v>
@@ -4870,14 +4861,14 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="9">
-        <v>314</v>
+      <c r="A271" s="6">
+        <v>317</v>
       </c>
       <c r="B271" s="9">
         <v>314</v>
       </c>
       <c r="C271" s="9">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D271" s="6">
         <v>301</v>
@@ -4890,14 +4881,14 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="9">
-        <v>317</v>
+      <c r="A272" s="6">
+        <v>321</v>
       </c>
       <c r="B272" s="9">
         <v>317</v>
       </c>
       <c r="C272" s="9">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D272" s="6">
         <v>302</v>
@@ -4910,8 +4901,8 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="9">
-        <v>321</v>
+      <c r="A273" s="6">
+        <v>322</v>
       </c>
       <c r="B273" s="9">
         <v>318</v>
@@ -4930,7 +4921,7 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="9">
+      <c r="A274" s="6">
         <v>403</v>
       </c>
       <c r="B274" s="9">
@@ -4950,7 +4941,7 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="9">
+      <c r="A275" s="6">
         <v>404</v>
       </c>
       <c r="B275" s="9">
@@ -4970,14 +4961,14 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="9">
+      <c r="A276" s="6">
         <v>409</v>
       </c>
       <c r="B276" s="9">
         <v>322</v>
       </c>
       <c r="C276" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D276" s="6">
         <v>306</v>
@@ -4990,14 +4981,14 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="9">
-        <v>412</v>
+      <c r="A277" s="6">
+        <v>410</v>
       </c>
       <c r="B277" s="9">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C277" s="9">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="D277" s="6">
         <v>308</v>
@@ -5009,15 +5000,15 @@
         <v>308</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="10">
-        <v>413</v>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="6">
+        <v>412</v>
       </c>
       <c r="B278" s="9">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C278" s="9">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D278" s="6">
         <v>310</v>
@@ -5029,12 +5020,15 @@
         <v>310</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B279" s="9">
-        <v>412</v>
+    <row r="279" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="7">
+        <v>413</v>
+      </c>
+      <c r="B279" s="10">
+        <v>413</v>
       </c>
       <c r="C279" s="9">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D279" s="6">
         <v>311</v>
@@ -5046,12 +5040,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="10">
-        <v>717</v>
-      </c>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C280" s="9">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D280" s="6">
         <v>314</v>
@@ -5063,9 +5054,9 @@
         <v>314</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C281" s="10">
-        <v>413</v>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C281" s="9">
+        <v>412</v>
       </c>
       <c r="D281" s="6">
         <v>317</v>
@@ -5077,7 +5068,10 @@
         <v>317</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C282" s="10">
+        <v>717</v>
+      </c>
       <c r="D282" s="6">
         <v>318</v>
       </c>

--- a/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D063F1A1-E4B8-48F5-BBFB-4AF0BBF28D0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC2ED295-F48A-4661-9902-02BD4F86DCB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="1455" windowWidth="13995" windowHeight="11505" xr2:uid="{E5F24909-3BB9-4BE8-BF14-07081227E833}"/>
+    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{5BADC028-06D3-4CDA-95AE-103A0F372EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660475A0-1B79-4759-9B6B-BA733CB90724}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98372D1-DBC7-475A-B002-EB525D16FFA0}">
   <dimension ref="A1:F296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC2ED295-F48A-4661-9902-02BD4F86DCB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA84DF99-1D3D-4DFF-A4E5-AF923EE53629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{5BADC028-06D3-4CDA-95AE-103A0F372EB4}"/>
+    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{5798D03F-993B-433A-AEA1-9ED90658DC42}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98372D1-DBC7-475A-B002-EB525D16FFA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42A6190-3967-4F26-AC4D-0BA614DC1758}">
   <dimension ref="A1:F296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA84DF99-1D3D-4DFF-A4E5-AF923EE53629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FE36494-E830-46EB-A586-B75B0BFCFBA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{5798D03F-993B-433A-AEA1-9ED90658DC42}"/>
+    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{9700FD65-07A4-429E-A4D8-FD4F24C0BB3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Перша пара</t>
   </si>
   <si>
+    <t>318/</t>
+  </si>
+  <si>
+    <t>111/</t>
+  </si>
+  <si>
     <t>с.з.</t>
+  </si>
+  <si>
+    <t>311/</t>
   </si>
   <si>
     <t>Середа</t>
@@ -49,6 +58,9 @@
   </si>
   <si>
     <t>Четверта пара</t>
+  </si>
+  <si>
+    <t>109/</t>
   </si>
   <si>
     <t>П'ята пара</t>
@@ -582,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42A6190-3967-4F26-AC4D-0BA614DC1758}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58026389-1F19-4E5C-9AFB-2919C88B42AA}">
   <dimension ref="A1:F296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -609,7 +621,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B2" s="6">
         <v>104</v>
@@ -620,7 +632,7 @@
       <c r="D2" s="9">
         <v>104</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="9">
         <v>104</v>
       </c>
       <c r="F2" s="6">
@@ -629,10 +641,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B3" s="6">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C3" s="9">
         <v>112</v>
@@ -640,7 +652,7 @@
       <c r="D3" s="9">
         <v>105</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <v>105</v>
       </c>
       <c r="F3" s="6">
@@ -649,18 +661,18 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B4" s="6">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C4" s="9">
         <v>122</v>
       </c>
       <c r="D4" s="9">
-        <v>112</v>
-      </c>
-      <c r="E4" s="6">
+        <v>108</v>
+      </c>
+      <c r="E4" s="9">
         <v>106</v>
       </c>
       <c r="F4" s="6">
@@ -669,18 +681,18 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B5" s="6">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C5" s="9">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D5" s="9">
-        <v>117</v>
-      </c>
-      <c r="E5" s="6">
+        <v>112</v>
+      </c>
+      <c r="E5" s="9">
         <v>108</v>
       </c>
       <c r="F5" s="6">
@@ -689,18 +701,18 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
+        <v>123</v>
+      </c>
+      <c r="B6" s="6">
+        <v>123</v>
+      </c>
+      <c r="C6" s="9">
         <v>153</v>
       </c>
-      <c r="B6" s="6">
-        <v>152</v>
-      </c>
-      <c r="C6" s="9">
-        <v>151</v>
-      </c>
       <c r="D6" s="9">
-        <v>122</v>
-      </c>
-      <c r="E6" s="6">
+        <v>117</v>
+      </c>
+      <c r="E6" s="9">
         <v>109</v>
       </c>
       <c r="F6" s="6">
@@ -709,18 +721,18 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
+        <v>151</v>
+      </c>
+      <c r="B7" s="6">
+        <v>151</v>
+      </c>
+      <c r="C7" s="9">
         <v>154</v>
       </c>
-      <c r="B7" s="6">
-        <v>153</v>
-      </c>
-      <c r="C7" s="9">
-        <v>152</v>
-      </c>
       <c r="D7" s="9">
-        <v>123</v>
-      </c>
-      <c r="E7" s="6">
+        <v>122</v>
+      </c>
+      <c r="E7" s="9">
         <v>111</v>
       </c>
       <c r="F7" s="6">
@@ -729,18 +741,18 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="B8" s="6">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="9">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="D8" s="9">
-        <v>151</v>
-      </c>
-      <c r="E8" s="6">
+        <v>123</v>
+      </c>
+      <c r="E8" s="9">
         <v>112</v>
       </c>
       <c r="F8" s="6">
@@ -749,18 +761,18 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B9" s="6">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="C9" s="9">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="D9" s="9">
-        <v>152</v>
-      </c>
-      <c r="E9" s="6">
+        <v>151</v>
+      </c>
+      <c r="E9" s="9">
         <v>117</v>
       </c>
       <c r="F9" s="6">
@@ -769,18 +781,18 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B10" s="6">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="C10" s="9">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D10" s="9">
-        <v>153</v>
-      </c>
-      <c r="E10" s="6">
+        <v>152</v>
+      </c>
+      <c r="E10" s="9">
         <v>122</v>
       </c>
       <c r="F10" s="6">
@@ -789,18 +801,18 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B11" s="6">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C11" s="9">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D11" s="9">
-        <v>154</v>
-      </c>
-      <c r="E11" s="6">
+        <v>153</v>
+      </c>
+      <c r="E11" s="9">
         <v>123</v>
       </c>
       <c r="F11" s="6">
@@ -809,18 +821,18 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B12" s="6">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C12" s="9">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D12" s="9">
-        <v>200</v>
-      </c>
-      <c r="E12" s="6">
+        <v>154</v>
+      </c>
+      <c r="E12" s="9">
         <v>151</v>
       </c>
       <c r="F12" s="6">
@@ -829,18 +841,18 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
+        <v>210</v>
+      </c>
+      <c r="B13" s="6">
         <v>206</v>
       </c>
-      <c r="B13" s="6">
-        <v>208</v>
-      </c>
       <c r="C13" s="9">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D13" s="9">
-        <v>201</v>
-      </c>
-      <c r="E13" s="6">
+        <v>200</v>
+      </c>
+      <c r="E13" s="9">
         <v>152</v>
       </c>
       <c r="F13" s="6">
@@ -849,18 +861,18 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B14" s="6">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C14" s="9">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D14" s="9">
-        <v>203</v>
-      </c>
-      <c r="E14" s="6">
+        <v>201</v>
+      </c>
+      <c r="E14" s="9">
         <v>153</v>
       </c>
       <c r="F14" s="6">
@@ -869,18 +881,18 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B15" s="6">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C15" s="9">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D15" s="9">
-        <v>204</v>
-      </c>
-      <c r="E15" s="6">
+        <v>202</v>
+      </c>
+      <c r="E15" s="9">
         <v>154</v>
       </c>
       <c r="F15" s="6">
@@ -892,15 +904,15 @@
         <v>214</v>
       </c>
       <c r="B16" s="6">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C16" s="9">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D16" s="9">
-        <v>206</v>
-      </c>
-      <c r="E16" s="6">
+        <v>204</v>
+      </c>
+      <c r="E16" s="9">
         <v>200</v>
       </c>
       <c r="F16" s="6">
@@ -912,15 +924,15 @@
         <v>215</v>
       </c>
       <c r="B17" s="6">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C17" s="9">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D17" s="9">
-        <v>208</v>
-      </c>
-      <c r="E17" s="6">
+        <v>206</v>
+      </c>
+      <c r="E17" s="9">
         <v>201</v>
       </c>
       <c r="F17" s="6">
@@ -932,15 +944,15 @@
         <v>216</v>
       </c>
       <c r="B18" s="6">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C18" s="9">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D18" s="9">
-        <v>210</v>
-      </c>
-      <c r="E18" s="6">
+        <v>208</v>
+      </c>
+      <c r="E18" s="9">
         <v>202</v>
       </c>
       <c r="F18" s="6">
@@ -952,15 +964,15 @@
         <v>217</v>
       </c>
       <c r="B19" s="6">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C19" s="9">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D19" s="9">
-        <v>213</v>
-      </c>
-      <c r="E19" s="6">
+        <v>209</v>
+      </c>
+      <c r="E19" s="9">
         <v>203</v>
       </c>
       <c r="F19" s="6">
@@ -972,15 +984,15 @@
         <v>218</v>
       </c>
       <c r="B20" s="6">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" s="9">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="D20" s="9">
-        <v>214</v>
-      </c>
-      <c r="E20" s="6">
+        <v>210</v>
+      </c>
+      <c r="E20" s="9">
         <v>204</v>
       </c>
       <c r="F20" s="6">
@@ -992,15 +1004,15 @@
         <v>219</v>
       </c>
       <c r="B21" s="6">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C21" s="9">
-        <v>219</v>
+        <v>306</v>
       </c>
       <c r="D21" s="9">
-        <v>215</v>
-      </c>
-      <c r="E21" s="6">
+        <v>211</v>
+      </c>
+      <c r="E21" s="9">
         <v>206</v>
       </c>
       <c r="F21" s="6">
@@ -1015,12 +1027,12 @@
         <v>303</v>
       </c>
       <c r="C22" s="9">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D22" s="9">
-        <v>216</v>
-      </c>
-      <c r="E22" s="6">
+        <v>213</v>
+      </c>
+      <c r="E22" s="9">
         <v>208</v>
       </c>
       <c r="F22" s="6">
@@ -1035,12 +1047,12 @@
         <v>304</v>
       </c>
       <c r="C23" s="9">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D23" s="9">
-        <v>217</v>
-      </c>
-      <c r="E23" s="6">
+        <v>214</v>
+      </c>
+      <c r="E23" s="9">
         <v>209</v>
       </c>
       <c r="F23" s="6">
@@ -1052,15 +1064,15 @@
         <v>304</v>
       </c>
       <c r="B24" s="6">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C24" s="9">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D24" s="9">
-        <v>218</v>
-      </c>
-      <c r="E24" s="6">
+        <v>215</v>
+      </c>
+      <c r="E24" s="9">
         <v>210</v>
       </c>
       <c r="F24" s="6">
@@ -1069,18 +1081,18 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B25" s="6">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C25" s="9">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D25" s="9">
-        <v>219</v>
-      </c>
-      <c r="E25" s="6">
+        <v>216</v>
+      </c>
+      <c r="E25" s="9">
         <v>211</v>
       </c>
       <c r="F25" s="6">
@@ -1089,18 +1101,18 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
+        <v>308</v>
+      </c>
+      <c r="B26" s="6">
         <v>314</v>
       </c>
-      <c r="B26" s="6">
-        <v>310</v>
-      </c>
       <c r="C26" s="9">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D26" s="9">
-        <v>301</v>
-      </c>
-      <c r="E26" s="6">
+        <v>217</v>
+      </c>
+      <c r="E26" s="9">
         <v>213</v>
       </c>
       <c r="F26" s="6">
@@ -1109,18 +1121,18 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B27" s="6">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C27" s="9">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D27" s="9">
-        <v>303</v>
-      </c>
-      <c r="E27" s="6">
+        <v>218</v>
+      </c>
+      <c r="E27" s="9">
         <v>214</v>
       </c>
       <c r="F27" s="6">
@@ -1129,18 +1141,18 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B28" s="6">
         <v>322</v>
       </c>
       <c r="C28" s="9">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="D28" s="9">
-        <v>304</v>
-      </c>
-      <c r="E28" s="6">
+        <v>219</v>
+      </c>
+      <c r="E28" s="9">
         <v>215</v>
       </c>
       <c r="F28" s="6">
@@ -1149,18 +1161,18 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B29" s="6">
         <v>403</v>
       </c>
       <c r="C29" s="9">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="D29" s="9">
-        <v>306</v>
-      </c>
-      <c r="E29" s="6">
+        <v>301</v>
+      </c>
+      <c r="E29" s="9">
         <v>216</v>
       </c>
       <c r="F29" s="6">
@@ -1169,38 +1181,38 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="B30" s="6">
         <v>404</v>
       </c>
       <c r="C30" s="9">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D30" s="9">
-        <v>308</v>
-      </c>
-      <c r="E30" s="6">
+        <v>303</v>
+      </c>
+      <c r="E30" s="9">
         <v>217</v>
       </c>
       <c r="F30" s="6">
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B31" s="6">
         <v>405</v>
       </c>
-      <c r="C31" s="9">
-        <v>404</v>
+      <c r="C31" s="10">
+        <v>416</v>
       </c>
       <c r="D31" s="9">
-        <v>314</v>
-      </c>
-      <c r="E31" s="6">
+        <v>304</v>
+      </c>
+      <c r="E31" s="9">
         <v>218</v>
       </c>
       <c r="F31" s="6">
@@ -1209,18 +1221,15 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="B32" s="6">
         <v>412</v>
       </c>
-      <c r="C32" s="9">
-        <v>405</v>
-      </c>
       <c r="D32" s="9">
-        <v>319</v>
-      </c>
-      <c r="E32" s="6">
+        <v>306</v>
+      </c>
+      <c r="E32" s="9">
         <v>219</v>
       </c>
       <c r="F32" s="6">
@@ -1228,19 +1237,16 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
-        <v>416</v>
+      <c r="A33" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="B33" s="7">
         <v>416</v>
       </c>
-      <c r="C33" s="10">
-        <v>416</v>
-      </c>
       <c r="D33" s="9">
-        <v>321</v>
-      </c>
-      <c r="E33" s="6">
+        <v>310</v>
+      </c>
+      <c r="E33" s="9">
         <v>301</v>
       </c>
       <c r="F33" s="6">
@@ -1249,9 +1255,9 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" s="9">
-        <v>322</v>
-      </c>
-      <c r="E34" s="6">
+        <v>314</v>
+      </c>
+      <c r="E34" s="9">
         <v>302</v>
       </c>
       <c r="F34" s="6">
@@ -1260,9 +1266,9 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D35" s="9">
-        <v>403</v>
-      </c>
-      <c r="E35" s="6">
+        <v>319</v>
+      </c>
+      <c r="E35" s="9">
         <v>303</v>
       </c>
       <c r="F35" s="6">
@@ -1271,9 +1277,9 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D36" s="9">
-        <v>404</v>
-      </c>
-      <c r="E36" s="6">
+        <v>321</v>
+      </c>
+      <c r="E36" s="9">
         <v>304</v>
       </c>
       <c r="F36" s="6">
@@ -1282,9 +1288,9 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D37" s="9">
-        <v>405</v>
-      </c>
-      <c r="E37" s="6">
+        <v>322</v>
+      </c>
+      <c r="E37" s="9">
         <v>305</v>
       </c>
       <c r="F37" s="6">
@@ -1293,9 +1299,9 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D38" s="9">
-        <v>409</v>
-      </c>
-      <c r="E38" s="6">
+        <v>404</v>
+      </c>
+      <c r="E38" s="9">
         <v>306</v>
       </c>
       <c r="F38" s="6">
@@ -1304,9 +1310,9 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D39" s="9">
-        <v>411</v>
-      </c>
-      <c r="E39" s="6">
+        <v>405</v>
+      </c>
+      <c r="E39" s="9">
         <v>308</v>
       </c>
       <c r="F39" s="6">
@@ -1315,20 +1321,20 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D40" s="9">
-        <v>412</v>
-      </c>
-      <c r="E40" s="6">
+        <v>409</v>
+      </c>
+      <c r="E40" s="9">
         <v>310</v>
       </c>
       <c r="F40" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="10">
-        <v>416</v>
-      </c>
-      <c r="E41" s="6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="9">
+        <v>411</v>
+      </c>
+      <c r="E41" s="9">
         <v>311</v>
       </c>
       <c r="F41" s="6">
@@ -1336,15 +1342,21 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="6">
+      <c r="D42" s="9">
+        <v>416</v>
+      </c>
+      <c r="E42" s="9">
         <v>314</v>
       </c>
       <c r="F42" s="6">
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E43" s="6">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="9">
         <v>317</v>
       </c>
       <c r="F43" s="6">
@@ -1352,123 +1364,120 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E44" s="6">
-        <v>318</v>
+      <c r="E44" s="9">
+        <v>319</v>
       </c>
       <c r="F44" s="6">
         <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E45" s="6">
-        <v>319</v>
+      <c r="E45" s="9">
+        <v>321</v>
       </c>
       <c r="F45" s="6">
         <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E46" s="6">
-        <v>321</v>
+      <c r="E46" s="9">
+        <v>322</v>
       </c>
       <c r="F46" s="6">
         <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E47" s="6">
-        <v>322</v>
+      <c r="E47" s="9">
+        <v>403</v>
       </c>
       <c r="F47" s="6">
         <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E48" s="6">
-        <v>403</v>
+      <c r="E48" s="9">
+        <v>404</v>
       </c>
       <c r="F48" s="6">
         <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E49" s="6">
-        <v>404</v>
+      <c r="E49" s="9">
+        <v>405</v>
       </c>
       <c r="F49" s="6">
         <v>404</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E50" s="6">
-        <v>405</v>
+      <c r="E50" s="9">
+        <v>409</v>
       </c>
       <c r="F50" s="6">
         <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E51" s="6">
-        <v>409</v>
+      <c r="E51" s="9">
+        <v>410</v>
       </c>
       <c r="F51" s="6">
         <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E52" s="6">
-        <v>410</v>
+      <c r="E52" s="9">
+        <v>411</v>
       </c>
       <c r="F52" s="6">
         <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E53" s="6">
-        <v>411</v>
+      <c r="E53" s="9">
+        <v>412</v>
       </c>
       <c r="F53" s="6">
         <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E54" s="6">
-        <v>412</v>
+      <c r="E54" s="9">
+        <v>413</v>
       </c>
       <c r="F54" s="6">
         <v>412</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E55" s="6">
-        <v>413</v>
+      <c r="E55" s="9">
+        <v>416</v>
       </c>
       <c r="F55" s="6">
         <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E56" s="6">
-        <v>416</v>
+      <c r="E56" s="9">
+        <v>717</v>
       </c>
       <c r="F56" s="6">
         <v>416</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E57" s="6">
-        <v>717</v>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="F57" s="6">
         <v>717</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E58" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="F58" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1490,7 +1499,7 @@
         <v>108</v>
       </c>
       <c r="C61" s="9">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D61" s="9">
         <v>104</v>
@@ -1527,7 +1536,7 @@
         <v>108</v>
       </c>
       <c r="B63" s="9">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C63" s="9">
         <v>112</v>
@@ -1547,7 +1556,7 @@
         <v>112</v>
       </c>
       <c r="B64" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" s="9">
         <v>117</v>
@@ -1567,7 +1576,7 @@
         <v>122</v>
       </c>
       <c r="B65" s="9">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C65" s="9">
         <v>123</v>
@@ -1587,7 +1596,7 @@
         <v>123</v>
       </c>
       <c r="B66" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C66" s="9">
         <v>151</v>
@@ -1607,10 +1616,10 @@
         <v>151</v>
       </c>
       <c r="B67" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C67" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D67" s="9">
         <v>112</v>
@@ -1627,10 +1636,10 @@
         <v>152</v>
       </c>
       <c r="B68" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C68" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D68" s="9">
         <v>117</v>
@@ -1647,10 +1656,10 @@
         <v>154</v>
       </c>
       <c r="B69" s="9">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="C69" s="9">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="D69" s="9">
         <v>122</v>
@@ -1667,10 +1676,10 @@
         <v>200</v>
       </c>
       <c r="B70" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C70" s="9">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D70" s="9">
         <v>123</v>
@@ -1687,10 +1696,10 @@
         <v>201</v>
       </c>
       <c r="B71" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C71" s="9">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D71" s="9">
         <v>151</v>
@@ -1710,7 +1719,7 @@
         <v>203</v>
       </c>
       <c r="C72" s="9">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D72" s="9">
         <v>152</v>
@@ -1730,7 +1739,7 @@
         <v>204</v>
       </c>
       <c r="C73" s="9">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D73" s="9">
         <v>153</v>
@@ -1747,10 +1756,10 @@
         <v>204</v>
       </c>
       <c r="B74" s="9">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C74" s="9">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D74" s="9">
         <v>154</v>
@@ -1764,13 +1773,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B75" s="9">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C75" s="9">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D75" s="9">
         <v>200</v>
@@ -1784,13 +1793,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B76" s="9">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C76" s="9">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D76" s="9">
         <v>201</v>
@@ -1804,13 +1813,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
+        <v>213</v>
+      </c>
+      <c r="B77" s="9">
+        <v>213</v>
+      </c>
+      <c r="C77" s="9">
         <v>211</v>
-      </c>
-      <c r="B77" s="9">
-        <v>210</v>
-      </c>
-      <c r="C77" s="9">
-        <v>216</v>
       </c>
       <c r="D77" s="9">
         <v>202</v>
@@ -1824,13 +1833,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B78" s="9">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C78" s="9">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D78" s="9">
         <v>203</v>
@@ -1844,13 +1853,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B79" s="9">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C79" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D79" s="9">
         <v>204</v>
@@ -1864,13 +1873,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B80" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C80" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D80" s="9">
         <v>206</v>
@@ -1884,13 +1893,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B81" s="9">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="C81" s="9">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="D81" s="9">
         <v>208</v>
@@ -1907,10 +1916,10 @@
         <v>303</v>
       </c>
       <c r="B82" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C82" s="9">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D82" s="9">
         <v>209</v>
@@ -1927,10 +1936,10 @@
         <v>304</v>
       </c>
       <c r="B83" s="9">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C83" s="9">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D83" s="9">
         <v>210</v>
@@ -1944,13 +1953,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B84" s="9">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C84" s="9">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D84" s="9">
         <v>211</v>
@@ -1964,13 +1973,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B85" s="9">
         <v>310</v>
       </c>
       <c r="C85" s="9">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D85" s="9">
         <v>213</v>
@@ -1984,13 +1993,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B86" s="9">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C86" s="9">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D86" s="9">
         <v>214</v>
@@ -2004,13 +2013,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B87" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C87" s="9">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D87" s="9">
         <v>215</v>
@@ -2024,13 +2033,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B88" s="9">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="C88" s="9">
-        <v>403</v>
+        <v>317</v>
       </c>
       <c r="D88" s="9">
         <v>216</v>
@@ -2044,13 +2053,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
+        <v>321</v>
+      </c>
+      <c r="B89" s="9">
         <v>403</v>
       </c>
-      <c r="B89" s="9">
-        <v>404</v>
-      </c>
       <c r="C89" s="9">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="D89" s="9">
         <v>217</v>
@@ -2064,13 +2073,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B90" s="9">
         <v>405</v>
       </c>
       <c r="C90" s="9">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D90" s="9">
         <v>218</v>
@@ -2083,14 +2092,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="7">
-        <v>416</v>
+      <c r="A91" s="6">
+        <v>404</v>
       </c>
       <c r="B91" s="10">
         <v>416</v>
       </c>
       <c r="C91" s="9">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D91" s="9">
         <v>219</v>
@@ -2103,8 +2112,11 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="10">
-        <v>717</v>
+      <c r="A92" s="7">
+        <v>405</v>
+      </c>
+      <c r="C92" s="9">
+        <v>416</v>
       </c>
       <c r="D92" s="9">
         <v>301</v>
@@ -2117,8 +2129,11 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C93" s="9">
+        <v>717</v>
+      </c>
       <c r="D93" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E93" s="6">
         <v>302</v>
@@ -2127,9 +2142,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="D94" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E94" s="6">
         <v>303</v>
@@ -2140,7 +2158,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D95" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E95" s="6">
         <v>304</v>
@@ -2151,7 +2169,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D96" s="9">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E96" s="6">
         <v>305</v>
@@ -2162,7 +2180,7 @@
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E97" s="6">
         <v>306</v>
@@ -2173,7 +2191,7 @@
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D98" s="9">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E98" s="6">
         <v>308</v>
@@ -2184,7 +2202,7 @@
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D99" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E99" s="6">
         <v>310</v>
@@ -2195,7 +2213,7 @@
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D100" s="9">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E100" s="6">
         <v>311</v>
@@ -2206,7 +2224,7 @@
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D101" s="9">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E101" s="6">
         <v>314</v>
@@ -2217,7 +2235,7 @@
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D102" s="9">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E102" s="6">
         <v>317</v>
@@ -2228,7 +2246,7 @@
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D103" s="9">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E103" s="6">
         <v>318</v>
@@ -2239,7 +2257,7 @@
     </row>
     <row r="104" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D104" s="9">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E104" s="6">
         <v>319</v>
@@ -2250,7 +2268,7 @@
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D105" s="9">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="E105" s="6">
         <v>321</v>
@@ -2261,7 +2279,7 @@
     </row>
     <row r="106" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D106" s="9">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="E106" s="6">
         <v>322</v>
@@ -2272,7 +2290,7 @@
     </row>
     <row r="107" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D107" s="9">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E107" s="6">
         <v>403</v>
@@ -2283,7 +2301,7 @@
     </row>
     <row r="108" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D108" s="9">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E108" s="6">
         <v>404</v>
@@ -2294,7 +2312,7 @@
     </row>
     <row r="109" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D109" s="9">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E109" s="6">
         <v>405</v>
@@ -2305,7 +2323,7 @@
     </row>
     <row r="110" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D110" s="9">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E110" s="6">
         <v>409</v>
@@ -2316,7 +2334,7 @@
     </row>
     <row r="111" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D111" s="9">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E111" s="6">
         <v>410</v>
@@ -2327,7 +2345,7 @@
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D112" s="9">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E112" s="6">
         <v>411</v>
@@ -2338,7 +2356,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D113" s="9">
-        <v>413</v>
+        <v>717</v>
       </c>
       <c r="E113" s="6">
         <v>412</v>
@@ -2347,9 +2365,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D114" s="9">
-        <v>416</v>
+    <row r="114" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D114" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="E114" s="6">
         <v>413</v>
@@ -2359,9 +2377,6 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D115" s="9">
-        <v>717</v>
-      </c>
       <c r="E115" s="6">
         <v>416</v>
       </c>
@@ -2369,10 +2384,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D116" s="10" t="s">
-        <v>1</v>
-      </c>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E116" s="6">
         <v>717</v>
       </c>
@@ -2382,16 +2394,16 @@
     </row>
     <row r="117" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E117" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2404,35 +2416,35 @@
         <v>0</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="9">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B121" s="6">
         <v>104</v>
       </c>
       <c r="C121" s="9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D121" s="9">
         <v>104</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E121" s="9">
         <v>104</v>
       </c>
       <c r="F121" s="6">
@@ -2441,10 +2453,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="9">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B122" s="6">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C122" s="9">
         <v>112</v>
@@ -2452,7 +2464,7 @@
       <c r="D122" s="9">
         <v>105</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E122" s="9">
         <v>105</v>
       </c>
       <c r="F122" s="6">
@@ -2461,18 +2473,18 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="9">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B123" s="6">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C123" s="9">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="D123" s="9">
-        <v>108</v>
-      </c>
-      <c r="E123" s="6">
+        <v>111</v>
+      </c>
+      <c r="E123" s="9">
         <v>106</v>
       </c>
       <c r="F123" s="6">
@@ -2481,10 +2493,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="6">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C124" s="9">
         <v>152</v>
@@ -2492,7 +2504,7 @@
       <c r="D124" s="9">
         <v>112</v>
       </c>
-      <c r="E124" s="6">
+      <c r="E124" s="9">
         <v>108</v>
       </c>
       <c r="F124" s="6">
@@ -2501,10 +2513,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B125" s="6">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C125" s="9">
         <v>153</v>
@@ -2512,7 +2524,7 @@
       <c r="D125" s="9">
         <v>117</v>
       </c>
-      <c r="E125" s="6">
+      <c r="E125" s="9">
         <v>109</v>
       </c>
       <c r="F125" s="6">
@@ -2521,18 +2533,18 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="9">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B126" s="6">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C126" s="9">
         <v>154</v>
       </c>
       <c r="D126" s="9">
-        <v>123</v>
-      </c>
-      <c r="E126" s="6">
+        <v>122</v>
+      </c>
+      <c r="E126" s="9">
         <v>111</v>
       </c>
       <c r="F126" s="6">
@@ -2541,10 +2553,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="B127" s="6">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C127" s="9">
         <v>200</v>
@@ -2552,7 +2564,7 @@
       <c r="D127" s="9">
         <v>151</v>
       </c>
-      <c r="E127" s="6">
+      <c r="E127" s="9">
         <v>112</v>
       </c>
       <c r="F127" s="6">
@@ -2561,18 +2573,18 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="B128" s="6">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C128" s="9">
         <v>201</v>
       </c>
       <c r="D128" s="9">
-        <v>153</v>
-      </c>
-      <c r="E128" s="6">
+        <v>152</v>
+      </c>
+      <c r="E128" s="9">
         <v>117</v>
       </c>
       <c r="F128" s="6">
@@ -2581,18 +2593,18 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
+        <v>202</v>
+      </c>
+      <c r="B129" s="6">
         <v>200</v>
-      </c>
-      <c r="B129" s="6">
-        <v>154</v>
       </c>
       <c r="C129" s="9">
         <v>202</v>
       </c>
       <c r="D129" s="9">
-        <v>154</v>
-      </c>
-      <c r="E129" s="6">
+        <v>153</v>
+      </c>
+      <c r="E129" s="9">
         <v>122</v>
       </c>
       <c r="F129" s="6">
@@ -2601,18 +2613,18 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B130" s="6">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C130" s="9">
         <v>203</v>
       </c>
       <c r="D130" s="9">
-        <v>200</v>
-      </c>
-      <c r="E130" s="6">
+        <v>154</v>
+      </c>
+      <c r="E130" s="9">
         <v>123</v>
       </c>
       <c r="F130" s="6">
@@ -2621,18 +2633,18 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B131" s="6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C131" s="9">
         <v>204</v>
       </c>
       <c r="D131" s="9">
-        <v>201</v>
-      </c>
-      <c r="E131" s="6">
+        <v>200</v>
+      </c>
+      <c r="E131" s="9">
         <v>151</v>
       </c>
       <c r="F131" s="6">
@@ -2641,7 +2653,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B132" s="6">
         <v>203</v>
@@ -2650,9 +2662,9 @@
         <v>206</v>
       </c>
       <c r="D132" s="9">
-        <v>202</v>
-      </c>
-      <c r="E132" s="6">
+        <v>201</v>
+      </c>
+      <c r="E132" s="9">
         <v>152</v>
       </c>
       <c r="F132" s="6">
@@ -2661,18 +2673,18 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B133" s="6">
         <v>204</v>
       </c>
       <c r="C133" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D133" s="9">
-        <v>204</v>
-      </c>
-      <c r="E133" s="6">
+        <v>202</v>
+      </c>
+      <c r="E133" s="9">
         <v>153</v>
       </c>
       <c r="F133" s="6">
@@ -2681,18 +2693,18 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="9">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B134" s="6">
         <v>206</v>
       </c>
       <c r="C134" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D134" s="9">
-        <v>206</v>
-      </c>
-      <c r="E134" s="6">
+        <v>203</v>
+      </c>
+      <c r="E134" s="9">
         <v>154</v>
       </c>
       <c r="F134" s="6">
@@ -2707,12 +2719,12 @@
         <v>208</v>
       </c>
       <c r="C135" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D135" s="9">
-        <v>208</v>
-      </c>
-      <c r="E135" s="6">
+        <v>204</v>
+      </c>
+      <c r="E135" s="9">
         <v>200</v>
       </c>
       <c r="F135" s="6">
@@ -2721,18 +2733,18 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B136" s="6">
         <v>209</v>
       </c>
       <c r="C136" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D136" s="9">
-        <v>209</v>
-      </c>
-      <c r="E136" s="6">
+        <v>206</v>
+      </c>
+      <c r="E136" s="9">
         <v>201</v>
       </c>
       <c r="F136" s="6">
@@ -2741,18 +2753,18 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="9">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B137" s="6">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C137" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D137" s="9">
-        <v>210</v>
-      </c>
-      <c r="E137" s="6">
+        <v>208</v>
+      </c>
+      <c r="E137" s="9">
         <v>202</v>
       </c>
       <c r="F137" s="6">
@@ -2761,18 +2773,18 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="9">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B138" s="6">
+        <v>214</v>
+      </c>
+      <c r="C138" s="9">
         <v>215</v>
       </c>
-      <c r="C138" s="9">
-        <v>214</v>
-      </c>
       <c r="D138" s="9">
-        <v>211</v>
-      </c>
-      <c r="E138" s="6">
+        <v>209</v>
+      </c>
+      <c r="E138" s="9">
         <v>203</v>
       </c>
       <c r="F138" s="6">
@@ -2781,18 +2793,18 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="9">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B139" s="6">
         <v>216</v>
       </c>
       <c r="C139" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D139" s="9">
-        <v>213</v>
-      </c>
-      <c r="E139" s="6">
+        <v>210</v>
+      </c>
+      <c r="E139" s="9">
         <v>204</v>
       </c>
       <c r="F139" s="6">
@@ -2801,18 +2813,18 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="B140" s="6">
         <v>217</v>
       </c>
       <c r="C140" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D140" s="9">
-        <v>214</v>
-      </c>
-      <c r="E140" s="6">
+        <v>211</v>
+      </c>
+      <c r="E140" s="9">
         <v>206</v>
       </c>
       <c r="F140" s="6">
@@ -2821,18 +2833,18 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="B141" s="6">
         <v>218</v>
       </c>
       <c r="C141" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D141" s="9">
-        <v>215</v>
-      </c>
-      <c r="E141" s="6">
+        <v>213</v>
+      </c>
+      <c r="E141" s="9">
         <v>208</v>
       </c>
       <c r="F141" s="6">
@@ -2841,18 +2853,18 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B142" s="6">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="C142" s="9">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="D142" s="9">
-        <v>216</v>
-      </c>
-      <c r="E142" s="6">
+        <v>214</v>
+      </c>
+      <c r="E142" s="9">
         <v>209</v>
       </c>
       <c r="F142" s="6">
@@ -2861,18 +2873,18 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="9">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B143" s="6">
+        <v>304</v>
+      </c>
+      <c r="C143" s="9">
         <v>303</v>
       </c>
-      <c r="C143" s="9">
-        <v>219</v>
-      </c>
       <c r="D143" s="9">
-        <v>217</v>
-      </c>
-      <c r="E143" s="6">
+        <v>215</v>
+      </c>
+      <c r="E143" s="9">
         <v>210</v>
       </c>
       <c r="F143" s="6">
@@ -2881,18 +2893,18 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B144" s="6">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C144" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D144" s="9">
-        <v>218</v>
-      </c>
-      <c r="E144" s="6">
+        <v>216</v>
+      </c>
+      <c r="E144" s="9">
         <v>211</v>
       </c>
       <c r="F144" s="6">
@@ -2901,18 +2913,18 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B145" s="6">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C145" s="9">
         <v>306</v>
       </c>
       <c r="D145" s="9">
-        <v>219</v>
-      </c>
-      <c r="E145" s="6">
+        <v>217</v>
+      </c>
+      <c r="E145" s="9">
         <v>213</v>
       </c>
       <c r="F145" s="6">
@@ -2921,18 +2933,18 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="9">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B146" s="6">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C146" s="9">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D146" s="9">
-        <v>301</v>
-      </c>
-      <c r="E146" s="6">
+        <v>219</v>
+      </c>
+      <c r="E146" s="9">
         <v>214</v>
       </c>
       <c r="F146" s="6">
@@ -2941,18 +2953,18 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B147" s="6">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C147" s="9">
         <v>311</v>
       </c>
       <c r="D147" s="9">
-        <v>302</v>
-      </c>
-      <c r="E147" s="6">
+        <v>301</v>
+      </c>
+      <c r="E147" s="9">
         <v>215</v>
       </c>
       <c r="F147" s="6">
@@ -2961,18 +2973,18 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="9">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B148" s="6">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C148" s="9">
         <v>317</v>
       </c>
       <c r="D148" s="9">
-        <v>303</v>
-      </c>
-      <c r="E148" s="6">
+        <v>302</v>
+      </c>
+      <c r="E148" s="9">
         <v>216</v>
       </c>
       <c r="F148" s="6">
@@ -2981,18 +2993,18 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="B149" s="6">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C149" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D149" s="9">
-        <v>304</v>
-      </c>
-      <c r="E149" s="6">
+        <v>303</v>
+      </c>
+      <c r="E149" s="9">
         <v>217</v>
       </c>
       <c r="F149" s="6">
@@ -3001,18 +3013,18 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="9">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="B150" s="6">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C150" s="9">
         <v>403</v>
       </c>
       <c r="D150" s="9">
-        <v>306</v>
-      </c>
-      <c r="E150" s="6">
+        <v>304</v>
+      </c>
+      <c r="E150" s="9">
         <v>218</v>
       </c>
       <c r="F150" s="6">
@@ -3021,18 +3033,18 @@
     </row>
     <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B151" s="6">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="C151" s="10">
         <v>404</v>
       </c>
       <c r="D151" s="9">
-        <v>308</v>
-      </c>
-      <c r="E151" s="6">
+        <v>306</v>
+      </c>
+      <c r="E151" s="9">
         <v>219</v>
       </c>
       <c r="F151" s="6">
@@ -3041,12 +3053,12 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="6">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="D152" s="9">
-        <v>310</v>
-      </c>
-      <c r="E152" s="6">
+        <v>308</v>
+      </c>
+      <c r="E152" s="9">
         <v>301</v>
       </c>
       <c r="F152" s="6">
@@ -3055,12 +3067,12 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B153" s="6">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D153" s="9">
-        <v>314</v>
-      </c>
-      <c r="E153" s="6">
+        <v>310</v>
+      </c>
+      <c r="E153" s="9">
         <v>302</v>
       </c>
       <c r="F153" s="6">
@@ -3074,7 +3086,7 @@
       <c r="D154" s="9">
         <v>317</v>
       </c>
-      <c r="E154" s="6">
+      <c r="E154" s="9">
         <v>303</v>
       </c>
       <c r="F154" s="6">
@@ -3085,7 +3097,7 @@
       <c r="D155" s="9">
         <v>319</v>
       </c>
-      <c r="E155" s="6">
+      <c r="E155" s="9">
         <v>304</v>
       </c>
       <c r="F155" s="6">
@@ -3096,7 +3108,7 @@
       <c r="D156" s="9">
         <v>321</v>
       </c>
-      <c r="E156" s="6">
+      <c r="E156" s="9">
         <v>305</v>
       </c>
       <c r="F156" s="6">
@@ -3107,7 +3119,7 @@
       <c r="D157" s="9">
         <v>322</v>
       </c>
-      <c r="E157" s="6">
+      <c r="E157" s="9">
         <v>306</v>
       </c>
       <c r="F157" s="6">
@@ -3116,9 +3128,9 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D158" s="9">
-        <v>404</v>
-      </c>
-      <c r="E158" s="6">
+        <v>403</v>
+      </c>
+      <c r="E158" s="9">
         <v>308</v>
       </c>
       <c r="F158" s="6">
@@ -3127,9 +3139,9 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D159" s="9">
-        <v>405</v>
-      </c>
-      <c r="E159" s="6">
+        <v>404</v>
+      </c>
+      <c r="E159" s="9">
         <v>310</v>
       </c>
       <c r="F159" s="6">
@@ -3138,9 +3150,9 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D160" s="9">
-        <v>409</v>
-      </c>
-      <c r="E160" s="6">
+        <v>405</v>
+      </c>
+      <c r="E160" s="9">
         <v>311</v>
       </c>
       <c r="F160" s="6">
@@ -3151,7 +3163,7 @@
       <c r="D161" s="9">
         <v>410</v>
       </c>
-      <c r="E161" s="6">
+      <c r="E161" s="9">
         <v>314</v>
       </c>
       <c r="F161" s="6">
@@ -3162,7 +3174,7 @@
       <c r="D162" s="9">
         <v>411</v>
       </c>
-      <c r="E162" s="6">
+      <c r="E162" s="9">
         <v>317</v>
       </c>
       <c r="F162" s="6">
@@ -3173,126 +3185,126 @@
       <c r="D163" s="9">
         <v>412</v>
       </c>
-      <c r="E163" s="6">
-        <v>318</v>
+      <c r="E163" s="9">
+        <v>319</v>
       </c>
       <c r="F163" s="6">
         <v>318</v>
       </c>
     </row>
-    <row r="164" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D164" s="10">
+    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D164" s="9">
         <v>413</v>
       </c>
-      <c r="E164" s="6">
-        <v>319</v>
+      <c r="E164" s="9">
+        <v>321</v>
       </c>
       <c r="F164" s="6">
         <v>319</v>
       </c>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E165" s="6">
-        <v>321</v>
+    <row r="165" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D165" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="9">
+        <v>322</v>
       </c>
       <c r="F165" s="6">
         <v>321</v>
       </c>
     </row>
     <row r="166" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E166" s="6">
-        <v>322</v>
+      <c r="E166" s="9">
+        <v>403</v>
       </c>
       <c r="F166" s="6">
         <v>322</v>
       </c>
     </row>
     <row r="167" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E167" s="6">
-        <v>403</v>
+      <c r="E167" s="9">
+        <v>404</v>
       </c>
       <c r="F167" s="6">
         <v>403</v>
       </c>
     </row>
     <row r="168" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E168" s="6">
-        <v>404</v>
+      <c r="E168" s="9">
+        <v>405</v>
       </c>
       <c r="F168" s="6">
         <v>404</v>
       </c>
     </row>
     <row r="169" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E169" s="6">
-        <v>405</v>
+      <c r="E169" s="9">
+        <v>409</v>
       </c>
       <c r="F169" s="6">
         <v>405</v>
       </c>
     </row>
     <row r="170" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E170" s="6">
-        <v>409</v>
+      <c r="E170" s="9">
+        <v>410</v>
       </c>
       <c r="F170" s="6">
         <v>409</v>
       </c>
     </row>
     <row r="171" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E171" s="6">
-        <v>410</v>
+      <c r="E171" s="9">
+        <v>411</v>
       </c>
       <c r="F171" s="6">
         <v>410</v>
       </c>
     </row>
     <row r="172" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E172" s="6">
-        <v>411</v>
+      <c r="E172" s="9">
+        <v>412</v>
       </c>
       <c r="F172" s="6">
         <v>411</v>
       </c>
     </row>
     <row r="173" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E173" s="6">
-        <v>412</v>
+      <c r="E173" s="9">
+        <v>413</v>
       </c>
       <c r="F173" s="6">
         <v>412</v>
       </c>
     </row>
     <row r="174" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E174" s="6">
-        <v>413</v>
+      <c r="E174" s="9">
+        <v>416</v>
       </c>
       <c r="F174" s="6">
         <v>413</v>
       </c>
     </row>
     <row r="175" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E175" s="6">
-        <v>416</v>
+      <c r="E175" s="9">
+        <v>717</v>
       </c>
       <c r="F175" s="6">
         <v>416</v>
       </c>
     </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E176" s="6">
-        <v>717</v>
+    <row r="176" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E176" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="F176" s="6">
         <v>717</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E177" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="F177" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3308,16 +3320,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B180" s="9">
         <v>108</v>
       </c>
       <c r="C180" s="9">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D180" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E180" s="6">
         <v>104</v>
@@ -3328,16 +3340,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="B181" s="9">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C181" s="9">
         <v>112</v>
       </c>
       <c r="D181" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E181" s="6">
         <v>105</v>
@@ -3348,16 +3360,16 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="B182" s="9">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C182" s="9">
         <v>122</v>
       </c>
       <c r="D182" s="9">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E182" s="6">
         <v>106</v>
@@ -3368,16 +3380,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="B183" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C183" s="9">
         <v>123</v>
       </c>
       <c r="D183" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E183" s="6">
         <v>108</v>
@@ -3388,16 +3400,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B184" s="9">
         <v>151</v>
       </c>
       <c r="C184" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D184" s="9">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E184" s="6">
         <v>109</v>
@@ -3408,13 +3420,13 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="B185" s="9">
         <v>152</v>
       </c>
       <c r="C185" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D185" s="9">
         <v>112</v>
@@ -3428,7 +3440,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="B186" s="9">
         <v>153</v>
@@ -3448,7 +3460,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="B187" s="9">
         <v>154</v>
@@ -3468,13 +3480,13 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="B188" s="9">
         <v>201</v>
       </c>
       <c r="C188" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D188" s="9">
         <v>123</v>
@@ -3488,13 +3500,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="B189" s="9">
         <v>202</v>
       </c>
       <c r="C189" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D189" s="9">
         <v>151</v>
@@ -3508,13 +3520,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B190" s="9">
         <v>203</v>
       </c>
       <c r="C190" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D190" s="9">
         <v>152</v>
@@ -3528,7 +3540,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B191" s="9">
         <v>204</v>
@@ -3548,16 +3560,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B192" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C192" s="9">
         <v>208</v>
       </c>
       <c r="D192" s="9">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="E192" s="6">
         <v>153</v>
@@ -3568,16 +3580,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
+        <v>214</v>
+      </c>
+      <c r="B193" s="9">
         <v>208</v>
-      </c>
-      <c r="B193" s="9">
-        <v>211</v>
       </c>
       <c r="C193" s="9">
         <v>209</v>
       </c>
       <c r="D193" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E193" s="6">
         <v>154</v>
@@ -3588,16 +3600,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B194" s="9">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C194" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D194" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E194" s="6">
         <v>200</v>
@@ -3608,16 +3620,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B195" s="9">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C195" s="9">
         <v>213</v>
       </c>
       <c r="D195" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E195" s="6">
         <v>201</v>
@@ -3628,16 +3640,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B196" s="9">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C196" s="9">
         <v>214</v>
       </c>
       <c r="D196" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E196" s="6">
         <v>202</v>
@@ -3648,16 +3660,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B197" s="9">
-        <v>303</v>
+        <v>213</v>
       </c>
       <c r="C197" s="9">
         <v>215</v>
       </c>
       <c r="D197" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E197" s="6">
         <v>203</v>
@@ -3668,16 +3680,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B198" s="9">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="C198" s="9">
         <v>216</v>
       </c>
       <c r="D198" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E198" s="6">
         <v>204</v>
@@ -3688,16 +3700,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="B199" s="9">
-        <v>306</v>
+        <v>215</v>
       </c>
       <c r="C199" s="9">
         <v>218</v>
       </c>
       <c r="D199" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E199" s="6">
         <v>206</v>
@@ -3708,16 +3720,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="B200" s="9">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c r="C200" s="9">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="D200" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E200" s="6">
         <v>208</v>
@@ -3728,13 +3740,13 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B201" s="9">
-        <v>310</v>
+        <v>217</v>
       </c>
       <c r="C201" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D201" s="9">
         <v>211</v>
@@ -3748,13 +3760,13 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B202" s="9">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="C202" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D202" s="9">
         <v>213</v>
@@ -3768,13 +3780,13 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B203" s="9">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C203" s="9">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D203" s="9">
         <v>214</v>
@@ -3788,13 +3800,13 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B204" s="9">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C204" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D204" s="9">
         <v>215</v>
@@ -3808,13 +3820,13 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
+        <v>317</v>
+      </c>
+      <c r="B205" s="9">
+        <v>306</v>
+      </c>
+      <c r="C205" s="9">
         <v>310</v>
-      </c>
-      <c r="B205" s="9">
-        <v>322</v>
-      </c>
-      <c r="C205" s="9">
-        <v>308</v>
       </c>
       <c r="D205" s="9">
         <v>216</v>
@@ -3828,13 +3840,13 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B206" s="9">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="C206" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D206" s="9">
         <v>217</v>
@@ -3848,10 +3860,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B207" s="9">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="C207" s="9">
         <v>314</v>
@@ -3868,16 +3880,16 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B208" s="9">
-        <v>411</v>
+        <v>314</v>
       </c>
       <c r="C208" s="9">
         <v>317</v>
       </c>
       <c r="D208" s="9">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="E208" s="6">
         <v>217</v>
@@ -3888,16 +3900,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="B209" s="9">
-        <v>413</v>
+        <v>321</v>
       </c>
       <c r="C209" s="9">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D209" s="9">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E209" s="6">
         <v>218</v>
@@ -3906,18 +3918,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
-        <v>403</v>
-      </c>
-      <c r="B210" s="10">
-        <v>416</v>
+        <v>405</v>
+      </c>
+      <c r="B210" s="9">
+        <v>404</v>
       </c>
       <c r="C210" s="9">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="D210" s="9">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E210" s="6">
         <v>219</v>
@@ -3926,15 +3938,18 @@
         <v>219</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="6">
-        <v>404</v>
+    <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="7">
+        <v>413</v>
+      </c>
+      <c r="B211" s="10">
+        <v>413</v>
       </c>
       <c r="C211" s="9">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="D211" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E211" s="6">
         <v>301</v>
@@ -3944,14 +3959,11 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="6">
-        <v>411</v>
-      </c>
       <c r="C212" s="9">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D212" s="9">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E212" s="6">
         <v>302</v>
@@ -3960,15 +3972,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="7">
-        <v>717</v>
-      </c>
-      <c r="C213" s="10">
-        <v>413</v>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C213" s="9">
+        <v>404</v>
       </c>
       <c r="D213" s="9">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E213" s="6">
         <v>303</v>
@@ -3977,9 +3986,12 @@
         <v>303</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C214" s="10">
+        <v>410</v>
+      </c>
       <c r="D214" s="9">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E214" s="6">
         <v>304</v>
@@ -3990,7 +4002,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D215" s="9">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E215" s="6">
         <v>305</v>
@@ -4001,7 +4013,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D216" s="9">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E216" s="6">
         <v>306</v>
@@ -4012,7 +4024,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D217" s="9">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E217" s="6">
         <v>308</v>
@@ -4023,7 +4035,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D218" s="9">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E218" s="6">
         <v>310</v>
@@ -4034,7 +4046,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D219" s="9">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E219" s="6">
         <v>311</v>
@@ -4045,7 +4057,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D220" s="9">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E220" s="6">
         <v>314</v>
@@ -4056,7 +4068,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D221" s="9">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="E221" s="6">
         <v>317</v>
@@ -4067,7 +4079,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D222" s="9">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E222" s="6">
         <v>318</v>
@@ -4078,7 +4090,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D223" s="9">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E223" s="6">
         <v>319</v>
@@ -4089,7 +4101,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D224" s="9">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E224" s="6">
         <v>321</v>
@@ -4100,7 +4112,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D225" s="9">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E225" s="6">
         <v>322</v>
@@ -4111,7 +4123,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D226" s="9">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E226" s="6">
         <v>403</v>
@@ -4122,7 +4134,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D227" s="9">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E227" s="6">
         <v>404</v>
@@ -4133,7 +4145,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D228" s="9">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E228" s="6">
         <v>405</v>
@@ -4142,9 +4154,9 @@
         <v>405</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D229" s="10">
-        <v>717</v>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D229" s="9">
+        <v>413</v>
       </c>
       <c r="E229" s="6">
         <v>409</v>
@@ -4153,7 +4165,10 @@
         <v>409</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D230" s="10">
+        <v>717</v>
+      </c>
       <c r="E230" s="6">
         <v>410</v>
       </c>
@@ -4203,16 +4218,16 @@
     </row>
     <row r="236" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E236" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="238" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -4221,31 +4236,31 @@
       <c r="F238" s="3"/>
     </row>
     <row r="239" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="12" t="s">
+      <c r="A239" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F239" s="12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="6">
-        <v>105</v>
+      <c r="A240" s="9">
+        <v>104</v>
       </c>
       <c r="B240" s="9">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C240" s="9">
         <v>104</v>
@@ -4261,11 +4276,11 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="6">
-        <v>106</v>
+      <c r="A241" s="9">
+        <v>105</v>
       </c>
       <c r="B241" s="9">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C241" s="9">
         <v>109</v>
@@ -4281,14 +4296,14 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="6">
+      <c r="A242" s="9">
+        <v>111</v>
+      </c>
+      <c r="B242" s="9">
+        <v>122</v>
+      </c>
+      <c r="C242" s="9">
         <v>112</v>
-      </c>
-      <c r="B242" s="9">
-        <v>112</v>
-      </c>
-      <c r="C242" s="9">
-        <v>111</v>
       </c>
       <c r="D242" s="6">
         <v>106</v>
@@ -4301,14 +4316,14 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="6">
-        <v>122</v>
+      <c r="A243" s="9">
+        <v>112</v>
       </c>
       <c r="B243" s="9">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C243" s="9">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D243" s="6">
         <v>108</v>
@@ -4321,14 +4336,14 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="6">
-        <v>123</v>
+      <c r="A244" s="9">
+        <v>122</v>
       </c>
       <c r="B244" s="9">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C244" s="9">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D244" s="6">
         <v>109</v>
@@ -4341,14 +4356,14 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="6">
-        <v>151</v>
+      <c r="A245" s="9">
+        <v>123</v>
       </c>
       <c r="B245" s="9">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C245" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D245" s="6">
         <v>111</v>
@@ -4361,14 +4376,14 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="6">
-        <v>152</v>
+      <c r="A246" s="9">
+        <v>151</v>
       </c>
       <c r="B246" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C246" s="9">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D246" s="6">
         <v>112</v>
@@ -4381,14 +4396,14 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="6">
-        <v>153</v>
+      <c r="A247" s="9">
+        <v>152</v>
       </c>
       <c r="B247" s="9">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="C247" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D247" s="6">
         <v>117</v>
@@ -4401,14 +4416,14 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="6">
-        <v>154</v>
+      <c r="A248" s="9">
+        <v>153</v>
       </c>
       <c r="B248" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C248" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D248" s="6">
         <v>122</v>
@@ -4421,14 +4436,14 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="6">
+      <c r="A249" s="9">
+        <v>154</v>
+      </c>
+      <c r="B249" s="9">
+        <v>202</v>
+      </c>
+      <c r="C249" s="9">
         <v>200</v>
-      </c>
-      <c r="B249" s="9">
-        <v>201</v>
-      </c>
-      <c r="C249" s="9">
-        <v>153</v>
       </c>
       <c r="D249" s="6">
         <v>123</v>
@@ -4441,14 +4456,14 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="6">
+      <c r="A250" s="9">
+        <v>200</v>
+      </c>
+      <c r="B250" s="9">
+        <v>204</v>
+      </c>
+      <c r="C250" s="9">
         <v>201</v>
-      </c>
-      <c r="B250" s="9">
-        <v>202</v>
-      </c>
-      <c r="C250" s="9">
-        <v>154</v>
       </c>
       <c r="D250" s="6">
         <v>151</v>
@@ -4461,14 +4476,14 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="6">
+      <c r="A251" s="9">
+        <v>201</v>
+      </c>
+      <c r="B251" s="9">
+        <v>206</v>
+      </c>
+      <c r="C251" s="9">
         <v>202</v>
-      </c>
-      <c r="B251" s="9">
-        <v>203</v>
-      </c>
-      <c r="C251" s="9">
-        <v>200</v>
       </c>
       <c r="D251" s="6">
         <v>152</v>
@@ -4481,14 +4496,14 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="6">
+      <c r="A252" s="9">
+        <v>202</v>
+      </c>
+      <c r="B252" s="9">
+        <v>208</v>
+      </c>
+      <c r="C252" s="9">
         <v>203</v>
-      </c>
-      <c r="B252" s="9">
-        <v>204</v>
-      </c>
-      <c r="C252" s="9">
-        <v>201</v>
       </c>
       <c r="D252" s="6">
         <v>153</v>
@@ -4501,14 +4516,14 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="6">
+      <c r="A253" s="9">
+        <v>203</v>
+      </c>
+      <c r="B253" s="9">
+        <v>210</v>
+      </c>
+      <c r="C253" s="9">
         <v>204</v>
-      </c>
-      <c r="B253" s="9">
-        <v>206</v>
-      </c>
-      <c r="C253" s="9">
-        <v>202</v>
       </c>
       <c r="D253" s="6">
         <v>154</v>
@@ -4521,14 +4536,14 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="6">
+      <c r="A254" s="9">
+        <v>204</v>
+      </c>
+      <c r="B254" s="9">
+        <v>213</v>
+      </c>
+      <c r="C254" s="9">
         <v>206</v>
-      </c>
-      <c r="B254" s="9">
-        <v>208</v>
-      </c>
-      <c r="C254" s="9">
-        <v>203</v>
       </c>
       <c r="D254" s="6">
         <v>200</v>
@@ -4541,14 +4556,14 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="6">
-        <v>209</v>
+      <c r="A255" s="9">
+        <v>206</v>
       </c>
       <c r="B255" s="9">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C255" s="9">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D255" s="6">
         <v>201</v>
@@ -4561,14 +4576,14 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="6">
-        <v>210</v>
+      <c r="A256" s="9">
+        <v>208</v>
       </c>
       <c r="B256" s="9">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C256" s="9">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D256" s="6">
         <v>202</v>
@@ -4581,14 +4596,14 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="6">
-        <v>213</v>
+      <c r="A257" s="9">
+        <v>209</v>
       </c>
       <c r="B257" s="9">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C257" s="9">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D257" s="6">
         <v>203</v>
@@ -4601,14 +4616,14 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="6">
-        <v>215</v>
+      <c r="A258" s="9">
+        <v>210</v>
       </c>
       <c r="B258" s="9">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C258" s="9">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D258" s="6">
         <v>204</v>
@@ -4621,14 +4636,14 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="6">
-        <v>216</v>
+      <c r="A259" s="9">
+        <v>213</v>
       </c>
       <c r="B259" s="9">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C259" s="9">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D259" s="6">
         <v>206</v>
@@ -4641,14 +4656,14 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="6">
-        <v>217</v>
+      <c r="A260" s="9">
+        <v>215</v>
       </c>
       <c r="B260" s="9">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="C260" s="9">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D260" s="6">
         <v>208</v>
@@ -4661,14 +4676,14 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="6">
-        <v>219</v>
+      <c r="A261" s="9">
+        <v>216</v>
       </c>
       <c r="B261" s="9">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="C261" s="9">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D261" s="6">
         <v>209</v>
@@ -4681,14 +4696,14 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="6">
-        <v>301</v>
+      <c r="A262" s="9">
+        <v>217</v>
       </c>
       <c r="B262" s="9">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="C262" s="9">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D262" s="6">
         <v>210</v>
@@ -4701,14 +4716,14 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="6">
-        <v>303</v>
+      <c r="A263" s="9">
+        <v>218</v>
       </c>
       <c r="B263" s="9">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C263" s="9">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D263" s="6">
         <v>211</v>
@@ -4721,14 +4736,14 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="6">
-        <v>304</v>
+      <c r="A264" s="9">
+        <v>301</v>
       </c>
       <c r="B264" s="9">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C264" s="9">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D264" s="6">
         <v>213</v>
@@ -4741,14 +4756,14 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="6">
-        <v>305</v>
+      <c r="A265" s="9">
+        <v>303</v>
       </c>
       <c r="B265" s="9">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C265" s="9">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="D265" s="6">
         <v>214</v>
@@ -4761,14 +4776,14 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="6">
+      <c r="A266" s="9">
         <v>306</v>
       </c>
       <c r="B266" s="9">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C266" s="9">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="D266" s="6">
         <v>215</v>
@@ -4781,14 +4796,14 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="6">
+      <c r="A267" s="9">
         <v>308</v>
       </c>
       <c r="B267" s="9">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C267" s="9">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D267" s="6">
         <v>216</v>
@@ -4801,14 +4816,14 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="6">
+      <c r="A268" s="9">
         <v>310</v>
       </c>
       <c r="B268" s="9">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C268" s="9">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D268" s="6">
         <v>217</v>
@@ -4821,14 +4836,14 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="6">
-        <v>311</v>
+      <c r="A269" s="9">
+        <v>314</v>
       </c>
       <c r="B269" s="9">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C269" s="9">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D269" s="6">
         <v>218</v>
@@ -4841,14 +4856,14 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="6">
-        <v>314</v>
+      <c r="A270" s="9">
+        <v>317</v>
       </c>
       <c r="B270" s="9">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C270" s="9">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D270" s="6">
         <v>219</v>
@@ -4861,14 +4876,14 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="6">
-        <v>317</v>
+      <c r="A271" s="9">
+        <v>318</v>
       </c>
       <c r="B271" s="9">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C271" s="9">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D271" s="6">
         <v>301</v>
@@ -4881,14 +4896,14 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="6">
-        <v>321</v>
+      <c r="A272" s="9">
+        <v>319</v>
       </c>
       <c r="B272" s="9">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C272" s="9">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D272" s="6">
         <v>302</v>
@@ -4901,11 +4916,11 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="6">
-        <v>322</v>
+      <c r="A273" s="9">
+        <v>321</v>
       </c>
       <c r="B273" s="9">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C273" s="9">
         <v>314</v>
@@ -4921,11 +4936,11 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="6">
-        <v>403</v>
+      <c r="A274" s="9">
+        <v>322</v>
       </c>
       <c r="B274" s="9">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C274" s="9">
         <v>317</v>
@@ -4941,11 +4956,11 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="6">
-        <v>404</v>
+      <c r="A275" s="9">
+        <v>403</v>
       </c>
       <c r="B275" s="9">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="C275" s="9">
         <v>319</v>
@@ -4961,11 +4976,11 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="6">
-        <v>409</v>
+      <c r="A276" s="9">
+        <v>404</v>
       </c>
       <c r="B276" s="9">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="C276" s="9">
         <v>321</v>
@@ -4981,11 +4996,11 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="6">
-        <v>410</v>
+      <c r="A277" s="9">
+        <v>409</v>
       </c>
       <c r="B277" s="9">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C277" s="9">
         <v>322</v>
@@ -5001,11 +5016,11 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="6">
+      <c r="A278" s="9">
+        <v>411</v>
+      </c>
+      <c r="B278" s="9">
         <v>412</v>
-      </c>
-      <c r="B278" s="9">
-        <v>409</v>
       </c>
       <c r="C278" s="9">
         <v>403</v>
@@ -5021,10 +5036,10 @@
       </c>
     </row>
     <row r="279" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="7">
-        <v>413</v>
-      </c>
-      <c r="B279" s="10">
+      <c r="A279" s="10">
+        <v>412</v>
+      </c>
+      <c r="B279" s="9">
         <v>413</v>
       </c>
       <c r="C279" s="9">
@@ -5040,7 +5055,10 @@
         <v>311</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="10">
+        <v>717</v>
+      </c>
       <c r="C280" s="9">
         <v>409</v>
       </c>
@@ -5056,7 +5074,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C281" s="9">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D281" s="6">
         <v>317</v>
@@ -5068,9 +5086,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C282" s="10">
-        <v>717</v>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C282" s="9">
+        <v>416</v>
       </c>
       <c r="D282" s="6">
         <v>318</v>
@@ -5082,7 +5100,10 @@
         <v>318</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C283" s="10">
+        <v>717</v>
+      </c>
       <c r="D283" s="6">
         <v>319</v>
       </c>
@@ -5227,13 +5248,13 @@
     </row>
     <row r="296" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D296" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F296" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні аудиторії.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FE36494-E830-46EB-A586-B75B0BFCFBA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E05A895-ED07-4548-9775-E045A7D5EF67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{9700FD65-07A4-429E-A4D8-FD4F24C0BB3D}"/>
+    <workbookView xWindow="14805" yWindow="1095" windowWidth="13995" windowHeight="11505" xr2:uid="{C989C8D2-CB96-4B23-8DDE-60F48638D997}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>Перша пара</t>
   </si>
@@ -39,13 +33,10 @@
     <t>318/</t>
   </si>
   <si>
-    <t>111/</t>
+    <t>405/</t>
   </si>
   <si>
     <t>с.з.</t>
-  </si>
-  <si>
-    <t>311/</t>
   </si>
   <si>
     <t>Середа</t>
@@ -594,7 +585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58026389-1F19-4E5C-9AFB-2919C88B42AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2482C5C0-155B-4D77-87EF-6D14A9700755}">
   <dimension ref="A1:F296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -620,17 +611,17 @@
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="9">
         <v>104</v>
       </c>
       <c r="B2" s="6">
+        <v>108</v>
+      </c>
+      <c r="C2" s="9">
         <v>104</v>
       </c>
-      <c r="C2" s="9">
+      <c r="D2" s="9">
         <v>108</v>
-      </c>
-      <c r="D2" s="9">
-        <v>104</v>
       </c>
       <c r="E2" s="9">
         <v>104</v>
@@ -640,17 +631,17 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="9">
         <v>108</v>
       </c>
       <c r="B3" s="6">
+        <v>122</v>
+      </c>
+      <c r="C3" s="9">
         <v>108</v>
       </c>
-      <c r="C3" s="9">
+      <c r="D3" s="9">
         <v>112</v>
-      </c>
-      <c r="D3" s="9">
-        <v>105</v>
       </c>
       <c r="E3" s="9">
         <v>105</v>
@@ -660,17 +651,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="9">
         <v>112</v>
       </c>
       <c r="B4" s="6">
+        <v>123</v>
+      </c>
+      <c r="C4" s="9">
         <v>112</v>
       </c>
-      <c r="C4" s="9">
+      <c r="D4" s="9">
         <v>122</v>
-      </c>
-      <c r="D4" s="9">
-        <v>108</v>
       </c>
       <c r="E4" s="9">
         <v>106</v>
@@ -680,17 +671,17 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="9">
         <v>122</v>
       </c>
       <c r="B5" s="6">
+        <v>151</v>
+      </c>
+      <c r="C5" s="9">
         <v>122</v>
       </c>
-      <c r="C5" s="9">
-        <v>152</v>
-      </c>
       <c r="D5" s="9">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E5" s="9">
         <v>108</v>
@@ -700,17 +691,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="9">
+        <v>152</v>
+      </c>
+      <c r="B6" s="6">
+        <v>152</v>
+      </c>
+      <c r="C6" s="9">
         <v>123</v>
       </c>
-      <c r="B6" s="6">
-        <v>123</v>
-      </c>
-      <c r="C6" s="9">
-        <v>153</v>
-      </c>
       <c r="D6" s="9">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="E6" s="9">
         <v>109</v>
@@ -720,17 +711,17 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="9">
+        <v>153</v>
+      </c>
+      <c r="B7" s="6">
+        <v>153</v>
+      </c>
+      <c r="C7" s="9">
         <v>151</v>
       </c>
-      <c r="B7" s="6">
-        <v>151</v>
-      </c>
-      <c r="C7" s="9">
-        <v>154</v>
-      </c>
       <c r="D7" s="9">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E7" s="9">
         <v>111</v>
@@ -740,17 +731,17 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="9">
+        <v>154</v>
+      </c>
+      <c r="B8" s="6">
+        <v>202</v>
+      </c>
+      <c r="C8" s="9">
         <v>152</v>
       </c>
-      <c r="B8" s="6">
-        <v>152</v>
-      </c>
-      <c r="C8" s="9">
-        <v>201</v>
-      </c>
       <c r="D8" s="9">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="E8" s="9">
         <v>112</v>
@@ -760,17 +751,17 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>202</v>
+      <c r="A9" s="9">
+        <v>200</v>
       </c>
       <c r="B9" s="6">
+        <v>203</v>
+      </c>
+      <c r="C9" s="9">
         <v>153</v>
       </c>
-      <c r="C9" s="9">
-        <v>203</v>
-      </c>
       <c r="D9" s="9">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E9" s="9">
         <v>117</v>
@@ -780,17 +771,17 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>203</v>
+      <c r="A10" s="9">
+        <v>201</v>
       </c>
       <c r="B10" s="6">
+        <v>206</v>
+      </c>
+      <c r="C10" s="9">
         <v>154</v>
       </c>
-      <c r="C10" s="9">
-        <v>204</v>
-      </c>
       <c r="D10" s="9">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="E10" s="9">
         <v>122</v>
@@ -800,17 +791,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>206</v>
+      <c r="A11" s="9">
+        <v>202</v>
       </c>
       <c r="B11" s="6">
+        <v>208</v>
+      </c>
+      <c r="C11" s="9">
         <v>200</v>
       </c>
-      <c r="C11" s="9">
-        <v>208</v>
-      </c>
       <c r="D11" s="9">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="E11" s="9">
         <v>123</v>
@@ -820,17 +811,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>208</v>
+      <c r="A12" s="9">
+        <v>204</v>
       </c>
       <c r="B12" s="6">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C12" s="9">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D12" s="9">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="E12" s="9">
         <v>151</v>
@@ -840,17 +831,17 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="9">
+        <v>208</v>
+      </c>
+      <c r="B13" s="6">
         <v>210</v>
       </c>
-      <c r="B13" s="6">
-        <v>206</v>
-      </c>
       <c r="C13" s="9">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D13" s="9">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E13" s="9">
         <v>152</v>
@@ -860,17 +851,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="9">
+        <v>209</v>
+      </c>
+      <c r="B14" s="6">
         <v>211</v>
       </c>
-      <c r="B14" s="6">
-        <v>208</v>
-      </c>
       <c r="C14" s="9">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D14" s="9">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E14" s="9">
         <v>153</v>
@@ -880,17 +871,17 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>213</v>
+      <c r="A15" s="9">
+        <v>210</v>
       </c>
       <c r="B15" s="6">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C15" s="9">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D15" s="9">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E15" s="9">
         <v>154</v>
@@ -900,17 +891,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>214</v>
+      <c r="A16" s="9">
+        <v>211</v>
       </c>
       <c r="B16" s="6">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C16" s="9">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D16" s="9">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E16" s="9">
         <v>200</v>
@@ -920,17 +911,17 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>215</v>
+      <c r="A17" s="9">
+        <v>213</v>
       </c>
       <c r="B17" s="6">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C17" s="9">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D17" s="9">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E17" s="9">
         <v>201</v>
@@ -940,17 +931,17 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>216</v>
+      <c r="A18" s="9">
+        <v>215</v>
       </c>
       <c r="B18" s="6">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C18" s="9">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D18" s="9">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E18" s="9">
         <v>202</v>
@@ -960,17 +951,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>217</v>
+      <c r="A19" s="9">
+        <v>216</v>
       </c>
       <c r="B19" s="6">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C19" s="9">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D19" s="9">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E19" s="9">
         <v>203</v>
@@ -980,17 +971,17 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>218</v>
+      <c r="A20" s="9">
+        <v>217</v>
       </c>
       <c r="B20" s="6">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C20" s="9">
-        <v>304</v>
+        <v>215</v>
       </c>
       <c r="D20" s="9">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E20" s="9">
         <v>204</v>
@@ -1000,17 +991,17 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>219</v>
+      <c r="A21" s="9">
+        <v>218</v>
       </c>
       <c r="B21" s="6">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="C21" s="9">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="D21" s="9">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E21" s="9">
         <v>206</v>
@@ -1020,17 +1011,17 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>302</v>
+      <c r="A22" s="9">
+        <v>219</v>
       </c>
       <c r="B22" s="6">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C22" s="9">
-        <v>308</v>
+        <v>217</v>
       </c>
       <c r="D22" s="9">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E22" s="9">
         <v>208</v>
@@ -1040,17 +1031,17 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>303</v>
+      <c r="A23" s="9">
+        <v>302</v>
       </c>
       <c r="B23" s="6">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C23" s="9">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="D23" s="9">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E23" s="9">
         <v>209</v>
@@ -1060,17 +1051,17 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>304</v>
+      <c r="A24" s="9">
+        <v>303</v>
       </c>
       <c r="B24" s="6">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C24" s="9">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D24" s="9">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E24" s="9">
         <v>210</v>
@@ -1080,17 +1071,17 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>306</v>
+      <c r="A25" s="9">
+        <v>304</v>
       </c>
       <c r="B25" s="6">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C25" s="9">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="D25" s="9">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E25" s="9">
         <v>211</v>
@@ -1100,17 +1091,17 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>308</v>
+      <c r="A26" s="9">
+        <v>306</v>
       </c>
       <c r="B26" s="6">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C26" s="9">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D26" s="9">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="E26" s="9">
         <v>213</v>
@@ -1120,17 +1111,17 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>310</v>
+      <c r="A27" s="9">
+        <v>308</v>
       </c>
       <c r="B27" s="6">
         <v>321</v>
       </c>
       <c r="C27" s="9">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D27" s="9">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="E27" s="9">
         <v>214</v>
@@ -1140,17 +1131,17 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>314</v>
+      <c r="A28" s="9">
+        <v>310</v>
       </c>
       <c r="B28" s="6">
         <v>322</v>
       </c>
       <c r="C28" s="9">
-        <v>403</v>
+        <v>317</v>
       </c>
       <c r="D28" s="9">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="E28" s="9">
         <v>215</v>
@@ -1160,17 +1151,17 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="9">
         <v>317</v>
       </c>
       <c r="B29" s="6">
         <v>403</v>
       </c>
       <c r="C29" s="9">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D29" s="9">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E29" s="9">
         <v>216</v>
@@ -1180,17 +1171,17 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="9">
         <v>322</v>
       </c>
       <c r="B30" s="6">
         <v>404</v>
       </c>
       <c r="C30" s="9">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D30" s="9">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E30" s="9">
         <v>217</v>
@@ -1200,17 +1191,17 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="9">
+        <v>403</v>
+      </c>
+      <c r="B31" s="6">
+        <v>412</v>
+      </c>
+      <c r="C31" s="10">
         <v>405</v>
       </c>
-      <c r="B31" s="6">
-        <v>405</v>
-      </c>
-      <c r="C31" s="10">
-        <v>416</v>
-      </c>
       <c r="D31" s="9">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E31" s="9">
         <v>218</v>
@@ -1219,15 +1210,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>404</v>
+      </c>
+      <c r="B32" s="6">
         <v>416</v>
       </c>
-      <c r="B32" s="6">
-        <v>412</v>
-      </c>
       <c r="D32" s="9">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E32" s="9">
         <v>219</v>
@@ -1236,15 +1227,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="7">
-        <v>416</v>
-      </c>
       <c r="D33" s="9">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E33" s="9">
         <v>301</v>
@@ -1253,9 +1241,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D34" s="9">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E34" s="9">
         <v>302</v>
@@ -1264,9 +1255,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D35" s="9">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E35" s="9">
         <v>303</v>
@@ -1275,9 +1266,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D36" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E36" s="9">
         <v>304</v>
@@ -1286,9 +1277,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D37" s="9">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="E37" s="9">
         <v>305</v>
@@ -1297,7 +1288,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D38" s="9">
         <v>404</v>
       </c>
@@ -1308,7 +1299,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D39" s="9">
         <v>405</v>
       </c>
@@ -1319,7 +1310,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D40" s="9">
         <v>409</v>
       </c>
@@ -1330,9 +1321,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D41" s="9">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E41" s="9">
         <v>311</v>
@@ -1341,8 +1332,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D42" s="9">
+    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="10">
         <v>416</v>
       </c>
       <c r="E42" s="9">
@@ -1352,10 +1343,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="10" t="s">
-        <v>2</v>
-      </c>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E43" s="9">
         <v>317</v>
       </c>
@@ -1363,7 +1351,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E44" s="9">
         <v>319</v>
       </c>
@@ -1371,7 +1359,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E45" s="9">
         <v>321</v>
       </c>
@@ -1379,7 +1367,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E46" s="9">
         <v>322</v>
       </c>
@@ -1387,7 +1375,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E47" s="9">
         <v>403</v>
       </c>
@@ -1395,7 +1383,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E48" s="9">
         <v>404</v>
       </c>
@@ -1485,7 +1473,7 @@
       <c r="A60" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="8"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="5"/>
@@ -1495,8 +1483,8 @@
       <c r="A61" s="6">
         <v>104</v>
       </c>
-      <c r="B61" s="9">
-        <v>108</v>
+      <c r="B61" s="6">
+        <v>104</v>
       </c>
       <c r="C61" s="9">
         <v>104</v>
@@ -1513,10 +1501,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>106</v>
-      </c>
-      <c r="B62" s="9">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="B62" s="6">
+        <v>108</v>
       </c>
       <c r="C62" s="9">
         <v>108</v>
@@ -1533,13 +1521,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>108</v>
-      </c>
-      <c r="B63" s="9">
+        <v>112</v>
+      </c>
+      <c r="B63" s="6">
         <v>117</v>
       </c>
       <c r="C63" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D63" s="9">
         <v>106</v>
@@ -1553,13 +1541,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
+        <v>122</v>
+      </c>
+      <c r="B64" s="6">
+        <v>151</v>
+      </c>
+      <c r="C64" s="9">
         <v>112</v>
-      </c>
-      <c r="B64" s="9">
-        <v>122</v>
-      </c>
-      <c r="C64" s="9">
-        <v>117</v>
       </c>
       <c r="D64" s="9">
         <v>108</v>
@@ -1573,13 +1561,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>122</v>
-      </c>
-      <c r="B65" s="9">
         <v>123</v>
       </c>
+      <c r="B65" s="6">
+        <v>153</v>
+      </c>
       <c r="C65" s="9">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D65" s="9">
         <v>109</v>
@@ -1593,13 +1581,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>123</v>
-      </c>
-      <c r="B66" s="9">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="B66" s="6">
+        <v>154</v>
       </c>
       <c r="C66" s="9">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="D66" s="9">
         <v>111</v>
@@ -1613,16 +1601,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
+        <v>153</v>
+      </c>
+      <c r="B67" s="6">
+        <v>200</v>
+      </c>
+      <c r="C67" s="9">
         <v>151</v>
       </c>
-      <c r="B67" s="9">
-        <v>152</v>
-      </c>
-      <c r="C67" s="9">
-        <v>152</v>
-      </c>
       <c r="D67" s="9">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E67" s="6">
         <v>112</v>
@@ -1633,16 +1621,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
+        <v>154</v>
+      </c>
+      <c r="B68" s="6">
+        <v>201</v>
+      </c>
+      <c r="C68" s="9">
         <v>152</v>
       </c>
-      <c r="B68" s="9">
-        <v>153</v>
-      </c>
-      <c r="C68" s="9">
-        <v>153</v>
-      </c>
       <c r="D68" s="9">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E68" s="6">
         <v>117</v>
@@ -1653,16 +1641,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>154</v>
-      </c>
-      <c r="B69" s="9">
-        <v>154</v>
+        <v>200</v>
+      </c>
+      <c r="B69" s="6">
+        <v>202</v>
       </c>
       <c r="C69" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D69" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E69" s="6">
         <v>122</v>
@@ -1673,16 +1661,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>200</v>
-      </c>
-      <c r="B70" s="9">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="B70" s="6">
+        <v>203</v>
       </c>
       <c r="C70" s="9">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="D70" s="9">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E70" s="6">
         <v>123</v>
@@ -1693,16 +1681,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>201</v>
-      </c>
-      <c r="B71" s="9">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="B71" s="6">
+        <v>204</v>
       </c>
       <c r="C71" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E71" s="6">
         <v>151</v>
@@ -1713,16 +1701,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>202</v>
-      </c>
-      <c r="B72" s="9">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="B72" s="6">
+        <v>206</v>
       </c>
       <c r="C72" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D72" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E72" s="6">
         <v>152</v>
@@ -1733,16 +1721,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>203</v>
-      </c>
-      <c r="B73" s="9">
-        <v>204</v>
+        <v>206</v>
+      </c>
+      <c r="B73" s="6">
+        <v>209</v>
       </c>
       <c r="C73" s="9">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D73" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E73" s="6">
         <v>153</v>
@@ -1753,16 +1741,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>204</v>
-      </c>
-      <c r="B74" s="9">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="B74" s="6">
+        <v>210</v>
       </c>
       <c r="C74" s="9">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D74" s="9">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="E74" s="6">
         <v>154</v>
@@ -1773,16 +1761,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>208</v>
-      </c>
-      <c r="B75" s="9">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="B75" s="6">
+        <v>211</v>
       </c>
       <c r="C75" s="9">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D75" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E75" s="6">
         <v>200</v>
@@ -1795,14 +1783,14 @@
       <c r="A76" s="6">
         <v>210</v>
       </c>
-      <c r="B76" s="9">
-        <v>211</v>
+      <c r="B76" s="6">
+        <v>213</v>
       </c>
       <c r="C76" s="9">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D76" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E76" s="6">
         <v>201</v>
@@ -1813,16 +1801,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>213</v>
-      </c>
-      <c r="B77" s="9">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="B77" s="6">
+        <v>214</v>
       </c>
       <c r="C77" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D77" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E77" s="6">
         <v>202</v>
@@ -1835,14 +1823,14 @@
       <c r="A78" s="6">
         <v>214</v>
       </c>
-      <c r="B78" s="9">
-        <v>214</v>
+      <c r="B78" s="6">
+        <v>215</v>
       </c>
       <c r="C78" s="9">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D78" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E78" s="6">
         <v>203</v>
@@ -1853,16 +1841,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>217</v>
-      </c>
-      <c r="B79" s="9">
-        <v>217</v>
+        <v>215</v>
+      </c>
+      <c r="B79" s="6">
+        <v>218</v>
       </c>
       <c r="C79" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D79" s="9">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E79" s="6">
         <v>204</v>
@@ -1873,16 +1861,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>218</v>
-      </c>
-      <c r="B80" s="9">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="B80" s="6">
+        <v>219</v>
       </c>
       <c r="C80" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D80" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E80" s="6">
         <v>206</v>
@@ -1893,16 +1881,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>219</v>
-      </c>
-      <c r="B81" s="9">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="B81" s="6">
+        <v>303</v>
       </c>
       <c r="C81" s="9">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="D81" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E81" s="6">
         <v>208</v>
@@ -1913,16 +1901,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>303</v>
-      </c>
-      <c r="B82" s="9">
-        <v>303</v>
+        <v>218</v>
+      </c>
+      <c r="B82" s="6">
+        <v>304</v>
       </c>
       <c r="C82" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D82" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E82" s="6">
         <v>209</v>
@@ -1933,16 +1921,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>304</v>
-      </c>
-      <c r="B83" s="9">
-        <v>304</v>
+        <v>219</v>
+      </c>
+      <c r="B83" s="6">
+        <v>306</v>
       </c>
       <c r="C83" s="9">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D83" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E83" s="6">
         <v>210</v>
@@ -1953,16 +1941,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>306</v>
-      </c>
-      <c r="B84" s="9">
-        <v>306</v>
+        <v>303</v>
+      </c>
+      <c r="B84" s="6">
+        <v>308</v>
       </c>
       <c r="C84" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D84" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E84" s="6">
         <v>211</v>
@@ -1973,16 +1961,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>308</v>
-      </c>
-      <c r="B85" s="9">
+        <v>306</v>
+      </c>
+      <c r="B85" s="6">
         <v>310</v>
       </c>
       <c r="C85" s="9">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D85" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E85" s="6">
         <v>213</v>
@@ -1993,16 +1981,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>310</v>
-      </c>
-      <c r="B86" s="9">
-        <v>317</v>
+        <v>308</v>
+      </c>
+      <c r="B86" s="6">
+        <v>314</v>
       </c>
       <c r="C86" s="9">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D86" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E86" s="6">
         <v>214</v>
@@ -2013,16 +2001,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>314</v>
-      </c>
-      <c r="B87" s="9">
-        <v>321</v>
+        <v>310</v>
+      </c>
+      <c r="B87" s="6">
+        <v>317</v>
       </c>
       <c r="C87" s="9">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D87" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E87" s="6">
         <v>215</v>
@@ -2033,16 +2021,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>317</v>
-      </c>
-      <c r="B88" s="9">
-        <v>322</v>
+        <v>314</v>
+      </c>
+      <c r="B88" s="6">
+        <v>321</v>
       </c>
       <c r="C88" s="9">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D88" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E88" s="6">
         <v>216</v>
@@ -2055,14 +2043,14 @@
       <c r="A89" s="6">
         <v>321</v>
       </c>
-      <c r="B89" s="9">
-        <v>403</v>
+      <c r="B89" s="6">
+        <v>322</v>
       </c>
       <c r="C89" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D89" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E89" s="6">
         <v>217</v>
@@ -2073,16 +2061,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
+        <v>322</v>
+      </c>
+      <c r="B90" s="6">
         <v>403</v>
       </c>
-      <c r="B90" s="9">
-        <v>405</v>
-      </c>
       <c r="C90" s="9">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D90" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E90" s="6">
         <v>218</v>
@@ -2093,16 +2081,16 @@
     </row>
     <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
-        <v>404</v>
-      </c>
-      <c r="B91" s="10">
-        <v>416</v>
-      </c>
-      <c r="C91" s="9">
-        <v>404</v>
+        <v>403</v>
+      </c>
+      <c r="B91" s="7">
+        <v>405</v>
+      </c>
+      <c r="C91" s="10">
+        <v>405</v>
       </c>
       <c r="D91" s="9">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="E91" s="6">
         <v>219</v>
@@ -2112,14 +2100,11 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="7">
-        <v>405</v>
-      </c>
-      <c r="C92" s="9">
-        <v>416</v>
+      <c r="A92" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D92" s="9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E92" s="6">
         <v>301</v>
@@ -2129,9 +2114,6 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C93" s="9">
-        <v>717</v>
-      </c>
       <c r="D93" s="9">
         <v>303</v>
       </c>
@@ -2142,10 +2124,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="10" t="s">
-        <v>4</v>
-      </c>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D94" s="9">
         <v>304</v>
       </c>
@@ -2323,7 +2302,7 @@
     </row>
     <row r="110" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D110" s="9">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E110" s="6">
         <v>409</v>
@@ -2334,7 +2313,7 @@
     </row>
     <row r="111" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D111" s="9">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E111" s="6">
         <v>410</v>
@@ -2345,7 +2324,7 @@
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D112" s="9">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E112" s="6">
         <v>411</v>
@@ -2356,7 +2335,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D113" s="9">
-        <v>717</v>
+        <v>416</v>
       </c>
       <c r="E113" s="6">
         <v>412</v>
@@ -2403,7 +2382,7 @@
     <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2412,34 +2391,34 @@
       <c r="F119" s="3"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="D120" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D120" s="13" t="s">
-        <v>8</v>
-      </c>
       <c r="E120" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F120" s="12" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="9">
+      <c r="A121" s="6">
+        <v>105</v>
+      </c>
+      <c r="B121" s="9">
+        <v>104</v>
+      </c>
+      <c r="C121" s="9">
         <v>108</v>
-      </c>
-      <c r="B121" s="6">
-        <v>104</v>
-      </c>
-      <c r="C121" s="9">
-        <v>105</v>
       </c>
       <c r="D121" s="9">
         <v>104</v>
@@ -2452,11 +2431,11 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="9">
-        <v>112</v>
-      </c>
-      <c r="B122" s="6">
-        <v>105</v>
+      <c r="A122" s="6">
+        <v>106</v>
+      </c>
+      <c r="B122" s="9">
+        <v>108</v>
       </c>
       <c r="C122" s="9">
         <v>112</v>
@@ -2472,17 +2451,17 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="9">
-        <v>122</v>
-      </c>
-      <c r="B123" s="6">
-        <v>106</v>
+      <c r="A123" s="6">
+        <v>117</v>
+      </c>
+      <c r="B123" s="9">
+        <v>112</v>
       </c>
       <c r="C123" s="9">
         <v>122</v>
       </c>
       <c r="D123" s="9">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E123" s="9">
         <v>106</v>
@@ -2492,14 +2471,14 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="9">
+      <c r="A124" s="6">
         <v>123</v>
       </c>
-      <c r="B124" s="6">
-        <v>108</v>
+      <c r="B124" s="9">
+        <v>117</v>
       </c>
       <c r="C124" s="9">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D124" s="9">
         <v>112</v>
@@ -2512,14 +2491,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="9">
+      <c r="A125" s="6">
         <v>152</v>
       </c>
-      <c r="B125" s="6">
-        <v>112</v>
+      <c r="B125" s="9">
+        <v>122</v>
       </c>
       <c r="C125" s="9">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D125" s="9">
         <v>117</v>
@@ -2532,14 +2511,14 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="9">
-        <v>154</v>
-      </c>
-      <c r="B126" s="6">
-        <v>117</v>
+      <c r="A126" s="6">
+        <v>153</v>
+      </c>
+      <c r="B126" s="9">
+        <v>123</v>
       </c>
       <c r="C126" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D126" s="9">
         <v>122</v>
@@ -2552,17 +2531,17 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="9">
-        <v>200</v>
-      </c>
-      <c r="B127" s="6">
+      <c r="A127" s="6">
+        <v>154</v>
+      </c>
+      <c r="B127" s="9">
         <v>151</v>
       </c>
       <c r="C127" s="9">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D127" s="9">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="E127" s="9">
         <v>112</v>
@@ -2572,17 +2551,17 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="9">
+      <c r="A128" s="6">
         <v>201</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="9">
         <v>152</v>
       </c>
       <c r="C128" s="9">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="D128" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E128" s="9">
         <v>117</v>
@@ -2592,17 +2571,17 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="9">
+      <c r="A129" s="6">
         <v>202</v>
       </c>
-      <c r="B129" s="6">
+      <c r="B129" s="9">
+        <v>153</v>
+      </c>
+      <c r="C129" s="9">
         <v>200</v>
       </c>
-      <c r="C129" s="9">
-        <v>202</v>
-      </c>
       <c r="D129" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E129" s="9">
         <v>122</v>
@@ -2612,17 +2591,17 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="9">
+      <c r="A130" s="6">
         <v>203</v>
       </c>
-      <c r="B130" s="6">
+      <c r="B130" s="9">
+        <v>200</v>
+      </c>
+      <c r="C130" s="9">
         <v>201</v>
       </c>
-      <c r="C130" s="9">
-        <v>203</v>
-      </c>
       <c r="D130" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E130" s="9">
         <v>123</v>
@@ -2632,17 +2611,17 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="9">
+      <c r="A131" s="6">
         <v>204</v>
       </c>
-      <c r="B131" s="6">
+      <c r="B131" s="9">
+        <v>201</v>
+      </c>
+      <c r="C131" s="9">
         <v>202</v>
       </c>
-      <c r="C131" s="9">
-        <v>204</v>
-      </c>
       <c r="D131" s="9">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="E131" s="9">
         <v>151</v>
@@ -2652,17 +2631,17 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="9">
+      <c r="A132" s="6">
         <v>206</v>
       </c>
-      <c r="B132" s="6">
+      <c r="B132" s="9">
         <v>203</v>
       </c>
       <c r="C132" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D132" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E132" s="9">
         <v>152</v>
@@ -2672,17 +2651,17 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="9">
+      <c r="A133" s="6">
         <v>208</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B133" s="9">
         <v>204</v>
       </c>
       <c r="C133" s="9">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D133" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E133" s="9">
         <v>153</v>
@@ -2692,17 +2671,17 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="9">
+      <c r="A134" s="6">
         <v>209</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B134" s="9">
         <v>206</v>
       </c>
       <c r="C134" s="9">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D134" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E134" s="9">
         <v>154</v>
@@ -2712,17 +2691,17 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="9">
-        <v>213</v>
-      </c>
-      <c r="B135" s="6">
-        <v>208</v>
+      <c r="A135" s="6">
+        <v>210</v>
+      </c>
+      <c r="B135" s="9">
+        <v>209</v>
       </c>
       <c r="C135" s="9">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D135" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E135" s="9">
         <v>200</v>
@@ -2732,17 +2711,17 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="9">
-        <v>214</v>
-      </c>
-      <c r="B136" s="6">
-        <v>209</v>
+      <c r="A136" s="6">
+        <v>213</v>
+      </c>
+      <c r="B136" s="9">
+        <v>210</v>
       </c>
       <c r="C136" s="9">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D136" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E136" s="9">
         <v>201</v>
@@ -2752,17 +2731,17 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="9">
-        <v>215</v>
-      </c>
-      <c r="B137" s="6">
-        <v>213</v>
+      <c r="A137" s="6">
+        <v>216</v>
+      </c>
+      <c r="B137" s="9">
+        <v>211</v>
       </c>
       <c r="C137" s="9">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D137" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E137" s="9">
         <v>202</v>
@@ -2772,17 +2751,17 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="9">
-        <v>216</v>
-      </c>
-      <c r="B138" s="6">
+      <c r="A138" s="6">
+        <v>217</v>
+      </c>
+      <c r="B138" s="9">
         <v>214</v>
       </c>
       <c r="C138" s="9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D138" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E138" s="9">
         <v>203</v>
@@ -2792,17 +2771,17 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="9">
-        <v>217</v>
-      </c>
-      <c r="B139" s="6">
-        <v>216</v>
+      <c r="A139" s="6">
+        <v>219</v>
+      </c>
+      <c r="B139" s="9">
+        <v>215</v>
       </c>
       <c r="C139" s="9">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D139" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E139" s="9">
         <v>204</v>
@@ -2812,17 +2791,17 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="9">
-        <v>218</v>
-      </c>
-      <c r="B140" s="6">
-        <v>217</v>
+      <c r="A140" s="6">
+        <v>303</v>
+      </c>
+      <c r="B140" s="9">
+        <v>216</v>
       </c>
       <c r="C140" s="9">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D140" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E140" s="9">
         <v>206</v>
@@ -2832,17 +2811,17 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="9">
-        <v>219</v>
-      </c>
-      <c r="B141" s="6">
-        <v>218</v>
+      <c r="A141" s="6">
+        <v>304</v>
+      </c>
+      <c r="B141" s="9">
+        <v>217</v>
       </c>
       <c r="C141" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D141" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E141" s="9">
         <v>208</v>
@@ -2852,17 +2831,17 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="9">
-        <v>303</v>
-      </c>
-      <c r="B142" s="6">
-        <v>302</v>
+      <c r="A142" s="6">
+        <v>306</v>
+      </c>
+      <c r="B142" s="9">
+        <v>218</v>
       </c>
       <c r="C142" s="9">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="D142" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E142" s="9">
         <v>209</v>
@@ -2872,17 +2851,17 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="9">
-        <v>306</v>
-      </c>
-      <c r="B143" s="6">
-        <v>304</v>
+      <c r="A143" s="6">
+        <v>308</v>
+      </c>
+      <c r="B143" s="9">
+        <v>303</v>
       </c>
       <c r="C143" s="9">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="D143" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E143" s="9">
         <v>210</v>
@@ -2892,17 +2871,17 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="9">
-        <v>308</v>
-      </c>
-      <c r="B144" s="6">
-        <v>305</v>
+      <c r="A144" s="6">
+        <v>310</v>
+      </c>
+      <c r="B144" s="9">
+        <v>304</v>
       </c>
       <c r="C144" s="9">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D144" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E144" s="9">
         <v>211</v>
@@ -2912,17 +2891,17 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="9">
-        <v>310</v>
-      </c>
-      <c r="B145" s="6">
-        <v>306</v>
+      <c r="A145" s="6">
+        <v>314</v>
+      </c>
+      <c r="B145" s="9">
+        <v>308</v>
       </c>
       <c r="C145" s="9">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D145" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E145" s="9">
         <v>213</v>
@@ -2932,14 +2911,14 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="9">
-        <v>314</v>
-      </c>
-      <c r="B146" s="6">
-        <v>308</v>
+      <c r="A146" s="6">
+        <v>317</v>
+      </c>
+      <c r="B146" s="9">
+        <v>311</v>
       </c>
       <c r="C146" s="9">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D146" s="9">
         <v>219</v>
@@ -2952,14 +2931,14 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="9">
-        <v>317</v>
-      </c>
-      <c r="B147" s="6">
-        <v>310</v>
+      <c r="A147" s="6">
+        <v>321</v>
+      </c>
+      <c r="B147" s="9">
+        <v>314</v>
       </c>
       <c r="C147" s="9">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D147" s="9">
         <v>301</v>
@@ -2972,14 +2951,14 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="9">
+      <c r="A148" s="6">
         <v>322</v>
       </c>
-      <c r="B148" s="6">
+      <c r="B148" s="9">
+        <v>322</v>
+      </c>
+      <c r="C148" s="9">
         <v>311</v>
-      </c>
-      <c r="C148" s="9">
-        <v>317</v>
       </c>
       <c r="D148" s="9">
         <v>302</v>
@@ -2992,17 +2971,17 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="9">
-        <v>404</v>
-      </c>
-      <c r="B149" s="6">
+      <c r="A149" s="6">
+        <v>403</v>
+      </c>
+      <c r="B149" s="9">
+        <v>403</v>
+      </c>
+      <c r="C149" s="9">
         <v>314</v>
       </c>
-      <c r="C149" s="9">
-        <v>322</v>
-      </c>
       <c r="D149" s="9">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E149" s="9">
         <v>217</v>
@@ -3012,17 +2991,17 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="9">
-        <v>409</v>
-      </c>
-      <c r="B150" s="6">
+      <c r="A150" s="6">
+        <v>404</v>
+      </c>
+      <c r="B150" s="9">
+        <v>404</v>
+      </c>
+      <c r="C150" s="9">
         <v>317</v>
       </c>
-      <c r="C150" s="9">
-        <v>403</v>
-      </c>
       <c r="D150" s="9">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E150" s="9">
         <v>218</v>
@@ -3032,17 +3011,17 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="10">
-        <v>413</v>
-      </c>
-      <c r="B151" s="6">
+      <c r="A151" s="7">
+        <v>409</v>
+      </c>
+      <c r="B151" s="10">
+        <v>405</v>
+      </c>
+      <c r="C151" s="9">
         <v>321</v>
       </c>
-      <c r="C151" s="10">
-        <v>404</v>
-      </c>
       <c r="D151" s="9">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E151" s="9">
         <v>219</v>
@@ -3052,11 +3031,11 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B152" s="6">
-        <v>322</v>
+      <c r="C152" s="9">
+        <v>403</v>
       </c>
       <c r="D152" s="9">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E152" s="9">
         <v>301</v>
@@ -3065,12 +3044,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B153" s="6">
-        <v>403</v>
+    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C153" s="10">
+        <v>404</v>
       </c>
       <c r="D153" s="9">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E153" s="9">
         <v>302</v>
@@ -3079,12 +3058,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="7">
-        <v>412</v>
-      </c>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D154" s="9">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E154" s="9">
         <v>303</v>
@@ -3095,7 +3071,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D155" s="9">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E155" s="9">
         <v>304</v>
@@ -3106,7 +3082,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D156" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E156" s="9">
         <v>305</v>
@@ -3117,7 +3093,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D157" s="9">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="E157" s="9">
         <v>306</v>
@@ -3128,7 +3104,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D158" s="9">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E158" s="9">
         <v>308</v>
@@ -3139,7 +3115,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D159" s="9">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E159" s="9">
         <v>310</v>
@@ -3150,7 +3126,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D160" s="9">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E160" s="9">
         <v>311</v>
@@ -3205,7 +3181,7 @@
     </row>
     <row r="165" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D165" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E165" s="9">
         <v>322</v>
@@ -3312,7 +3288,7 @@
       <c r="A179" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B179" s="8"/>
+      <c r="B179" s="5"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
       <c r="E179" s="5"/>
@@ -3320,10 +3296,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
-        <v>122</v>
-      </c>
-      <c r="B180" s="9">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="B180" s="6">
+        <v>109</v>
       </c>
       <c r="C180" s="9">
         <v>106</v>
@@ -3340,13 +3316,13 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
-        <v>151</v>
-      </c>
-      <c r="B181" s="9">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="B181" s="6">
+        <v>112</v>
       </c>
       <c r="C181" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D181" s="9">
         <v>106</v>
@@ -3360,13 +3336,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
-        <v>152</v>
-      </c>
-      <c r="B182" s="9">
+        <v>122</v>
+      </c>
+      <c r="B182" s="6">
+        <v>122</v>
+      </c>
+      <c r="C182" s="9">
         <v>112</v>
-      </c>
-      <c r="C182" s="9">
-        <v>122</v>
       </c>
       <c r="D182" s="9">
         <v>108</v>
@@ -3380,16 +3356,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
-        <v>153</v>
-      </c>
-      <c r="B183" s="9">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="B183" s="6">
+        <v>123</v>
       </c>
       <c r="C183" s="9">
         <v>123</v>
       </c>
       <c r="D183" s="9">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E183" s="6">
         <v>108</v>
@@ -3400,16 +3376,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
-        <v>154</v>
-      </c>
-      <c r="B184" s="9">
+        <v>151</v>
+      </c>
+      <c r="B184" s="6">
         <v>151</v>
       </c>
       <c r="C184" s="9">
         <v>151</v>
       </c>
       <c r="D184" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E184" s="6">
         <v>109</v>
@@ -3420,16 +3396,16 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
-        <v>200</v>
-      </c>
-      <c r="B185" s="9">
+        <v>153</v>
+      </c>
+      <c r="B185" s="6">
         <v>152</v>
       </c>
       <c r="C185" s="9">
         <v>152</v>
       </c>
       <c r="D185" s="9">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E185" s="6">
         <v>111</v>
@@ -3440,16 +3416,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
-        <v>201</v>
-      </c>
-      <c r="B186" s="9">
+        <v>154</v>
+      </c>
+      <c r="B186" s="6">
         <v>153</v>
       </c>
       <c r="C186" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D186" s="9">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E186" s="6">
         <v>112</v>
@@ -3460,16 +3436,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
-        <v>202</v>
-      </c>
-      <c r="B187" s="9">
+        <v>200</v>
+      </c>
+      <c r="B187" s="6">
         <v>154</v>
       </c>
       <c r="C187" s="9">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="D187" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E187" s="6">
         <v>117</v>
@@ -3480,16 +3456,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
-        <v>204</v>
-      </c>
-      <c r="B188" s="9">
         <v>201</v>
       </c>
+      <c r="B188" s="6">
+        <v>200</v>
+      </c>
       <c r="C188" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D188" s="9">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E188" s="6">
         <v>122</v>
@@ -3500,16 +3476,16 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
-        <v>208</v>
-      </c>
-      <c r="B189" s="9">
         <v>202</v>
       </c>
+      <c r="B189" s="6">
+        <v>201</v>
+      </c>
       <c r="C189" s="9">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D189" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E189" s="6">
         <v>123</v>
@@ -3520,16 +3496,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
-        <v>209</v>
-      </c>
-      <c r="B190" s="9">
         <v>203</v>
       </c>
+      <c r="B190" s="6">
+        <v>202</v>
+      </c>
       <c r="C190" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D190" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E190" s="6">
         <v>151</v>
@@ -3540,16 +3516,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
-        <v>210</v>
-      </c>
-      <c r="B191" s="9">
         <v>204</v>
       </c>
+      <c r="B191" s="6">
+        <v>204</v>
+      </c>
       <c r="C191" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D191" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E191" s="6">
         <v>152</v>
@@ -3560,16 +3536,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <v>211</v>
-      </c>
-      <c r="B192" s="9">
         <v>206</v>
       </c>
+      <c r="B192" s="6">
+        <v>206</v>
+      </c>
       <c r="C192" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D192" s="9">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="E192" s="6">
         <v>153</v>
@@ -3580,16 +3556,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
-        <v>214</v>
-      </c>
-      <c r="B193" s="9">
         <v>208</v>
       </c>
+      <c r="B193" s="6">
+        <v>208</v>
+      </c>
       <c r="C193" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D193" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E193" s="6">
         <v>154</v>
@@ -3600,16 +3576,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
-        <v>215</v>
-      </c>
-      <c r="B194" s="9">
         <v>209</v>
       </c>
+      <c r="B194" s="6">
+        <v>210</v>
+      </c>
       <c r="C194" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D194" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E194" s="6">
         <v>200</v>
@@ -3620,16 +3596,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
-        <v>216</v>
-      </c>
-      <c r="B195" s="9">
         <v>210</v>
       </c>
+      <c r="B195" s="6">
+        <v>213</v>
+      </c>
       <c r="C195" s="9">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D195" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E195" s="6">
         <v>201</v>
@@ -3640,16 +3616,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
-        <v>217</v>
-      </c>
-      <c r="B196" s="9">
-        <v>211</v>
+        <v>213</v>
+      </c>
+      <c r="B196" s="6">
+        <v>215</v>
       </c>
       <c r="C196" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D196" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E196" s="6">
         <v>202</v>
@@ -3660,16 +3636,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
-        <v>218</v>
-      </c>
-      <c r="B197" s="9">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="B197" s="6">
+        <v>216</v>
       </c>
       <c r="C197" s="9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D197" s="9">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E197" s="6">
         <v>203</v>
@@ -3680,16 +3656,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
-        <v>219</v>
-      </c>
-      <c r="B198" s="9">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="B198" s="6">
+        <v>217</v>
       </c>
       <c r="C198" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D198" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E198" s="6">
         <v>204</v>
@@ -3700,16 +3676,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
-        <v>303</v>
-      </c>
-      <c r="B199" s="9">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="B199" s="6">
+        <v>218</v>
       </c>
       <c r="C199" s="9">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D199" s="9">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E199" s="6">
         <v>206</v>
@@ -3720,16 +3696,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
-        <v>304</v>
-      </c>
-      <c r="B200" s="9">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="B200" s="6">
+        <v>219</v>
       </c>
       <c r="C200" s="9">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="D200" s="9">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E200" s="6">
         <v>208</v>
@@ -3740,16 +3716,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
-        <v>305</v>
-      </c>
-      <c r="B201" s="9">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="B201" s="6">
+        <v>304</v>
       </c>
       <c r="C201" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D201" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E201" s="6">
         <v>209</v>
@@ -3760,16 +3736,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
+        <v>303</v>
+      </c>
+      <c r="B202" s="6">
         <v>306</v>
       </c>
-      <c r="B202" s="9">
-        <v>219</v>
-      </c>
       <c r="C202" s="9">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D202" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E202" s="6">
         <v>210</v>
@@ -3780,16 +3756,16 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
+        <v>304</v>
+      </c>
+      <c r="B203" s="6">
         <v>308</v>
       </c>
-      <c r="B203" s="9">
-        <v>303</v>
-      </c>
       <c r="C203" s="9">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D203" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E203" s="6">
         <v>211</v>
@@ -3800,16 +3776,16 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
-        <v>314</v>
-      </c>
-      <c r="B204" s="9">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="B204" s="6">
+        <v>310</v>
       </c>
       <c r="C204" s="9">
         <v>308</v>
       </c>
       <c r="D204" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E204" s="6">
         <v>213</v>
@@ -3820,16 +3796,16 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
-        <v>317</v>
-      </c>
-      <c r="B205" s="9">
         <v>306</v>
+      </c>
+      <c r="B205" s="6">
+        <v>314</v>
       </c>
       <c r="C205" s="9">
         <v>310</v>
       </c>
       <c r="D205" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E205" s="6">
         <v>214</v>
@@ -3840,16 +3816,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
-        <v>318</v>
-      </c>
-      <c r="B206" s="9">
         <v>308</v>
       </c>
+      <c r="B206" s="6">
+        <v>317</v>
+      </c>
       <c r="C206" s="9">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D206" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E206" s="6">
         <v>215</v>
@@ -3860,16 +3836,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
-        <v>321</v>
-      </c>
-      <c r="B207" s="9">
-        <v>311</v>
+        <v>310</v>
+      </c>
+      <c r="B207" s="6">
+        <v>318</v>
       </c>
       <c r="C207" s="9">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D207" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E207" s="6">
         <v>216</v>
@@ -3880,16 +3856,16 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
-        <v>322</v>
-      </c>
-      <c r="B208" s="9">
         <v>314</v>
       </c>
+      <c r="B208" s="6">
+        <v>319</v>
+      </c>
       <c r="C208" s="9">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D208" s="9">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="E208" s="6">
         <v>217</v>
@@ -3900,16 +3876,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
-        <v>404</v>
-      </c>
-      <c r="B209" s="9">
         <v>321</v>
       </c>
+      <c r="B209" s="6">
+        <v>321</v>
+      </c>
       <c r="C209" s="9">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D209" s="9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E209" s="6">
         <v>218</v>
@@ -3920,16 +3896,16 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
-        <v>405</v>
-      </c>
-      <c r="B210" s="9">
-        <v>404</v>
+        <v>322</v>
+      </c>
+      <c r="B210" s="6">
+        <v>322</v>
       </c>
       <c r="C210" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D210" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E210" s="6">
         <v>219</v>
@@ -3938,18 +3914,18 @@
         <v>219</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="7">
-        <v>413</v>
-      </c>
-      <c r="B211" s="10">
-        <v>413</v>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="6">
+        <v>403</v>
+      </c>
+      <c r="B211" s="6">
+        <v>403</v>
       </c>
       <c r="C211" s="9">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="D211" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E211" s="6">
         <v>301</v>
@@ -3959,11 +3935,17 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="6">
+        <v>404</v>
+      </c>
+      <c r="B212" s="6">
+        <v>404</v>
+      </c>
       <c r="C212" s="9">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D212" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E212" s="6">
         <v>302</v>
@@ -3972,12 +3954,18 @@
         <v>302</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C213" s="9">
-        <v>404</v>
+    <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="7">
+        <v>416</v>
+      </c>
+      <c r="B213" s="7">
+        <v>413</v>
+      </c>
+      <c r="C213" s="10">
+        <v>410</v>
       </c>
       <c r="D213" s="9">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E213" s="6">
         <v>303</v>
@@ -3986,12 +3974,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C214" s="10">
-        <v>410</v>
-      </c>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D214" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E214" s="6">
         <v>304</v>
@@ -4002,7 +3987,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D215" s="9">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E215" s="6">
         <v>305</v>
@@ -4013,7 +3998,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D216" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E216" s="6">
         <v>306</v>
@@ -4024,7 +4009,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D217" s="9">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E217" s="6">
         <v>308</v>
@@ -4035,7 +4020,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D218" s="9">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E218" s="6">
         <v>310</v>
@@ -4046,7 +4031,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D219" s="9">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E219" s="6">
         <v>311</v>
@@ -4057,7 +4042,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D220" s="9">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E220" s="6">
         <v>314</v>
@@ -4068,7 +4053,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D221" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E221" s="6">
         <v>317</v>
@@ -4101,7 +4086,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D224" s="9">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E224" s="6">
         <v>321</v>
@@ -4112,7 +4097,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D225" s="9">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E225" s="6">
         <v>322</v>
@@ -4123,7 +4108,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D226" s="9">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E226" s="6">
         <v>403</v>
@@ -4134,7 +4119,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D227" s="9">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E227" s="6">
         <v>404</v>
@@ -4145,7 +4130,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D228" s="9">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E228" s="6">
         <v>405</v>
@@ -4156,7 +4141,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D229" s="9">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E229" s="6">
         <v>409</v>
@@ -4227,7 +4212,7 @@
     <row r="237" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="238" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -4240,27 +4225,27 @@
         <v>0</v>
       </c>
       <c r="B239" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C239" s="13" t="s">
+      <c r="D239" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D239" s="12" t="s">
-        <v>8</v>
-      </c>
       <c r="E239" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="F239" s="12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="9">
+        <v>105</v>
+      </c>
+      <c r="B240" s="9">
         <v>104</v>
-      </c>
-      <c r="B240" s="9">
-        <v>111</v>
       </c>
       <c r="C240" s="9">
         <v>104</v>
@@ -4277,13 +4262,13 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="9">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B241" s="9">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C241" s="9">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D241" s="6">
         <v>105</v>
@@ -4297,10 +4282,10 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B242" s="9">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C242" s="9">
         <v>112</v>
@@ -4317,10 +4302,10 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="9">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B243" s="9">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C243" s="9">
         <v>117</v>
@@ -4337,10 +4322,10 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="9">
+        <v>151</v>
+      </c>
+      <c r="B244" s="9">
         <v>122</v>
-      </c>
-      <c r="B244" s="9">
-        <v>152</v>
       </c>
       <c r="C244" s="9">
         <v>122</v>
@@ -4357,10 +4342,10 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="9">
+        <v>152</v>
+      </c>
+      <c r="B245" s="9">
         <v>123</v>
-      </c>
-      <c r="B245" s="9">
-        <v>153</v>
       </c>
       <c r="C245" s="9">
         <v>123</v>
@@ -4377,10 +4362,10 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="9">
+        <v>153</v>
+      </c>
+      <c r="B246" s="9">
         <v>151</v>
-      </c>
-      <c r="B246" s="9">
-        <v>154</v>
       </c>
       <c r="C246" s="9">
         <v>151</v>
@@ -4397,10 +4382,10 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="9">
+        <v>200</v>
+      </c>
+      <c r="B247" s="9">
         <v>152</v>
-      </c>
-      <c r="B247" s="9">
-        <v>200</v>
       </c>
       <c r="C247" s="9">
         <v>152</v>
@@ -4417,10 +4402,10 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="9">
+        <v>201</v>
+      </c>
+      <c r="B248" s="9">
         <v>153</v>
-      </c>
-      <c r="B248" s="9">
-        <v>201</v>
       </c>
       <c r="C248" s="9">
         <v>153</v>
@@ -4437,13 +4422,13 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="9">
+        <v>202</v>
+      </c>
+      <c r="B249" s="9">
         <v>154</v>
       </c>
-      <c r="B249" s="9">
-        <v>202</v>
-      </c>
       <c r="C249" s="9">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="D249" s="6">
         <v>123</v>
@@ -4457,13 +4442,13 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="9">
+        <v>203</v>
+      </c>
+      <c r="B250" s="9">
         <v>200</v>
       </c>
-      <c r="B250" s="9">
-        <v>204</v>
-      </c>
       <c r="C250" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D250" s="6">
         <v>151</v>
@@ -4477,13 +4462,13 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="9">
+        <v>204</v>
+      </c>
+      <c r="B251" s="9">
         <v>201</v>
       </c>
-      <c r="B251" s="9">
-        <v>206</v>
-      </c>
       <c r="C251" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D251" s="6">
         <v>152</v>
@@ -4497,13 +4482,13 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="9">
+        <v>206</v>
+      </c>
+      <c r="B252" s="9">
+        <v>203</v>
+      </c>
+      <c r="C252" s="9">
         <v>202</v>
-      </c>
-      <c r="B252" s="9">
-        <v>208</v>
-      </c>
-      <c r="C252" s="9">
-        <v>203</v>
       </c>
       <c r="D252" s="6">
         <v>153</v>
@@ -4517,10 +4502,10 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="9">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B253" s="9">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C253" s="9">
         <v>204</v>
@@ -4537,13 +4522,13 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="9">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B254" s="9">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C254" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D254" s="6">
         <v>200</v>
@@ -4557,13 +4542,13 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="9">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B255" s="9">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C255" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D255" s="6">
         <v>201</v>
@@ -4577,13 +4562,13 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="9">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B256" s="9">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C256" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D256" s="6">
         <v>202</v>
@@ -4597,13 +4582,13 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="9">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B257" s="9">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C257" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D257" s="6">
         <v>203</v>
@@ -4617,13 +4602,13 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="9">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B258" s="9">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C258" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D258" s="6">
         <v>204</v>
@@ -4637,13 +4622,13 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="9">
+        <v>215</v>
+      </c>
+      <c r="B259" s="9">
         <v>213</v>
       </c>
-      <c r="B259" s="9">
-        <v>219</v>
-      </c>
       <c r="C259" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D259" s="6">
         <v>206</v>
@@ -4657,13 +4642,13 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="9">
+        <v>216</v>
+      </c>
+      <c r="B260" s="9">
+        <v>214</v>
+      </c>
+      <c r="C260" s="9">
         <v>215</v>
-      </c>
-      <c r="B260" s="9">
-        <v>301</v>
-      </c>
-      <c r="C260" s="9">
-        <v>214</v>
       </c>
       <c r="D260" s="6">
         <v>208</v>
@@ -4677,10 +4662,10 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B261" s="9">
-        <v>302</v>
+        <v>215</v>
       </c>
       <c r="C261" s="9">
         <v>216</v>
@@ -4697,10 +4682,10 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B262" s="9">
-        <v>303</v>
+        <v>216</v>
       </c>
       <c r="C262" s="9">
         <v>217</v>
@@ -4717,10 +4702,10 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B263" s="9">
-        <v>304</v>
+        <v>217</v>
       </c>
       <c r="C263" s="9">
         <v>218</v>
@@ -4740,7 +4725,7 @@
         <v>301</v>
       </c>
       <c r="B264" s="9">
-        <v>305</v>
+        <v>218</v>
       </c>
       <c r="C264" s="9">
         <v>219</v>
@@ -4760,7 +4745,7 @@
         <v>303</v>
       </c>
       <c r="B265" s="9">
-        <v>306</v>
+        <v>219</v>
       </c>
       <c r="C265" s="9">
         <v>301</v>
@@ -4777,13 +4762,13 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="9">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B266" s="9">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C266" s="9">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D266" s="6">
         <v>215</v>
@@ -4797,13 +4782,13 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="9">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B267" s="9">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C267" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D267" s="6">
         <v>216</v>
@@ -4817,13 +4802,13 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="9">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B268" s="9">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C268" s="9">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D268" s="6">
         <v>217</v>
@@ -4837,13 +4822,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="9">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B269" s="9">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C269" s="9">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D269" s="6">
         <v>218</v>
@@ -4857,13 +4842,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="9">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B270" s="9">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C270" s="9">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D270" s="6">
         <v>219</v>
@@ -4877,13 +4862,13 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="9">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B271" s="9">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C271" s="9">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D271" s="6">
         <v>301</v>
@@ -4897,13 +4882,13 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="9">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B272" s="9">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C272" s="9">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D272" s="6">
         <v>302</v>
@@ -4917,13 +4902,13 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="9">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B273" s="9">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C273" s="9">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D273" s="6">
         <v>303</v>
@@ -4937,10 +4922,10 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B274" s="9">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C274" s="9">
         <v>317</v>
@@ -4960,7 +4945,7 @@
         <v>403</v>
       </c>
       <c r="B275" s="9">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="C275" s="9">
         <v>319</v>
@@ -4980,7 +4965,7 @@
         <v>404</v>
       </c>
       <c r="B276" s="9">
-        <v>404</v>
+        <v>319</v>
       </c>
       <c r="C276" s="9">
         <v>321</v>
@@ -5000,7 +4985,7 @@
         <v>409</v>
       </c>
       <c r="B277" s="9">
-        <v>409</v>
+        <v>321</v>
       </c>
       <c r="C277" s="9">
         <v>322</v>
@@ -5020,7 +5005,7 @@
         <v>411</v>
       </c>
       <c r="B278" s="9">
-        <v>412</v>
+        <v>322</v>
       </c>
       <c r="C278" s="9">
         <v>403</v>
@@ -5035,12 +5020,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="10">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="9">
         <v>412</v>
       </c>
       <c r="B279" s="9">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C279" s="9">
         <v>404</v>
@@ -5056,11 +5041,14 @@
       </c>
     </row>
     <row r="280" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="10">
-        <v>717</v>
+      <c r="A280" s="10">
+        <v>413</v>
+      </c>
+      <c r="B280" s="9">
+        <v>411</v>
       </c>
       <c r="C280" s="9">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D280" s="6">
         <v>314</v>
@@ -5072,9 +5060,12 @@
         <v>314</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="10">
+        <v>412</v>
+      </c>
       <c r="C281" s="9">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D281" s="6">
         <v>317</v>
@@ -5088,7 +5079,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C282" s="9">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D282" s="6">
         <v>318</v>
